--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr backupFile="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\PET36_IE_2020JUN11_SSPx_JG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF366E5-CFB0-4EAE-9568-A4DD4DC20D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06577315-435B-42FF-81FA-6FA260A9A86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="-120" windowWidth="37425" windowHeight="21840" xr2:uid="{194177E5-D604-47FB-933F-7CD5106C261E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{194177E5-D604-47FB-933F-7CD5106C261E}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -2906,31 +2906,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81DF5AD-B845-4EDD-A631-66C609C42342}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="90.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>687</v>
       </c>
@@ -2962,15 +2954,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>694</v>
       </c>
       <c r="B3" t="s">
         <v>695</v>
       </c>
-      <c r="D3" t="s">
-        <v>696</v>
+      <c r="D3" t="str">
+        <f>"z_"&amp;N3</f>
+        <v>z_AGR-DMD</v>
       </c>
       <c r="E3" t="s">
         <v>697</v>
@@ -2981,13 +2974,17 @@
       <c r="G3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>698</v>
       </c>
-      <c r="D4" t="s">
-        <v>699</v>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D67" si="0">"z_"&amp;N4</f>
+        <v>z_ALL_STM</v>
       </c>
       <c r="E4" t="s">
         <v>699</v>
@@ -2998,13 +2995,17 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>700</v>
       </c>
-      <c r="D5" t="s">
-        <v>701</v>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALL_TH</v>
       </c>
       <c r="E5" t="s">
         <v>702</v>
@@ -3015,16 +3016,20 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>703</v>
       </c>
       <c r="B6" t="s">
         <v>704</v>
       </c>
-      <c r="D6" t="s">
-        <v>705</v>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLBIO</v>
       </c>
       <c r="E6" t="s">
         <v>706</v>
@@ -3035,16 +3040,20 @@
       <c r="G6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>703</v>
       </c>
       <c r="B7" t="s">
         <v>707</v>
       </c>
-      <c r="D7" t="s">
-        <v>708</v>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLBIOGAS</v>
       </c>
       <c r="E7" t="s">
         <v>148</v>
@@ -3055,13 +3064,17 @@
       <c r="G7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>709</v>
       </c>
-      <c r="D8" t="s">
-        <v>710</v>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLBIOLIQ</v>
       </c>
       <c r="E8" t="s">
         <v>711</v>
@@ -3072,16 +3085,20 @@
       <c r="G8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>703</v>
       </c>
       <c r="B9" t="s">
         <v>712</v>
       </c>
-      <c r="D9" t="s">
-        <v>713</v>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLBIOMASS</v>
       </c>
       <c r="E9" t="s">
         <v>714</v>
@@ -3092,16 +3109,20 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>703</v>
       </c>
       <c r="B10" t="s">
         <v>715</v>
       </c>
-      <c r="D10" t="s">
-        <v>716</v>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLCOAL</v>
       </c>
       <c r="E10" t="s">
         <v>151</v>
@@ -3112,13 +3133,17 @@
       <c r="G10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>717</v>
       </c>
-      <c r="D11" t="s">
-        <v>718</v>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLELC</v>
       </c>
       <c r="E11" t="s">
         <v>350</v>
@@ -3129,13 +3154,17 @@
       <c r="G11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>719</v>
       </c>
-      <c r="D12" t="s">
-        <v>720</v>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLGAS</v>
       </c>
       <c r="E12" t="s">
         <v>158</v>
@@ -3146,16 +3175,20 @@
       <c r="G12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>703</v>
       </c>
       <c r="B13" t="s">
         <v>721</v>
       </c>
-      <c r="D13" t="s">
-        <v>722</v>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLGEO</v>
       </c>
       <c r="E13" t="s">
         <v>723</v>
@@ -3166,16 +3199,20 @@
       <c r="G13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>703</v>
       </c>
       <c r="B14" t="s">
         <v>724</v>
       </c>
-      <c r="D14" t="s">
-        <v>725</v>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLH2</v>
       </c>
       <c r="E14" t="s">
         <v>726</v>
@@ -3186,13 +3223,17 @@
       <c r="G14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>727</v>
       </c>
-      <c r="D15" t="s">
-        <v>728</v>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLHET</v>
       </c>
       <c r="E15" t="s">
         <v>729</v>
@@ -3203,13 +3244,17 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>730</v>
       </c>
-      <c r="D16" t="s">
-        <v>731</v>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLHETNOIND</v>
       </c>
       <c r="E16" t="s">
         <v>729</v>
@@ -3220,16 +3265,20 @@
       <c r="G16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>703</v>
       </c>
       <c r="B17" t="s">
         <v>291</v>
       </c>
-      <c r="D17" t="s">
-        <v>732</v>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLHYD</v>
       </c>
       <c r="E17" t="s">
         <v>293</v>
@@ -3240,16 +3289,20 @@
       <c r="G17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>703</v>
       </c>
       <c r="B18" t="s">
         <v>733</v>
       </c>
-      <c r="D18" t="s">
-        <v>734</v>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLNUC</v>
       </c>
       <c r="E18" t="s">
         <v>172</v>
@@ -3260,13 +3313,17 @@
       <c r="G18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>831</v>
       </c>
-      <c r="D19" t="s">
-        <v>735</v>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLOCE</v>
       </c>
       <c r="E19" t="s">
         <v>736</v>
@@ -3277,16 +3334,20 @@
       <c r="G19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>703</v>
       </c>
       <c r="B20" t="s">
         <v>737</v>
       </c>
-      <c r="D20" t="s">
-        <v>738</v>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLOIL</v>
       </c>
       <c r="E20" t="s">
         <v>175</v>
@@ -3297,16 +3358,20 @@
       <c r="G20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>703</v>
       </c>
       <c r="B21" t="s">
         <v>739</v>
       </c>
-      <c r="D21" t="s">
-        <v>740</v>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLREN</v>
       </c>
       <c r="E21" t="s">
         <v>516</v>
@@ -3317,13 +3382,17 @@
       <c r="G21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>305</v>
       </c>
-      <c r="D22" t="s">
-        <v>741</v>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLSOL</v>
       </c>
       <c r="E22" t="s">
         <v>307</v>
@@ -3334,16 +3403,20 @@
       <c r="G22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>703</v>
       </c>
       <c r="B23" t="s">
         <v>742</v>
       </c>
-      <c r="D23" t="s">
-        <v>743</v>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLSYN</v>
       </c>
       <c r="E23" t="s">
         <v>744</v>
@@ -3354,13 +3427,17 @@
       <c r="G23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>311</v>
       </c>
-      <c r="D24" t="s">
-        <v>745</v>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLWIN</v>
       </c>
       <c r="E24" t="s">
         <v>313</v>
@@ -3371,16 +3448,20 @@
       <c r="G24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>746</v>
       </c>
       <c r="B25" t="s">
         <v>747</v>
       </c>
-      <c r="D25" t="s">
-        <v>748</v>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CH4</v>
       </c>
       <c r="E25" t="s">
         <v>748</v>
@@ -3391,16 +3472,20 @@
       <c r="G25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>694</v>
       </c>
       <c r="B26" t="s">
         <v>677</v>
       </c>
-      <c r="D26" t="s">
-        <v>749</v>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHX</v>
       </c>
       <c r="E26" t="s">
         <v>749</v>
@@ -3411,16 +3496,20 @@
       <c r="G26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>746</v>
       </c>
       <c r="B27" t="s">
         <v>750</v>
       </c>
-      <c r="D27" t="s">
-        <v>751</v>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CO2</v>
       </c>
       <c r="E27" t="s">
         <v>751</v>
@@ -3431,16 +3520,20 @@
       <c r="G27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>694</v>
       </c>
       <c r="B28" t="s">
         <v>832</v>
       </c>
-      <c r="D28" t="s">
-        <v>752</v>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>z_DEM_AGR</v>
       </c>
       <c r="E28" t="s">
         <v>753</v>
@@ -3451,16 +3544,20 @@
       <c r="G28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>694</v>
       </c>
       <c r="B29" t="s">
         <v>833</v>
       </c>
-      <c r="D29" t="s">
-        <v>754</v>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>z_DEM_COM</v>
       </c>
       <c r="E29" t="s">
         <v>755</v>
@@ -3471,16 +3568,20 @@
       <c r="G29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>694</v>
       </c>
       <c r="B30" t="s">
         <v>834</v>
       </c>
-      <c r="D30" t="s">
-        <v>756</v>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>z_DEM_IND</v>
       </c>
       <c r="E30" t="s">
         <v>757</v>
@@ -3491,13 +3592,17 @@
       <c r="G30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>446</v>
       </c>
-      <c r="D31" t="s">
-        <v>758</v>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>z_DEM_RSD</v>
       </c>
       <c r="E31" t="s">
         <v>759</v>
@@ -3508,16 +3613,20 @@
       <c r="G31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>694</v>
       </c>
       <c r="B32" t="s">
         <v>835</v>
       </c>
-      <c r="D32" t="s">
-        <v>760</v>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>z_DEM_TRA</v>
       </c>
       <c r="E32" t="s">
         <v>761</v>
@@ -3528,16 +3637,20 @@
       <c r="G32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>694</v>
       </c>
       <c r="B33" t="s">
         <v>685</v>
       </c>
-      <c r="D33" t="s">
-        <v>762</v>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>z_DEMRHX</v>
       </c>
       <c r="E33" t="s">
         <v>762</v>
@@ -3548,13 +3661,17 @@
       <c r="G33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>763</v>
       </c>
-      <c r="D34" t="s">
-        <v>764</v>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>z_DM</v>
       </c>
       <c r="E34" t="s">
         <v>764</v>
@@ -3565,16 +3682,20 @@
       <c r="G34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>746</v>
       </c>
       <c r="B35" t="s">
         <v>747</v>
       </c>
-      <c r="D35" t="s">
-        <v>765</v>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ENV_CH4</v>
       </c>
       <c r="E35" t="s">
         <v>765</v>
@@ -3585,16 +3706,20 @@
       <c r="G35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>746</v>
       </c>
       <c r="B36" t="s">
         <v>766</v>
       </c>
-      <c r="D36" t="s">
-        <v>767</v>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ENV_CO2</v>
       </c>
       <c r="E36" t="s">
         <v>767</v>
@@ -3605,16 +3730,20 @@
       <c r="G36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>746</v>
       </c>
       <c r="B37" t="s">
         <v>768</v>
       </c>
-      <c r="D37" t="s">
-        <v>769</v>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ENV_COX</v>
       </c>
       <c r="E37" t="s">
         <v>770</v>
@@ -3625,16 +3754,20 @@
       <c r="G37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>746</v>
       </c>
       <c r="B38" t="s">
         <v>771</v>
       </c>
-      <c r="D38" t="s">
-        <v>772</v>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ENV_N2O</v>
       </c>
       <c r="E38" t="s">
         <v>772</v>
@@ -3645,16 +3778,20 @@
       <c r="G38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>746</v>
       </c>
       <c r="B39" t="s">
         <v>773</v>
       </c>
-      <c r="D39" t="s">
-        <v>774</v>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ENV_NOX</v>
       </c>
       <c r="E39" t="s">
         <v>774</v>
@@ -3665,16 +3802,20 @@
       <c r="G39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>746</v>
       </c>
       <c r="B40" t="s">
         <v>775</v>
       </c>
-      <c r="D40" t="s">
-        <v>776</v>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ENV_PMX</v>
       </c>
       <c r="E40" t="s">
         <v>776</v>
@@ -3685,16 +3826,20 @@
       <c r="G40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>746</v>
       </c>
       <c r="B41" t="s">
         <v>777</v>
       </c>
-      <c r="D41" t="s">
-        <v>778</v>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ENV_SOX</v>
       </c>
       <c r="E41" t="s">
         <v>778</v>
@@ -3705,16 +3850,20 @@
       <c r="G41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>746</v>
       </c>
       <c r="B42" t="s">
         <v>779</v>
       </c>
-      <c r="D42" t="s">
-        <v>780</v>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ENV_VOC</v>
       </c>
       <c r="E42" t="s">
         <v>781</v>
@@ -3725,13 +3874,17 @@
       <c r="G42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>782</v>
       </c>
-      <c r="D43" t="s">
-        <v>783</v>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FINALELC</v>
       </c>
       <c r="E43" t="s">
         <v>783</v>
@@ -3742,16 +3895,20 @@
       <c r="G43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>784</v>
       </c>
       <c r="B44" t="s">
         <v>785</v>
       </c>
-      <c r="D44" t="s">
-        <v>786</v>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FINREN</v>
       </c>
       <c r="E44" t="s">
         <v>787</v>
@@ -3762,16 +3919,20 @@
       <c r="G44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>788</v>
       </c>
       <c r="B45" t="s">
         <v>785</v>
       </c>
-      <c r="D45" t="s">
-        <v>789</v>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FINREN-AGR</v>
       </c>
       <c r="E45" t="s">
         <v>790</v>
@@ -3782,16 +3943,20 @@
       <c r="G45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>791</v>
       </c>
       <c r="B46" t="s">
         <v>785</v>
       </c>
-      <c r="D46" t="s">
-        <v>792</v>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FINREN-COM</v>
       </c>
       <c r="E46" t="s">
         <v>793</v>
@@ -3802,16 +3967,20 @@
       <c r="G46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>794</v>
       </c>
       <c r="B47" t="s">
         <v>795</v>
       </c>
-      <c r="D47" t="s">
-        <v>796</v>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FINREN-IND</v>
       </c>
       <c r="E47" t="s">
         <v>797</v>
@@ -3822,16 +3991,20 @@
       <c r="G47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>798</v>
       </c>
       <c r="B48" t="s">
         <v>785</v>
       </c>
-      <c r="D48" t="s">
-        <v>799</v>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FINREN-RSD</v>
       </c>
       <c r="E48" t="s">
         <v>800</v>
@@ -3842,16 +4015,20 @@
       <c r="G48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>801</v>
       </c>
       <c r="B49" t="s">
         <v>785</v>
       </c>
-      <c r="D49" t="s">
-        <v>802</v>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FINREN-TRA</v>
       </c>
       <c r="E49" t="s">
         <v>803</v>
@@ -3862,16 +4039,20 @@
       <c r="G49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>703</v>
       </c>
       <c r="B50" t="s">
         <v>74</v>
       </c>
-      <c r="D50" t="s">
-        <v>788</v>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FUEAGR</v>
       </c>
       <c r="E50" t="s">
         <v>68</v>
@@ -3882,16 +4063,20 @@
       <c r="G50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>703</v>
       </c>
       <c r="B51" t="s">
         <v>216</v>
       </c>
-      <c r="D51" t="s">
-        <v>791</v>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FUECOM</v>
       </c>
       <c r="E51" t="s">
         <v>215</v>
@@ -3902,16 +4087,20 @@
       <c r="G51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>703</v>
       </c>
       <c r="B52" t="s">
         <v>804</v>
       </c>
-      <c r="D52" t="s">
-        <v>805</v>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FUEELC</v>
       </c>
       <c r="E52" t="s">
         <v>350</v>
@@ -3922,16 +4111,20 @@
       <c r="G52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>806</v>
       </c>
       <c r="B53" t="s">
         <v>142</v>
       </c>
-      <c r="D53" t="s">
-        <v>807</v>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FUEELC+ELC</v>
       </c>
       <c r="E53" t="s">
         <v>350</v>
@@ -3942,16 +4135,20 @@
       <c r="G53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>740</v>
       </c>
       <c r="B54" t="s">
         <v>556</v>
       </c>
-      <c r="D54" t="s">
-        <v>808</v>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FUEELC-REN</v>
       </c>
       <c r="E54" t="s">
         <v>809</v>
@@ -3962,16 +4159,20 @@
       <c r="G54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>703</v>
       </c>
       <c r="B55" t="s">
         <v>88</v>
       </c>
-      <c r="D55" t="s">
-        <v>794</v>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FUEIND</v>
       </c>
       <c r="E55" t="s">
         <v>232</v>
@@ -3982,16 +4183,20 @@
       <c r="G55" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>703</v>
       </c>
       <c r="B56" t="s">
         <v>237</v>
       </c>
-      <c r="D56" t="s">
-        <v>798</v>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FUERSD</v>
       </c>
       <c r="E56" t="s">
         <v>810</v>
@@ -4002,16 +4207,20 @@
       <c r="G56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>703</v>
       </c>
       <c r="B57" t="s">
         <v>243</v>
       </c>
-      <c r="D57" t="s">
-        <v>811</v>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FUESUP</v>
       </c>
       <c r="E57" t="s">
         <v>812</v>
@@ -4022,16 +4231,20 @@
       <c r="G57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>703</v>
       </c>
       <c r="B58" t="s">
         <v>655</v>
       </c>
-      <c r="D58" t="s">
-        <v>801</v>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>z_FUETRA</v>
       </c>
       <c r="E58" t="s">
         <v>249</v>
@@ -4042,13 +4255,17 @@
       <c r="G58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>813</v>
       </c>
-      <c r="D59" t="s">
-        <v>814</v>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>z_INDHEAT</v>
       </c>
       <c r="E59" t="s">
         <v>815</v>
@@ -4059,16 +4276,20 @@
       <c r="G59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>746</v>
       </c>
       <c r="B60" t="s">
         <v>771</v>
       </c>
-      <c r="D60" t="s">
-        <v>816</v>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>z_N2O</v>
       </c>
       <c r="E60" t="s">
         <v>816</v>
@@ -4079,16 +4300,20 @@
       <c r="G60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>746</v>
       </c>
       <c r="B61" t="s">
         <v>773</v>
       </c>
-      <c r="D61" t="s">
-        <v>817</v>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>z_NOX</v>
       </c>
       <c r="E61" t="s">
         <v>817</v>
@@ -4099,16 +4324,20 @@
       <c r="G61" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>703</v>
       </c>
       <c r="B62" t="s">
         <v>818</v>
       </c>
-      <c r="D62" t="s">
-        <v>819</v>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>z_NRG-BFG</v>
       </c>
       <c r="E62" t="s">
         <v>820</v>
@@ -4119,13 +4348,17 @@
       <c r="G62" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>821</v>
       </c>
-      <c r="D63" t="s">
-        <v>822</v>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>z_OCEAN</v>
       </c>
       <c r="E63" t="s">
         <v>822</v>
@@ -4136,13 +4369,17 @@
       <c r="G63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>823</v>
       </c>
-      <c r="D64" t="s">
-        <v>824</v>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>z_OILRPPTRD</v>
       </c>
       <c r="E64" t="s">
         <v>825</v>
@@ -4153,16 +4390,20 @@
       <c r="G64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>746</v>
       </c>
       <c r="B65" t="s">
         <v>775</v>
       </c>
-      <c r="D65" t="s">
-        <v>826</v>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>z_PMX</v>
       </c>
       <c r="E65" t="s">
         <v>826</v>
@@ -4173,13 +4414,17 @@
       <c r="G65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>446</v>
       </c>
-      <c r="D66" t="s">
-        <v>827</v>
+      <c r="D66" t="str">
+        <f t="shared" si="0"/>
+        <v>z_RSD_DEM</v>
       </c>
       <c r="E66" t="s">
         <v>759</v>
@@ -4190,16 +4435,20 @@
       <c r="G66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>746</v>
       </c>
       <c r="B67" t="s">
         <v>777</v>
       </c>
-      <c r="D67" t="s">
-        <v>828</v>
+      <c r="D67" t="str">
+        <f t="shared" si="0"/>
+        <v>z_SOX</v>
       </c>
       <c r="E67" t="s">
         <v>828</v>
@@ -4210,13 +4459,17 @@
       <c r="G67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>829</v>
       </c>
-      <c r="D68" t="s">
-        <v>830</v>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68" si="1">"z_"&amp;N68</f>
+        <v>z_TRAELC</v>
       </c>
       <c r="E68" t="s">
         <v>350</v>
@@ -4227,42 +4480,35 @@
       <c r="G68" t="s">
         <v>17</v>
       </c>
+      <c r="N68" t="s">
+        <v>830</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB32EB1-ABC9-4248-AF3F-3FF93305EA58}">
-  <dimension ref="A1:L255"/>
+  <dimension ref="A1:N255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" customWidth="1"/>
-    <col min="2" max="2" width="118.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4300,15 +4546,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
+      <c r="F3" t="str">
+        <f>"z_"&amp;N3</f>
+        <v>z_____PP</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -4319,13 +4566,17 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>667</v>
       </c>
-      <c r="F4" t="s">
-        <v>19</v>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F67" si="0">"z_"&amp;N4</f>
+        <v>z____AC-IMPBIOFUELS</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -4336,13 +4587,17 @@
       <c r="I4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>z____AC-IMPBIOMASS</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -4353,13 +4608,17 @@
       <c r="I5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>z____AC-MINBIOFUELS</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -4370,13 +4629,17 @@
       <c r="I6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>z____AC-MINBIOMASS</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -4387,16 +4650,20 @@
       <c r="I7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-CH00</v>
       </c>
       <c r="G8" t="s">
         <v>29</v>
@@ -4407,13 +4674,17 @@
       <c r="I8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
-        <v>31</v>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-CHNEW</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
@@ -4424,13 +4695,17 @@
       <c r="I9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>34</v>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-CW00</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
@@ -4441,13 +4716,17 @@
       <c r="I10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
-        <v>37</v>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-CWNEW</v>
       </c>
       <c r="G11" t="s">
         <v>38</v>
@@ -4458,16 +4737,20 @@
       <c r="I11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
-        <v>41</v>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-ELCRH00</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -4478,16 +4761,20 @@
       <c r="I12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
-        <v>44</v>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-ELCRHNEW</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -4498,16 +4785,20 @@
       <c r="I13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
-        <v>47</v>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-ELCRW00</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
@@ -4518,16 +4809,20 @@
       <c r="I14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" t="s">
-        <v>50</v>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-ELCRWNEW</v>
       </c>
       <c r="G15" t="s">
         <v>51</v>
@@ -4538,13 +4833,17 @@
       <c r="I15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
-        <v>52</v>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-RH00</v>
       </c>
       <c r="G16" t="s">
         <v>53</v>
@@ -4555,13 +4854,17 @@
       <c r="I16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
-        <v>54</v>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-RHNEW</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -4572,13 +4875,17 @@
       <c r="I17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="F18" t="s">
-        <v>56</v>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-RW00</v>
       </c>
       <c r="G18" t="s">
         <v>57</v>
@@ -4589,13 +4896,17 @@
       <c r="I18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="F19" t="s">
-        <v>58</v>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>z____UCC-RWNEW</v>
       </c>
       <c r="G19" t="s">
         <v>59</v>
@@ -4606,13 +4917,17 @@
       <c r="I19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>60</v>
       </c>
-      <c r="F20" t="s">
-        <v>61</v>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ACRP</v>
       </c>
       <c r="G20" t="s">
         <v>62</v>
@@ -4623,13 +4938,17 @@
       <c r="I20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="F21" t="s">
-        <v>64</v>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>z_AFOR</v>
       </c>
       <c r="G21" t="s">
         <v>65</v>
@@ -4640,16 +4959,20 @@
       <c r="I21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
-      <c r="F22" t="s">
-        <v>67</v>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>z_AGR</v>
       </c>
       <c r="G22" t="s">
         <v>68</v>
@@ -4660,13 +4983,17 @@
       <c r="I22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="F23" t="s">
-        <v>70</v>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>z_AGRA</v>
       </c>
       <c r="G23" t="s">
         <v>71</v>
@@ -4677,13 +5004,17 @@
       <c r="I23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="F24" t="s">
-        <v>73</v>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>z_AGR-ALL</v>
       </c>
       <c r="G24" t="s">
         <v>68</v>
@@ -4694,16 +5025,20 @@
       <c r="I24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>74</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
-        <v>76</v>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>z_AGR-INFRASTRUCTURE</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -4714,13 +5049,17 @@
       <c r="I25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>668</v>
       </c>
-      <c r="F26" t="s">
-        <v>78</v>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALIV</v>
       </c>
       <c r="G26" t="s">
         <v>79</v>
@@ -4731,13 +5070,17 @@
       <c r="I26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>80</v>
       </c>
-      <c r="F27" t="s">
-        <v>81</v>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALL_SEQ</v>
       </c>
       <c r="G27" t="s">
         <v>82</v>
@@ -4748,13 +5091,17 @@
       <c r="I27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>83</v>
       </c>
-      <c r="F28" t="s">
-        <v>84</v>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLCCSELC</v>
       </c>
       <c r="G28" t="s">
         <v>85</v>
@@ -4765,8 +5112,11 @@
       <c r="I28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>86</v>
       </c>
@@ -4776,8 +5126,9 @@
       <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="F29" t="s">
-        <v>89</v>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ALLIND</v>
       </c>
       <c r="G29" t="s">
         <v>90</v>
@@ -4788,13 +5139,17 @@
       <c r="I29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>91</v>
       </c>
-      <c r="F30" t="s">
-        <v>92</v>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>z_AMIS</v>
       </c>
       <c r="G30" t="s">
         <v>93</v>
@@ -4805,13 +5160,17 @@
       <c r="I30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>94</v>
       </c>
-      <c r="F31" t="s">
-        <v>95</v>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ANRG</v>
       </c>
       <c r="G31" t="s">
         <v>96</v>
@@ -4822,13 +5181,17 @@
       <c r="I31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>97</v>
       </c>
-      <c r="F32" t="s">
-        <v>98</v>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>z_AOSR</v>
       </c>
       <c r="G32" t="s">
         <v>99</v>
@@ -4839,13 +5202,17 @@
       <c r="I32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>100</v>
       </c>
-      <c r="F33" t="s">
-        <v>101</v>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>z_APAS</v>
       </c>
       <c r="G33" t="s">
         <v>102</v>
@@ -4856,13 +5223,17 @@
       <c r="I33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>669</v>
       </c>
-      <c r="F34" t="s">
-        <v>103</v>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>z_ATIL</v>
       </c>
       <c r="G34" t="s">
         <v>104</v>
@@ -4873,13 +5244,17 @@
       <c r="I34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="F35" t="s">
-        <v>106</v>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>z_AWHE</v>
       </c>
       <c r="G35" t="s">
         <v>107</v>
@@ -4890,13 +5265,17 @@
       <c r="I35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N35" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>108</v>
       </c>
-      <c r="F36" t="s">
-        <v>109</v>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>z_AWIL</v>
       </c>
       <c r="G36" t="s">
         <v>110</v>
@@ -4907,16 +5286,20 @@
       <c r="I36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>111</v>
       </c>
       <c r="E37" t="s">
         <v>112</v>
       </c>
-      <c r="F37" t="s">
-        <v>113</v>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>z_BFGPROD</v>
       </c>
       <c r="G37" t="s">
         <v>114</v>
@@ -4927,13 +5310,17 @@
       <c r="I37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>115</v>
       </c>
-      <c r="F38" t="s">
-        <v>116</v>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>z_BIOREF</v>
       </c>
       <c r="G38" t="s">
         <v>117</v>
@@ -4944,13 +5331,17 @@
       <c r="I38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>118</v>
       </c>
-      <c r="F39" t="s">
-        <v>119</v>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>z_BIOREF-CONS</v>
       </c>
       <c r="G39" t="s">
         <v>120</v>
@@ -4961,13 +5352,17 @@
       <c r="I39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>121</v>
       </c>
-      <c r="F40" t="s">
-        <v>122</v>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>z_BIOREF-PROD</v>
       </c>
       <c r="G40" t="s">
         <v>123</v>
@@ -4978,13 +5373,17 @@
       <c r="I40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>124</v>
       </c>
-      <c r="F41" t="s">
-        <v>125</v>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>z_BY-MINBIO</v>
       </c>
       <c r="G41" t="s">
         <v>125</v>
@@ -4995,13 +5394,17 @@
       <c r="I41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>126</v>
       </c>
-      <c r="F42" t="s">
-        <v>127</v>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CARBSTO</v>
       </c>
       <c r="G42" t="s">
         <v>128</v>
@@ -5012,16 +5415,20 @@
       <c r="I42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>129</v>
       </c>
       <c r="E43" t="s">
         <v>130</v>
       </c>
-      <c r="F43" t="s">
-        <v>130</v>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CCOK</v>
       </c>
       <c r="G43" t="s">
         <v>131</v>
@@ -5032,16 +5439,20 @@
       <c r="I43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>132</v>
       </c>
       <c r="E44" t="s">
         <v>83</v>
       </c>
-      <c r="F44" t="s">
-        <v>133</v>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CCSCOA</v>
       </c>
       <c r="G44" t="s">
         <v>134</v>
@@ -5052,16 +5463,20 @@
       <c r="I44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>129</v>
       </c>
       <c r="E45" t="s">
         <v>135</v>
       </c>
-      <c r="F45" t="s">
-        <v>136</v>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CH-CW-CC</v>
       </c>
       <c r="G45" t="s">
         <v>137</v>
@@ -5072,16 +5487,20 @@
       <c r="I45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>138</v>
       </c>
       <c r="E46" t="s">
         <v>139</v>
       </c>
-      <c r="F46" t="s">
-        <v>140</v>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CH-CW-CCOK</v>
       </c>
       <c r="G46" t="s">
         <v>140</v>
@@ -5092,16 +5511,20 @@
       <c r="I46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>141</v>
       </c>
       <c r="E47" t="s">
         <v>142</v>
       </c>
-      <c r="F47" t="s">
-        <v>143</v>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHP_PUB</v>
       </c>
       <c r="G47" t="s">
         <v>144</v>
@@ -5112,8 +5535,11 @@
       <c r="I47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -5123,8 +5549,9 @@
       <c r="E48" t="s">
         <v>146</v>
       </c>
-      <c r="F48" t="s">
-        <v>147</v>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPBGS</v>
       </c>
       <c r="G48" t="s">
         <v>148</v>
@@ -5135,8 +5562,11 @@
       <c r="I48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -5146,8 +5576,9 @@
       <c r="E49" t="s">
         <v>146</v>
       </c>
-      <c r="F49" t="s">
-        <v>150</v>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPCOA</v>
       </c>
       <c r="G49" t="s">
         <v>151</v>
@@ -5158,13 +5589,17 @@
       <c r="I49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>152</v>
       </c>
-      <c r="F50" t="s">
-        <v>153</v>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPCOM</v>
       </c>
       <c r="G50" t="s">
         <v>154</v>
@@ -5175,8 +5610,11 @@
       <c r="I50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N50" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>141</v>
       </c>
@@ -5186,8 +5624,9 @@
       <c r="D51" t="s">
         <v>156</v>
       </c>
-      <c r="F51" t="s">
-        <v>157</v>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPGAS</v>
       </c>
       <c r="G51" t="s">
         <v>158</v>
@@ -5198,8 +5637,11 @@
       <c r="I51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>141</v>
       </c>
@@ -5209,8 +5651,9 @@
       <c r="E52" t="s">
         <v>146</v>
       </c>
-      <c r="F52" t="s">
-        <v>160</v>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPGEO</v>
       </c>
       <c r="G52" t="s">
         <v>161</v>
@@ -5221,13 +5664,17 @@
       <c r="I52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>670</v>
       </c>
-      <c r="F53" t="s">
-        <v>162</v>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPICH</v>
       </c>
       <c r="G53" t="s">
         <v>162</v>
@@ -5238,13 +5685,17 @@
       <c r="I53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>671</v>
       </c>
-      <c r="F54" t="s">
-        <v>163</v>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPICM</v>
       </c>
       <c r="G54" t="s">
         <v>164</v>
@@ -5255,13 +5706,17 @@
       <c r="I54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>165</v>
       </c>
-      <c r="F55" t="s">
-        <v>166</v>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPIFB</v>
       </c>
       <c r="G55" t="s">
         <v>166</v>
@@ -5272,13 +5727,17 @@
       <c r="I55" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>672</v>
       </c>
-      <c r="F56" t="s">
-        <v>167</v>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPINF</v>
       </c>
       <c r="G56" t="s">
         <v>167</v>
@@ -5289,13 +5748,17 @@
       <c r="I56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>673</v>
       </c>
-      <c r="F57" t="s">
-        <v>168</v>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPINM</v>
       </c>
       <c r="G57" t="s">
         <v>168</v>
@@ -5306,13 +5769,17 @@
       <c r="I57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>674</v>
       </c>
-      <c r="F58" t="s">
-        <v>169</v>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPIOI</v>
       </c>
       <c r="G58" t="s">
         <v>169</v>
@@ -5323,16 +5790,20 @@
       <c r="I58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>141</v>
       </c>
       <c r="D59" t="s">
         <v>170</v>
       </c>
-      <c r="F59" t="s">
-        <v>171</v>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPNUC</v>
       </c>
       <c r="G59" t="s">
         <v>172</v>
@@ -5343,16 +5814,20 @@
       <c r="I59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>141</v>
       </c>
       <c r="D60" t="s">
         <v>173</v>
       </c>
-      <c r="F60" t="s">
-        <v>174</v>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPOIL</v>
       </c>
       <c r="G60" t="s">
         <v>175</v>
@@ -5363,13 +5838,17 @@
       <c r="I60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>675</v>
       </c>
-      <c r="F61" t="s">
-        <v>176</v>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPREF</v>
       </c>
       <c r="G61" t="s">
         <v>176</v>
@@ -5380,16 +5859,20 @@
       <c r="I61" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N61" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>141</v>
       </c>
       <c r="D62" t="s">
         <v>177</v>
       </c>
-      <c r="F62" t="s">
-        <v>178</v>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CHPWOO</v>
       </c>
       <c r="G62" t="s">
         <v>179</v>
@@ -5400,16 +5883,20 @@
       <c r="I62" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>129</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
       </c>
-      <c r="F63" t="s">
-        <v>180</v>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>z_CLIG</v>
       </c>
       <c r="G63" t="s">
         <v>181</v>
@@ -5420,16 +5907,20 @@
       <c r="I63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>182</v>
       </c>
       <c r="E64" t="s">
         <v>183</v>
       </c>
-      <c r="F64" t="s">
-        <v>183</v>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>z_COEL</v>
       </c>
       <c r="G64" t="s">
         <v>184</v>
@@ -5440,13 +5931,17 @@
       <c r="I64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>130</v>
       </c>
-      <c r="F65" t="s">
-        <v>185</v>
+      <c r="F65" t="str">
+        <f t="shared" si="0"/>
+        <v>z_COM_COK</v>
       </c>
       <c r="G65" t="s">
         <v>131</v>
@@ -5457,13 +5952,17 @@
       <c r="I65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N65" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>186</v>
       </c>
-      <c r="F66" t="s">
-        <v>187</v>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v>z_COM_COL</v>
       </c>
       <c r="G66" t="s">
         <v>188</v>
@@ -5474,13 +5973,17 @@
       <c r="I66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N66" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>189</v>
       </c>
-      <c r="F67" t="s">
-        <v>190</v>
+      <c r="F67" t="str">
+        <f t="shared" si="0"/>
+        <v>z_COM_HCW</v>
       </c>
       <c r="G67" t="s">
         <v>191</v>
@@ -5491,13 +5994,17 @@
       <c r="I67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>192</v>
       </c>
-      <c r="F68" t="s">
-        <v>193</v>
+      <c r="F68" t="str">
+        <f t="shared" ref="F68:F131" si="1">"z_"&amp;N68</f>
+        <v>z_COM_LIG</v>
       </c>
       <c r="G68" t="s">
         <v>194</v>
@@ -5508,16 +6015,20 @@
       <c r="I68" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>195</v>
       </c>
       <c r="E69" t="s">
         <v>196</v>
       </c>
-      <c r="F69" t="s">
-        <v>197</v>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>z_COM_OTH</v>
       </c>
       <c r="G69" t="s">
         <v>198</v>
@@ -5528,13 +6039,17 @@
       <c r="I69" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>199</v>
       </c>
-      <c r="F70" t="s">
-        <v>200</v>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>z_COM_OTHE</v>
       </c>
       <c r="G70" t="s">
         <v>201</v>
@@ -5545,13 +6060,17 @@
       <c r="I70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>676</v>
       </c>
-      <c r="F71" t="s">
-        <v>202</v>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>z_COM_OTHEN</v>
       </c>
       <c r="G71" t="s">
         <v>203</v>
@@ -5562,13 +6081,17 @@
       <c r="I71" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N71" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>204</v>
       </c>
-      <c r="F72" t="s">
-        <v>205</v>
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>z_COM_SPCL</v>
       </c>
       <c r="G72" t="s">
         <v>205</v>
@@ -5579,13 +6102,17 @@
       <c r="I72" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>677</v>
       </c>
-      <c r="F73" t="s">
-        <v>206</v>
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>z_COM_SPHT</v>
       </c>
       <c r="G73" t="s">
         <v>206</v>
@@ -5596,13 +6123,17 @@
       <c r="I73" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N73" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>207</v>
       </c>
-      <c r="F74" t="s">
-        <v>208</v>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>z_COM_WAT</v>
       </c>
       <c r="G74" t="s">
         <v>209</v>
@@ -5613,16 +6144,20 @@
       <c r="I74" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N74" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>195</v>
       </c>
       <c r="E75" t="s">
         <v>210</v>
       </c>
-      <c r="F75" t="s">
-        <v>211</v>
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>z_COM_WTHT</v>
       </c>
       <c r="G75" t="s">
         <v>211</v>
@@ -5633,16 +6168,20 @@
       <c r="I75" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>212</v>
       </c>
       <c r="E76" t="s">
         <v>213</v>
       </c>
-      <c r="F76" t="s">
-        <v>214</v>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>z_COM-ALL</v>
       </c>
       <c r="G76" t="s">
         <v>215</v>
@@ -5653,16 +6192,20 @@
       <c r="I76" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N76" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>216</v>
       </c>
       <c r="C77" t="s">
         <v>75</v>
       </c>
-      <c r="F77" t="s">
-        <v>217</v>
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>z_COM-INFRASTRUCTURE</v>
       </c>
       <c r="G77" t="s">
         <v>218</v>
@@ -5673,8 +6216,11 @@
       <c r="I77" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -5684,8 +6230,9 @@
       <c r="D78" t="s">
         <v>220</v>
       </c>
-      <c r="F78" t="s">
-        <v>221</v>
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONHYD</v>
       </c>
       <c r="G78" t="s">
         <v>221</v>
@@ -5696,8 +6243,11 @@
       <c r="I78" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -5707,8 +6257,9 @@
       <c r="D79" t="s">
         <v>222</v>
       </c>
-      <c r="F79" t="s">
-        <v>223</v>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONOIL</v>
       </c>
       <c r="G79" t="s">
         <v>223</v>
@@ -5719,16 +6270,20 @@
       <c r="I79" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>74</v>
       </c>
       <c r="C80" t="s">
         <v>75</v>
       </c>
-      <c r="F80" t="s">
-        <v>224</v>
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONSAGR</v>
       </c>
       <c r="G80" t="s">
         <v>68</v>
@@ -5739,8 +6294,11 @@
       <c r="I80" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>216</v>
       </c>
@@ -5750,8 +6308,9 @@
       <c r="E81" t="s">
         <v>225</v>
       </c>
-      <c r="F81" t="s">
-        <v>226</v>
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONSCOM</v>
       </c>
       <c r="G81" t="s">
         <v>215</v>
@@ -5762,16 +6321,20 @@
       <c r="I81" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N81" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>142</v>
       </c>
       <c r="C82" t="s">
         <v>75</v>
       </c>
-      <c r="F82" t="s">
-        <v>227</v>
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONSCON</v>
       </c>
       <c r="G82" t="s">
         <v>228</v>
@@ -5782,16 +6345,20 @@
       <c r="I82" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N82" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>229</v>
       </c>
       <c r="C83" t="s">
         <v>230</v>
       </c>
-      <c r="F83" t="s">
-        <v>231</v>
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONSIND</v>
       </c>
       <c r="G83" t="s">
         <v>232</v>
@@ -5802,16 +6369,20 @@
       <c r="I83" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>88</v>
       </c>
       <c r="C84" t="s">
         <v>75</v>
       </c>
-      <c r="F84" t="s">
-        <v>233</v>
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONSIND-EN</v>
       </c>
       <c r="G84" t="s">
         <v>234</v>
@@ -5822,13 +6393,17 @@
       <c r="I84" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>229</v>
       </c>
-      <c r="F85" t="s">
-        <v>235</v>
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONSIND-NE</v>
       </c>
       <c r="G85" t="s">
         <v>236</v>
@@ -5839,16 +6414,20 @@
       <c r="I85" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N85" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>237</v>
       </c>
       <c r="C86" t="s">
         <v>75</v>
       </c>
-      <c r="F86" t="s">
-        <v>238</v>
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONSRSD</v>
       </c>
       <c r="G86" t="s">
         <v>239</v>
@@ -5859,16 +6438,20 @@
       <c r="I86" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N86" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>240</v>
       </c>
       <c r="C87" t="s">
         <v>75</v>
       </c>
-      <c r="F87" t="s">
-        <v>241</v>
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONSRSDAGR</v>
       </c>
       <c r="G87" t="s">
         <v>242</v>
@@ -5879,13 +6462,17 @@
       <c r="I87" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N87" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>243</v>
       </c>
-      <c r="F88" t="s">
-        <v>244</v>
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONSSUP</v>
       </c>
       <c r="G88" t="s">
         <v>245</v>
@@ -5896,16 +6483,20 @@
       <c r="I88" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N88" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>246</v>
       </c>
       <c r="C89" t="s">
         <v>247</v>
       </c>
-      <c r="F89" t="s">
-        <v>248</v>
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CONSTRA</v>
       </c>
       <c r="G89" t="s">
         <v>249</v>
@@ -5916,16 +6507,20 @@
       <c r="I89" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N89" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>182</v>
       </c>
       <c r="E90" t="s">
         <v>250</v>
       </c>
-      <c r="F90" t="s">
-        <v>250</v>
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CPLI</v>
       </c>
       <c r="G90" t="s">
         <v>251</v>
@@ -5936,16 +6531,20 @@
       <c r="I90" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>182</v>
       </c>
       <c r="E91" t="s">
         <v>252</v>
       </c>
-      <c r="F91" t="s">
-        <v>252</v>
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>z_CREF</v>
       </c>
       <c r="G91" t="s">
         <v>253</v>
@@ -5956,13 +6555,17 @@
       <c r="I91" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N91" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>254</v>
       </c>
-      <c r="F92" t="s">
-        <v>255</v>
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>z_DUMIMP</v>
       </c>
       <c r="G92" t="s">
         <v>255</v>
@@ -5973,16 +6576,20 @@
       <c r="I92" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N92" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>256</v>
       </c>
       <c r="B93" t="s">
         <v>257</v>
       </c>
-      <c r="F93" t="s">
-        <v>258</v>
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>z_EAUTOP</v>
       </c>
       <c r="G93" t="s">
         <v>259</v>
@@ -5993,16 +6600,20 @@
       <c r="I93" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N93" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>260</v>
       </c>
       <c r="E94" t="s">
         <v>142</v>
       </c>
-      <c r="F94" t="s">
-        <v>261</v>
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELC-ALL</v>
       </c>
       <c r="G94" t="s">
         <v>262</v>
@@ -6013,16 +6624,20 @@
       <c r="I94" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>142</v>
       </c>
       <c r="C95" t="s">
         <v>75</v>
       </c>
-      <c r="F95" t="s">
-        <v>263</v>
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELC-INFRASTRUCTURE</v>
       </c>
       <c r="G95" t="s">
         <v>264</v>
@@ -6033,16 +6648,20 @@
       <c r="I95" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>256</v>
       </c>
       <c r="D96" t="s">
         <v>265</v>
       </c>
-      <c r="F96" t="s">
-        <v>266</v>
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEBGS</v>
       </c>
       <c r="G96" t="s">
         <v>148</v>
@@ -6053,16 +6672,20 @@
       <c r="I96" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N96" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>13</v>
       </c>
       <c r="D97" t="s">
         <v>267</v>
       </c>
-      <c r="F97" t="s">
-        <v>268</v>
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELECHPBGS</v>
       </c>
       <c r="G97" t="s">
         <v>269</v>
@@ -6073,8 +6696,11 @@
       <c r="I97" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N97" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -6084,8 +6710,9 @@
       <c r="E98" t="s">
         <v>270</v>
       </c>
-      <c r="F98" t="s">
-        <v>271</v>
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELECHPCOA</v>
       </c>
       <c r="G98" t="s">
         <v>151</v>
@@ -6096,8 +6723,11 @@
       <c r="I98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N98" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -6107,8 +6737,9 @@
       <c r="E99" t="s">
         <v>272</v>
       </c>
-      <c r="F99" t="s">
-        <v>273</v>
+      <c r="F99" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELECHPCOA-S</v>
       </c>
       <c r="G99" t="s">
         <v>134</v>
@@ -6119,8 +6750,11 @@
       <c r="I99" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N99" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -6130,8 +6764,9 @@
       <c r="E100" t="s">
         <v>275</v>
       </c>
-      <c r="F100" t="s">
-        <v>276</v>
+      <c r="F100" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELECHPGAS</v>
       </c>
       <c r="G100" t="s">
         <v>158</v>
@@ -6142,8 +6777,11 @@
       <c r="I100" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N100" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -6153,8 +6791,9 @@
       <c r="E101" t="s">
         <v>277</v>
       </c>
-      <c r="F101" t="s">
-        <v>278</v>
+      <c r="F101" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELECHPGAS-S</v>
       </c>
       <c r="G101" t="s">
         <v>279</v>
@@ -6165,8 +6804,11 @@
       <c r="I101" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -6176,8 +6818,9 @@
       <c r="E102" t="s">
         <v>142</v>
       </c>
-      <c r="F102" t="s">
-        <v>280</v>
+      <c r="F102" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELECHPGEO</v>
       </c>
       <c r="G102" t="s">
         <v>161</v>
@@ -6188,16 +6831,20 @@
       <c r="I102" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N102" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>13</v>
       </c>
       <c r="D103" t="s">
         <v>281</v>
       </c>
-      <c r="F103" t="s">
-        <v>282</v>
+      <c r="F103" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELECHPOIL</v>
       </c>
       <c r="G103" t="s">
         <v>175</v>
@@ -6208,8 +6855,11 @@
       <c r="I103" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>283</v>
       </c>
@@ -6219,8 +6869,9 @@
       <c r="D104" t="s">
         <v>142</v>
       </c>
-      <c r="F104" t="s">
-        <v>284</v>
+      <c r="F104" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELECHPOTH</v>
       </c>
       <c r="G104" t="s">
         <v>285</v>
@@ -6231,16 +6882,20 @@
       <c r="I104" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N104" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>13</v>
       </c>
       <c r="D105" t="s">
         <v>286</v>
       </c>
-      <c r="F105" t="s">
-        <v>287</v>
+      <c r="F105" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELECHPWOO</v>
       </c>
       <c r="G105" t="s">
         <v>179</v>
@@ -6251,8 +6906,11 @@
       <c r="I105" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N105" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>256</v>
       </c>
@@ -6262,8 +6920,9 @@
       <c r="E106" t="s">
         <v>146</v>
       </c>
-      <c r="F106" t="s">
-        <v>288</v>
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELECOA</v>
       </c>
       <c r="G106" t="s">
         <v>151</v>
@@ -6274,8 +6933,11 @@
       <c r="I106" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N106" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>256</v>
       </c>
@@ -6285,8 +6947,9 @@
       <c r="D107" t="s">
         <v>156</v>
       </c>
-      <c r="F107" t="s">
-        <v>289</v>
+      <c r="F107" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEGAS</v>
       </c>
       <c r="G107" t="s">
         <v>158</v>
@@ -6297,8 +6960,11 @@
       <c r="I107" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N107" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>256</v>
       </c>
@@ -6308,8 +6974,9 @@
       <c r="E108" t="s">
         <v>146</v>
       </c>
-      <c r="F108" t="s">
-        <v>290</v>
+      <c r="F108" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEGEO</v>
       </c>
       <c r="G108" t="s">
         <v>161</v>
@@ -6320,16 +6987,20 @@
       <c r="I108" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N108" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>256</v>
       </c>
       <c r="D109" t="s">
         <v>291</v>
       </c>
-      <c r="F109" t="s">
-        <v>292</v>
+      <c r="F109" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEHYD</v>
       </c>
       <c r="G109" t="s">
         <v>293</v>
@@ -6340,8 +7011,11 @@
       <c r="I109" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N109" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>256</v>
       </c>
@@ -6351,8 +7025,9 @@
       <c r="E110" t="s">
         <v>146</v>
       </c>
-      <c r="F110" t="s">
-        <v>292</v>
+      <c r="F110" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEHYD</v>
       </c>
       <c r="G110" t="s">
         <v>293</v>
@@ -6363,16 +7038,20 @@
       <c r="I110" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N110" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>256</v>
       </c>
       <c r="D111" t="s">
         <v>294</v>
       </c>
-      <c r="F111" t="s">
-        <v>295</v>
+      <c r="F111" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELENUC</v>
       </c>
       <c r="G111" t="s">
         <v>172</v>
@@ -6383,16 +7062,20 @@
       <c r="I111" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N111" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>256</v>
       </c>
       <c r="D112" t="s">
         <v>296</v>
       </c>
-      <c r="F112" t="s">
-        <v>297</v>
+      <c r="F112" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEOCE</v>
       </c>
       <c r="G112" t="s">
         <v>298</v>
@@ -6403,16 +7086,20 @@
       <c r="I112" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N112" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>256</v>
       </c>
       <c r="D113" t="s">
         <v>299</v>
       </c>
-      <c r="F113" t="s">
-        <v>300</v>
+      <c r="F113" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEOIL</v>
       </c>
       <c r="G113" t="s">
         <v>175</v>
@@ -6423,16 +7110,20 @@
       <c r="I113" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N113" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>301</v>
       </c>
       <c r="D114" t="s">
         <v>302</v>
       </c>
-      <c r="F114" t="s">
-        <v>303</v>
+      <c r="F114" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEREN</v>
       </c>
       <c r="G114" t="s">
         <v>304</v>
@@ -6443,8 +7134,11 @@
       <c r="I114" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N114" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>256</v>
       </c>
@@ -6454,8 +7148,9 @@
       <c r="E115" t="s">
         <v>146</v>
       </c>
-      <c r="F115" t="s">
-        <v>306</v>
+      <c r="F115" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELESOL</v>
       </c>
       <c r="G115" t="s">
         <v>307</v>
@@ -6466,13 +7161,17 @@
       <c r="I115" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N115" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>308</v>
       </c>
-      <c r="F116" t="s">
-        <v>309</v>
+      <c r="F116" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELESTG</v>
       </c>
       <c r="G116" t="s">
         <v>310</v>
@@ -6483,8 +7182,11 @@
       <c r="I116" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N116" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>256</v>
       </c>
@@ -6494,8 +7196,9 @@
       <c r="E117" t="s">
         <v>146</v>
       </c>
-      <c r="F117" t="s">
-        <v>312</v>
+      <c r="F117" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEWIN</v>
       </c>
       <c r="G117" t="s">
         <v>313</v>
@@ -6506,8 +7209,11 @@
       <c r="I117" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N117" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>256</v>
       </c>
@@ -6520,8 +7226,9 @@
       <c r="E118" t="s">
         <v>146</v>
       </c>
-      <c r="F118" t="s">
-        <v>315</v>
+      <c r="F118" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEWIN-OF</v>
       </c>
       <c r="G118" t="s">
         <v>316</v>
@@ -6532,8 +7239,11 @@
       <c r="I118" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N118" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>256</v>
       </c>
@@ -6546,8 +7256,9 @@
       <c r="E119" t="s">
         <v>146</v>
       </c>
-      <c r="F119" t="s">
-        <v>318</v>
+      <c r="F119" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEWIN-ON</v>
       </c>
       <c r="G119" t="s">
         <v>319</v>
@@ -6558,16 +7269,20 @@
       <c r="I119" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N119" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>256</v>
       </c>
       <c r="D120" t="s">
         <v>177</v>
       </c>
-      <c r="F120" t="s">
-        <v>320</v>
+      <c r="F120" t="str">
+        <f t="shared" si="1"/>
+        <v>z_ELEWOO</v>
       </c>
       <c r="G120" t="s">
         <v>179</v>
@@ -6578,16 +7293,20 @@
       <c r="I120" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N120" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>256</v>
       </c>
       <c r="B121" t="s">
         <v>321</v>
       </c>
-      <c r="F121" t="s">
-        <v>322</v>
+      <c r="F121" t="str">
+        <f t="shared" si="1"/>
+        <v>z_EPLT</v>
       </c>
       <c r="G121" t="s">
         <v>323</v>
@@ -6598,13 +7317,17 @@
       <c r="I121" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N121" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>324</v>
       </c>
-      <c r="F122" t="s">
-        <v>325</v>
+      <c r="F122" t="str">
+        <f t="shared" si="1"/>
+        <v>z_FCTECHS</v>
       </c>
       <c r="G122" t="s">
         <v>326</v>
@@ -6615,13 +7338,17 @@
       <c r="I122" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N122" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>327</v>
       </c>
-      <c r="F123" t="s">
-        <v>328</v>
+      <c r="F123" t="str">
+        <f t="shared" si="1"/>
+        <v>z_GA_HEATPUMP</v>
       </c>
       <c r="G123" t="s">
         <v>329</v>
@@ -6632,16 +7359,20 @@
       <c r="I123" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N123" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>330</v>
       </c>
       <c r="E124" t="s">
         <v>112</v>
       </c>
-      <c r="F124" t="s">
-        <v>331</v>
+      <c r="F124" t="str">
+        <f t="shared" si="1"/>
+        <v>z_GASBFGPROD</v>
       </c>
       <c r="G124" t="s">
         <v>114</v>
@@ -6652,16 +7383,20 @@
       <c r="I124" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N124" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>332</v>
       </c>
       <c r="C125" t="s">
         <v>333</v>
       </c>
-      <c r="F125" t="s">
-        <v>334</v>
+      <c r="F125" t="str">
+        <f t="shared" si="1"/>
+        <v>z_GENERICBOILERS</v>
       </c>
       <c r="G125" t="s">
         <v>334</v>
@@ -6672,8 +7407,11 @@
       <c r="I125" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N125" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>335</v>
       </c>
@@ -6689,8 +7427,9 @@
       <c r="E126" t="s">
         <v>679</v>
       </c>
-      <c r="F126" t="s">
-        <v>338</v>
+      <c r="F126" t="str">
+        <f t="shared" si="1"/>
+        <v>z_HEATPRDNOIND</v>
       </c>
       <c r="G126" t="s">
         <v>339</v>
@@ -6701,8 +7440,11 @@
       <c r="I126" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N126" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>335</v>
       </c>
@@ -6718,8 +7460,9 @@
       <c r="E127" t="s">
         <v>341</v>
       </c>
-      <c r="F127" t="s">
-        <v>342</v>
+      <c r="F127" t="str">
+        <f t="shared" si="1"/>
+        <v>z_HEATPROD</v>
       </c>
       <c r="G127" t="s">
         <v>343</v>
@@ -6730,8 +7473,11 @@
       <c r="I127" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N127" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>335</v>
       </c>
@@ -6747,8 +7493,9 @@
       <c r="E128" t="s">
         <v>679</v>
       </c>
-      <c r="F128" t="s">
-        <v>342</v>
+      <c r="F128" t="str">
+        <f t="shared" si="1"/>
+        <v>z_HEATPROD</v>
       </c>
       <c r="G128" t="s">
         <v>343</v>
@@ -6759,8 +7506,11 @@
       <c r="I128" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N128" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>681</v>
       </c>
@@ -6770,8 +7520,9 @@
       <c r="E129" t="s">
         <v>146</v>
       </c>
-      <c r="F129" t="s">
-        <v>345</v>
+      <c r="F129" t="str">
+        <f t="shared" si="1"/>
+        <v>z_HPLBGS</v>
       </c>
       <c r="G129" t="s">
         <v>346</v>
@@ -6782,8 +7533,11 @@
       <c r="I129" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="N129" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>681</v>
       </c>
@@ -6793,8 +7547,9 @@
       <c r="E130" t="s">
         <v>146</v>
       </c>
-      <c r="F130" t="s">
-        <v>347</v>
+      <c r="F130" t="str">
+        <f t="shared" si="1"/>
+        <v>z_HPLCOA</v>
       </c>
       <c r="G130" t="s">
         <v>151</v>
@@ -6805,8 +7560,11 @@
       <c r="I130" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N130" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>681</v>
       </c>
@@ -6816,8 +7574,9 @@
       <c r="E131" t="s">
         <v>146</v>
       </c>
-      <c r="F131" t="s">
-        <v>349</v>
+      <c r="F131" t="str">
+        <f t="shared" si="1"/>
+        <v>z_HPLELC</v>
       </c>
       <c r="G131" t="s">
         <v>350</v>
@@ -6828,8 +7587,11 @@
       <c r="I131" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N131" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>681</v>
       </c>
@@ -6839,8 +7601,9 @@
       <c r="D132" t="s">
         <v>351</v>
       </c>
-      <c r="F132" t="s">
-        <v>352</v>
+      <c r="F132" t="str">
+        <f t="shared" ref="F132:F195" si="2">"z_"&amp;N132</f>
+        <v>z_HPLGAS</v>
       </c>
       <c r="G132" t="s">
         <v>158</v>
@@ -6851,16 +7614,20 @@
       <c r="I132" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N132" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>681</v>
       </c>
       <c r="D133" t="s">
         <v>353</v>
       </c>
-      <c r="F133" t="s">
-        <v>354</v>
+      <c r="F133" t="str">
+        <f t="shared" si="2"/>
+        <v>z_HPLOIL</v>
       </c>
       <c r="G133" t="s">
         <v>175</v>
@@ -6871,16 +7638,20 @@
       <c r="I133" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N133" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>681</v>
       </c>
       <c r="D134" t="s">
         <v>177</v>
       </c>
-      <c r="F134" t="s">
-        <v>355</v>
+      <c r="F134" t="str">
+        <f t="shared" si="2"/>
+        <v>z_HPLWOO</v>
       </c>
       <c r="G134" t="s">
         <v>179</v>
@@ -6891,13 +7662,17 @@
       <c r="I134" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N134" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>356</v>
       </c>
-      <c r="F135" t="s">
-        <v>357</v>
+      <c r="F135" t="str">
+        <f t="shared" si="2"/>
+        <v>z_ICH</v>
       </c>
       <c r="G135" t="s">
         <v>357</v>
@@ -6908,8 +7683,11 @@
       <c r="I135" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N135" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -6919,8 +7697,9 @@
       <c r="E136" t="s">
         <v>359</v>
       </c>
-      <c r="F136" t="s">
-        <v>360</v>
+      <c r="F136" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-CHPBGS</v>
       </c>
       <c r="G136" t="s">
         <v>361</v>
@@ -6931,13 +7710,17 @@
       <c r="I136" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N136" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>362</v>
       </c>
-      <c r="F137" t="s">
-        <v>363</v>
+      <c r="F137" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-CHPBGW</v>
       </c>
       <c r="G137" t="s">
         <v>364</v>
@@ -6948,8 +7731,11 @@
       <c r="I137" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N137" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -6959,8 +7745,9 @@
       <c r="E138" t="s">
         <v>359</v>
       </c>
-      <c r="F138" t="s">
-        <v>365</v>
+      <c r="F138" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-CHPCOA</v>
       </c>
       <c r="G138" t="s">
         <v>366</v>
@@ -6971,8 +7758,11 @@
       <c r="I138" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N138" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -6985,8 +7775,9 @@
       <c r="E139" t="s">
         <v>359</v>
       </c>
-      <c r="F139" t="s">
-        <v>368</v>
+      <c r="F139" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-CHPGAS</v>
       </c>
       <c r="G139" t="s">
         <v>369</v>
@@ -6997,8 +7788,11 @@
       <c r="I139" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -7008,8 +7802,9 @@
       <c r="E140" t="s">
         <v>359</v>
       </c>
-      <c r="F140" t="s">
-        <v>371</v>
+      <c r="F140" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-CHPGEO</v>
       </c>
       <c r="G140" t="s">
         <v>372</v>
@@ -7020,16 +7815,20 @@
       <c r="I140" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N140" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>141</v>
       </c>
       <c r="D141" t="s">
         <v>170</v>
       </c>
-      <c r="F141" t="s">
-        <v>373</v>
+      <c r="F141" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-CHPNUC</v>
       </c>
       <c r="G141" t="s">
         <v>172</v>
@@ -7040,8 +7839,11 @@
       <c r="I141" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N141" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -7051,8 +7853,9 @@
       <c r="E142" t="s">
         <v>359</v>
       </c>
-      <c r="F142" t="s">
-        <v>375</v>
+      <c r="F142" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-CHPOIL</v>
       </c>
       <c r="G142" t="s">
         <v>376</v>
@@ -7063,8 +7866,11 @@
       <c r="I142" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N142" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -7074,8 +7880,9 @@
       <c r="E143" t="s">
         <v>359</v>
       </c>
-      <c r="F143" t="s">
-        <v>378</v>
+      <c r="F143" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-CHPWOO</v>
       </c>
       <c r="G143" t="s">
         <v>379</v>
@@ -7086,13 +7893,17 @@
       <c r="I143" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N143" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>380</v>
       </c>
-      <c r="F144" t="s">
-        <v>381</v>
+      <c r="F144" t="str">
+        <f t="shared" si="2"/>
+        <v>z_ICM</v>
       </c>
       <c r="G144" t="s">
         <v>381</v>
@@ -7103,8 +7914,11 @@
       <c r="I144" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N144" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>256</v>
       </c>
@@ -7114,8 +7928,9 @@
       <c r="E145" t="s">
         <v>359</v>
       </c>
-      <c r="F145" t="s">
-        <v>382</v>
+      <c r="F145" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-ELECOA</v>
       </c>
       <c r="G145" t="s">
         <v>366</v>
@@ -7126,8 +7941,11 @@
       <c r="I145" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N145" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>256</v>
       </c>
@@ -7140,8 +7958,9 @@
       <c r="E146" t="s">
         <v>359</v>
       </c>
-      <c r="F146" t="s">
-        <v>383</v>
+      <c r="F146" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-ELEGAS</v>
       </c>
       <c r="G146" t="s">
         <v>369</v>
@@ -7152,8 +7971,11 @@
       <c r="I146" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N146" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>256</v>
       </c>
@@ -7163,8 +7985,9 @@
       <c r="E147" t="s">
         <v>359</v>
       </c>
-      <c r="F147" t="s">
-        <v>384</v>
+      <c r="F147" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-ELEGEO</v>
       </c>
       <c r="G147" t="s">
         <v>161</v>
@@ -7175,8 +7998,11 @@
       <c r="I147" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N147" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>256</v>
       </c>
@@ -7186,8 +8012,9 @@
       <c r="E148" t="s">
         <v>359</v>
       </c>
-      <c r="F148" t="s">
-        <v>385</v>
+      <c r="F148" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-ELEHYD</v>
       </c>
       <c r="G148" t="s">
         <v>386</v>
@@ -7198,8 +8025,11 @@
       <c r="I148" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N148" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>256</v>
       </c>
@@ -7209,8 +8039,9 @@
       <c r="E149" t="s">
         <v>359</v>
       </c>
-      <c r="F149" t="s">
-        <v>388</v>
+      <c r="F149" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-ELEOIL</v>
       </c>
       <c r="G149" t="s">
         <v>376</v>
@@ -7221,8 +8052,11 @@
       <c r="I149" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N149" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>256</v>
       </c>
@@ -7232,8 +8066,9 @@
       <c r="E150" t="s">
         <v>359</v>
       </c>
-      <c r="F150" t="s">
-        <v>389</v>
+      <c r="F150" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-ELESOL</v>
       </c>
       <c r="G150" t="s">
         <v>307</v>
@@ -7244,8 +8079,11 @@
       <c r="I150" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N150" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>256</v>
       </c>
@@ -7255,8 +8093,9 @@
       <c r="E151" t="s">
         <v>359</v>
       </c>
-      <c r="F151" t="s">
-        <v>390</v>
+      <c r="F151" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-ELEWIN</v>
       </c>
       <c r="G151" t="s">
         <v>391</v>
@@ -7267,8 +8106,11 @@
       <c r="I151" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N151" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>256</v>
       </c>
@@ -7278,8 +8120,9 @@
       <c r="E152" t="s">
         <v>359</v>
       </c>
-      <c r="F152" t="s">
-        <v>393</v>
+      <c r="F152" t="str">
+        <f t="shared" si="2"/>
+        <v>z_I-ELEWOO</v>
       </c>
       <c r="G152" t="s">
         <v>379</v>
@@ -7290,13 +8133,17 @@
       <c r="I152" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N152" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>394</v>
       </c>
-      <c r="F153" t="s">
-        <v>395</v>
+      <c r="F153" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IFB</v>
       </c>
       <c r="G153" t="s">
         <v>395</v>
@@ -7307,13 +8154,17 @@
       <c r="I153" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N153" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>396</v>
       </c>
-      <c r="F154" t="s">
-        <v>397</v>
+      <c r="F154" t="str">
+        <f t="shared" si="2"/>
+        <v>z_ILM</v>
       </c>
       <c r="G154" t="s">
         <v>397</v>
@@ -7324,16 +8175,20 @@
       <c r="I154" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N154" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>87</v>
       </c>
       <c r="C155" t="s">
         <v>126</v>
       </c>
-      <c r="F155" t="s">
-        <v>398</v>
+      <c r="F155" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IND_CCS</v>
       </c>
       <c r="G155" t="s">
         <v>398</v>
@@ -7344,13 +8199,17 @@
       <c r="I155" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N155" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>399</v>
       </c>
-      <c r="F156" t="s">
-        <v>400</v>
+      <c r="F156" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IND_ICH</v>
       </c>
       <c r="G156" t="s">
         <v>401</v>
@@ -7361,13 +8220,17 @@
       <c r="I156" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N156" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>402</v>
       </c>
-      <c r="F157" t="s">
-        <v>403</v>
+      <c r="F157" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IND_IIS</v>
       </c>
       <c r="G157" t="s">
         <v>404</v>
@@ -7378,13 +8241,17 @@
       <c r="I157" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N157" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>405</v>
       </c>
-      <c r="F158" t="s">
-        <v>406</v>
+      <c r="F158" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IND_INF</v>
       </c>
       <c r="G158" t="s">
         <v>407</v>
@@ -7395,13 +8262,17 @@
       <c r="I158" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N158" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>408</v>
       </c>
-      <c r="F159" t="s">
-        <v>409</v>
+      <c r="F159" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IND_INM</v>
       </c>
       <c r="G159" t="s">
         <v>410</v>
@@ -7412,13 +8283,17 @@
       <c r="I159" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N159" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>411</v>
       </c>
-      <c r="F160" t="s">
-        <v>412</v>
+      <c r="F160" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IND_IOI</v>
       </c>
       <c r="G160" t="s">
         <v>413</v>
@@ -7429,16 +8304,20 @@
       <c r="I160" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N160" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>414</v>
       </c>
       <c r="D161" t="s">
         <v>88</v>
       </c>
-      <c r="F161" t="s">
-        <v>415</v>
+      <c r="F161" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IND_IPP</v>
       </c>
       <c r="G161" t="s">
         <v>416</v>
@@ -7449,13 +8328,17 @@
       <c r="I161" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N161" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>417</v>
       </c>
-      <c r="F162" t="s">
-        <v>418</v>
+      <c r="F162" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IND_NE</v>
       </c>
       <c r="G162" t="s">
         <v>419</v>
@@ -7466,13 +8349,17 @@
       <c r="I162" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N162" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>420</v>
       </c>
-      <c r="F163" t="s">
-        <v>421</v>
+      <c r="F163" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IND-ALL</v>
       </c>
       <c r="G163" t="s">
         <v>90</v>
@@ -7483,16 +8370,20 @@
       <c r="I163" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N163" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>422</v>
       </c>
       <c r="E164" t="s">
         <v>359</v>
       </c>
-      <c r="F164" t="s">
-        <v>423</v>
+      <c r="F164" t="str">
+        <f t="shared" si="2"/>
+        <v>z_INDELCPRD</v>
       </c>
       <c r="G164" t="s">
         <v>424</v>
@@ -7503,8 +8394,11 @@
       <c r="I164" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N164" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>141</v>
       </c>
@@ -7514,8 +8408,9 @@
       <c r="E165" t="s">
         <v>359</v>
       </c>
-      <c r="F165" t="s">
-        <v>425</v>
+      <c r="F165" t="str">
+        <f t="shared" si="2"/>
+        <v>z_INDELCPRD-CHP</v>
       </c>
       <c r="G165" t="s">
         <v>426</v>
@@ -7526,8 +8421,11 @@
       <c r="I165" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N165" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>256</v>
       </c>
@@ -7537,8 +8435,9 @@
       <c r="E166" t="s">
         <v>359</v>
       </c>
-      <c r="F166" t="s">
-        <v>427</v>
+      <c r="F166" t="str">
+        <f t="shared" si="2"/>
+        <v>z_INDELCPRD-ELE</v>
       </c>
       <c r="G166" t="s">
         <v>428</v>
@@ -7549,16 +8448,20 @@
       <c r="I166" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N166" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>88</v>
       </c>
       <c r="C167" t="s">
         <v>75</v>
       </c>
-      <c r="F167" t="s">
-        <v>429</v>
+      <c r="F167" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IND-INFRASTRUCTURE</v>
       </c>
       <c r="G167" t="s">
         <v>430</v>
@@ -7569,13 +8472,17 @@
       <c r="I167" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N167" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>431</v>
       </c>
-      <c r="F168" t="s">
-        <v>432</v>
+      <c r="F168" t="str">
+        <f t="shared" si="2"/>
+        <v>z_INF</v>
       </c>
       <c r="G168" t="s">
         <v>432</v>
@@ -7586,13 +8493,17 @@
       <c r="I168" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N168" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>433</v>
       </c>
-      <c r="F169" t="s">
-        <v>434</v>
+      <c r="F169" t="str">
+        <f t="shared" si="2"/>
+        <v>z_INM</v>
       </c>
       <c r="G169" t="s">
         <v>434</v>
@@ -7603,13 +8514,17 @@
       <c r="I169" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N169" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>435</v>
       </c>
-      <c r="F170" t="s">
-        <v>436</v>
+      <c r="F170" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IOI</v>
       </c>
       <c r="G170" t="s">
         <v>436</v>
@@ -7620,13 +8535,17 @@
       <c r="I170" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N170" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>437</v>
       </c>
-      <c r="F171" t="s">
-        <v>438</v>
+      <c r="F171" t="str">
+        <f t="shared" si="2"/>
+        <v>z_IPP</v>
       </c>
       <c r="G171" t="s">
         <v>438</v>
@@ -7637,13 +8556,17 @@
       <c r="I171" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N171" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>683</v>
       </c>
-      <c r="F172" t="s">
-        <v>439</v>
+      <c r="F172" t="str">
+        <f t="shared" si="2"/>
+        <v>z_NEO</v>
       </c>
       <c r="G172" t="s">
         <v>439</v>
@@ -7654,16 +8577,20 @@
       <c r="I172" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N172" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>440</v>
       </c>
       <c r="C173" t="s">
         <v>441</v>
       </c>
-      <c r="F173" t="s">
-        <v>442</v>
+      <c r="F173" t="str">
+        <f t="shared" si="2"/>
+        <v>z_PRCAGR</v>
       </c>
       <c r="G173" t="s">
         <v>68</v>
@@ -7674,8 +8601,11 @@
       <c r="I173" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N173" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>443</v>
       </c>
@@ -7685,8 +8615,9 @@
       <c r="E174" t="s">
         <v>138</v>
       </c>
-      <c r="F174" t="s">
-        <v>445</v>
+      <c r="F174" t="str">
+        <f t="shared" si="2"/>
+        <v>z_PRCCOM</v>
       </c>
       <c r="G174" t="s">
         <v>215</v>
@@ -7697,16 +8628,20 @@
       <c r="I174" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N174" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C175" t="s">
         <v>441</v>
       </c>
       <c r="E175" t="s">
         <v>446</v>
       </c>
-      <c r="F175" t="s">
-        <v>447</v>
+      <c r="F175" t="str">
+        <f t="shared" si="2"/>
+        <v>z_PRCRSD</v>
       </c>
       <c r="G175" t="s">
         <v>239</v>
@@ -7717,8 +8652,11 @@
       <c r="I175" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N175" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>448</v>
       </c>
@@ -7728,8 +8666,9 @@
       <c r="E176" t="s">
         <v>449</v>
       </c>
-      <c r="F176" t="s">
-        <v>450</v>
+      <c r="F176" t="str">
+        <f t="shared" si="2"/>
+        <v>z_PRCTRA</v>
       </c>
       <c r="G176" t="s">
         <v>249</v>
@@ -7740,13 +8679,17 @@
       <c r="I176" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N176" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>451</v>
       </c>
-      <c r="F177" t="s">
-        <v>452</v>
+      <c r="F177" t="str">
+        <f t="shared" si="2"/>
+        <v>z_PRIEXP</v>
       </c>
       <c r="G177" t="s">
         <v>453</v>
@@ -7757,13 +8700,17 @@
       <c r="I177" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N177" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>454</v>
       </c>
-      <c r="F178" t="s">
-        <v>455</v>
+      <c r="F178" t="str">
+        <f t="shared" si="2"/>
+        <v>z_PRIIMP</v>
       </c>
       <c r="G178" t="s">
         <v>456</v>
@@ -7774,13 +8721,17 @@
       <c r="I178" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N178" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>457</v>
       </c>
-      <c r="F179" t="s">
-        <v>458</v>
+      <c r="F179" t="str">
+        <f t="shared" si="2"/>
+        <v>z_PRIMIN</v>
       </c>
       <c r="G179" t="s">
         <v>459</v>
@@ -7791,16 +8742,20 @@
       <c r="I179" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N179" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>460</v>
       </c>
       <c r="C180" t="s">
         <v>461</v>
       </c>
-      <c r="F180" t="s">
-        <v>462</v>
+      <c r="F180" t="str">
+        <f t="shared" si="2"/>
+        <v>z_PRIMIN-NRG</v>
       </c>
       <c r="G180" t="s">
         <v>459</v>
@@ -7811,13 +8766,17 @@
       <c r="I180" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N180" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E181" t="s">
         <v>463</v>
       </c>
-      <c r="F181" t="s">
-        <v>464</v>
+      <c r="F181" t="str">
+        <f t="shared" si="2"/>
+        <v>z_PROCETS</v>
       </c>
       <c r="G181" t="s">
         <v>465</v>
@@ -7828,16 +8787,20 @@
       <c r="I181" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N181" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C182" t="s">
         <v>466</v>
       </c>
       <c r="E182" t="s">
         <v>467</v>
       </c>
-      <c r="F182" t="s">
-        <v>468</v>
+      <c r="F182" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RCAUTOP</v>
       </c>
       <c r="G182" t="s">
         <v>469</v>
@@ -7848,16 +8811,20 @@
       <c r="I182" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N182" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>129</v>
       </c>
       <c r="E183" t="s">
         <v>470</v>
       </c>
-      <c r="F183" t="s">
-        <v>470</v>
+      <c r="F183" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RCOK</v>
       </c>
       <c r="G183" t="s">
         <v>471</v>
@@ -7868,16 +8835,20 @@
       <c r="I183" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N183" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>129</v>
       </c>
       <c r="E184" t="s">
         <v>472</v>
       </c>
-      <c r="F184" t="s">
-        <v>473</v>
+      <c r="F184" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RCWA-RCDR</v>
       </c>
       <c r="G184" t="s">
         <v>474</v>
@@ -7888,16 +8859,20 @@
       <c r="I184" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N184" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>182</v>
       </c>
       <c r="E185" t="s">
         <v>475</v>
       </c>
-      <c r="F185" t="s">
-        <v>475</v>
+      <c r="F185" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RDWA</v>
       </c>
       <c r="G185" t="s">
         <v>476</v>
@@ -7908,16 +8883,20 @@
       <c r="I185" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N185" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>477</v>
       </c>
       <c r="D186" t="s">
         <v>478</v>
       </c>
-      <c r="F186" t="s">
-        <v>479</v>
+      <c r="F186" t="str">
+        <f t="shared" si="2"/>
+        <v>z_REGAS</v>
       </c>
       <c r="G186" t="s">
         <v>480</v>
@@ -7928,16 +8907,20 @@
       <c r="I186" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N186" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D187" t="s">
         <v>481</v>
       </c>
       <c r="E187" t="s">
         <v>359</v>
       </c>
-      <c r="F187" t="s">
-        <v>482</v>
+      <c r="F187" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RENCHOAUTO</v>
       </c>
       <c r="G187" t="s">
         <v>483</v>
@@ -7948,13 +8931,17 @@
       <c r="I187" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N187" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>484</v>
       </c>
-      <c r="F188" t="s">
-        <v>485</v>
+      <c r="F188" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RENELC_TRANSPORT</v>
       </c>
       <c r="G188" t="s">
         <v>486</v>
@@ -7965,8 +8952,11 @@
       <c r="I188" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N188" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>13</v>
       </c>
@@ -7976,8 +8966,9 @@
       <c r="E189" t="s">
         <v>359</v>
       </c>
-      <c r="F189" t="s">
-        <v>487</v>
+      <c r="F189" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RENTARGETAUTO</v>
       </c>
       <c r="G189" t="s">
         <v>487</v>
@@ -7988,8 +8979,11 @@
       <c r="I189" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N189" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>684</v>
       </c>
@@ -7999,8 +8993,9 @@
       <c r="E190" t="s">
         <v>489</v>
       </c>
-      <c r="F190" t="s">
-        <v>490</v>
+      <c r="F190" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RENTECHSDEMANDSIDE</v>
       </c>
       <c r="G190" t="s">
         <v>491</v>
@@ -8011,16 +9006,20 @@
       <c r="I190" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N190" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>492</v>
       </c>
       <c r="C191" t="s">
         <v>493</v>
       </c>
-      <c r="F191" t="s">
-        <v>494</v>
+      <c r="F191" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RESNEW</v>
       </c>
       <c r="G191" t="s">
         <v>495</v>
@@ -8031,16 +9030,20 @@
       <c r="I191" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N191" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>496</v>
       </c>
       <c r="E192" t="s">
         <v>497</v>
       </c>
-      <c r="F192" t="s">
-        <v>498</v>
+      <c r="F192" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RHM</v>
       </c>
       <c r="G192" t="s">
         <v>499</v>
@@ -8051,16 +9054,20 @@
       <c r="I192" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N192" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>496</v>
       </c>
       <c r="E193" t="s">
         <v>500</v>
       </c>
-      <c r="F193" t="s">
-        <v>501</v>
+      <c r="F193" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RHR</v>
       </c>
       <c r="G193" t="s">
         <v>502</v>
@@ -8071,16 +9078,20 @@
       <c r="I193" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N193" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>129</v>
       </c>
       <c r="E194" t="s">
         <v>503</v>
       </c>
-      <c r="F194" t="s">
-        <v>504</v>
+      <c r="F194" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RH-RW-RC</v>
       </c>
       <c r="G194" t="s">
         <v>505</v>
@@ -8091,16 +9102,20 @@
       <c r="I194" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N194" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>496</v>
       </c>
       <c r="E195" t="s">
         <v>506</v>
       </c>
-      <c r="F195" t="s">
-        <v>507</v>
+      <c r="F195" t="str">
+        <f t="shared" si="2"/>
+        <v>z_RH-RW-RCOK</v>
       </c>
       <c r="G195" t="s">
         <v>507</v>
@@ -8111,16 +9126,20 @@
       <c r="I195" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N195" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>496</v>
       </c>
       <c r="E196" t="s">
         <v>508</v>
       </c>
-      <c r="F196" t="s">
-        <v>509</v>
+      <c r="F196" t="str">
+        <f t="shared" ref="F196:F255" si="3">"z_"&amp;N196</f>
+        <v>z_RHU</v>
       </c>
       <c r="G196" t="s">
         <v>510</v>
@@ -8131,16 +9150,20 @@
       <c r="I196" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N196" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>195</v>
       </c>
       <c r="E197" t="s">
         <v>511</v>
       </c>
-      <c r="F197" t="s">
-        <v>511</v>
+      <c r="F197" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RLIG</v>
       </c>
       <c r="G197" t="s">
         <v>512</v>
@@ -8151,16 +9174,20 @@
       <c r="I197" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N197" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>513</v>
       </c>
       <c r="D198" t="s">
         <v>514</v>
       </c>
-      <c r="F198" t="s">
-        <v>515</v>
+      <c r="F198" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RNW</v>
       </c>
       <c r="G198" t="s">
         <v>516</v>
@@ -8171,16 +9198,20 @@
       <c r="I198" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N198" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>182</v>
       </c>
       <c r="E199" t="s">
         <v>517</v>
       </c>
-      <c r="F199" t="s">
-        <v>517</v>
+      <c r="F199" t="str">
+        <f t="shared" si="3"/>
+        <v>z_ROEL</v>
       </c>
       <c r="G199" t="s">
         <v>518</v>
@@ -8191,16 +9222,20 @@
       <c r="I199" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N199" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>182</v>
       </c>
       <c r="E200" t="s">
         <v>519</v>
       </c>
-      <c r="F200" t="s">
-        <v>519</v>
+      <c r="F200" t="str">
+        <f t="shared" si="3"/>
+        <v>z_ROEN</v>
       </c>
       <c r="G200" t="s">
         <v>520</v>
@@ -8211,16 +9246,20 @@
       <c r="I200" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N200" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>182</v>
       </c>
       <c r="E201" t="s">
         <v>521</v>
       </c>
-      <c r="F201" t="s">
-        <v>521</v>
+      <c r="F201" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RREF</v>
       </c>
       <c r="G201" t="s">
         <v>522</v>
@@ -8231,16 +9270,20 @@
       <c r="I201" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N201" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>523</v>
       </c>
       <c r="B202" t="s">
         <v>496</v>
       </c>
-      <c r="F202" t="s">
-        <v>524</v>
+      <c r="F202" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD</v>
       </c>
       <c r="G202" t="s">
         <v>239</v>
@@ -8251,13 +9294,17 @@
       <c r="I202" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N202" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E203" t="s">
         <v>470</v>
       </c>
-      <c r="F203" t="s">
-        <v>525</v>
+      <c r="F203" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD_COK</v>
       </c>
       <c r="G203" t="s">
         <v>471</v>
@@ -8268,13 +9315,17 @@
       <c r="I203" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N203" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E204" t="s">
         <v>526</v>
       </c>
-      <c r="F204" t="s">
-        <v>527</v>
+      <c r="F204" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD_COL</v>
       </c>
       <c r="G204" t="s">
         <v>528</v>
@@ -8285,13 +9336,17 @@
       <c r="I204" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N204" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E205" t="s">
         <v>529</v>
       </c>
-      <c r="F205" t="s">
-        <v>530</v>
+      <c r="F205" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD_HCW</v>
       </c>
       <c r="G205" t="s">
         <v>531</v>
@@ -8302,16 +9357,20 @@
       <c r="I205" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N205" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>195</v>
       </c>
       <c r="E206" t="s">
         <v>532</v>
       </c>
-      <c r="F206" t="s">
-        <v>533</v>
+      <c r="F206" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD_LIG</v>
       </c>
       <c r="G206" t="s">
         <v>512</v>
@@ -8322,16 +9381,20 @@
       <c r="I206" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N206" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>195</v>
       </c>
       <c r="E207" t="s">
         <v>534</v>
       </c>
-      <c r="F207" t="s">
-        <v>535</v>
+      <c r="F207" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD_OTH</v>
       </c>
       <c r="G207" t="s">
         <v>536</v>
@@ -8342,13 +9405,17 @@
       <c r="I207" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N207" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E208" t="s">
         <v>537</v>
       </c>
-      <c r="F208" t="s">
-        <v>538</v>
+      <c r="F208" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD_OTHE</v>
       </c>
       <c r="G208" t="s">
         <v>539</v>
@@ -8359,13 +9426,17 @@
       <c r="I208" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N208" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E209" t="s">
         <v>519</v>
       </c>
-      <c r="F209" t="s">
-        <v>540</v>
+      <c r="F209" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD_OTHEN</v>
       </c>
       <c r="G209" t="s">
         <v>520</v>
@@ -8376,16 +9447,20 @@
       <c r="I209" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N209" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>195</v>
       </c>
       <c r="E210" t="s">
         <v>541</v>
       </c>
-      <c r="F210" t="s">
-        <v>542</v>
+      <c r="F210" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD_SPCL</v>
       </c>
       <c r="G210" t="s">
         <v>542</v>
@@ -8396,13 +9471,17 @@
       <c r="I210" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N210" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E211" t="s">
         <v>685</v>
       </c>
-      <c r="F211" t="s">
-        <v>543</v>
+      <c r="F211" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD_SPHT</v>
       </c>
       <c r="G211" t="s">
         <v>543</v>
@@ -8413,13 +9492,17 @@
       <c r="I211" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N211" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E212" t="s">
         <v>544</v>
       </c>
-      <c r="F212" t="s">
-        <v>545</v>
+      <c r="F212" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD_WAT</v>
       </c>
       <c r="G212" t="s">
         <v>546</v>
@@ -8430,16 +9513,20 @@
       <c r="I212" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N212" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>547</v>
       </c>
       <c r="E213" t="s">
         <v>496</v>
       </c>
-      <c r="F213" t="s">
-        <v>548</v>
+      <c r="F213" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD-ALL</v>
       </c>
       <c r="G213" t="s">
         <v>239</v>
@@ -8450,16 +9537,20 @@
       <c r="I213" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N213" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>237</v>
       </c>
       <c r="C214" t="s">
         <v>75</v>
       </c>
-      <c r="F214" t="s">
-        <v>549</v>
+      <c r="F214" t="str">
+        <f t="shared" si="3"/>
+        <v>z_RSD-INFRASTRUCTURE</v>
       </c>
       <c r="G214" t="s">
         <v>550</v>
@@ -8470,16 +9561,20 @@
       <c r="I214" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N214" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>551</v>
       </c>
       <c r="C215" t="s">
         <v>552</v>
       </c>
-      <c r="F215" t="s">
-        <v>553</v>
+      <c r="F215" t="str">
+        <f t="shared" si="3"/>
+        <v>z_SAVPOT</v>
       </c>
       <c r="G215" t="s">
         <v>554</v>
@@ -8490,8 +9585,11 @@
       <c r="I215" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N215" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>555</v>
       </c>
@@ -8501,8 +9599,9 @@
       <c r="E216" t="s">
         <v>556</v>
       </c>
-      <c r="F216" t="s">
-        <v>557</v>
+      <c r="F216" t="str">
+        <f t="shared" si="3"/>
+        <v>z_SECT_ELC</v>
       </c>
       <c r="G216" t="s">
         <v>557</v>
@@ -8513,8 +9612,11 @@
       <c r="I216" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N216" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>558</v>
       </c>
@@ -8524,8 +9626,9 @@
       <c r="E217" t="s">
         <v>559</v>
       </c>
-      <c r="F217" t="s">
-        <v>560</v>
+      <c r="F217" t="str">
+        <f t="shared" si="3"/>
+        <v>z_SUP</v>
       </c>
       <c r="G217" t="s">
         <v>561</v>
@@ -8536,8 +9639,11 @@
       <c r="I217" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N217" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>562</v>
       </c>
@@ -8547,8 +9653,9 @@
       <c r="E218" t="s">
         <v>559</v>
       </c>
-      <c r="F218" t="s">
-        <v>563</v>
+      <c r="F218" t="str">
+        <f t="shared" si="3"/>
+        <v>z_SUP-ALL</v>
       </c>
       <c r="G218" t="s">
         <v>561</v>
@@ -8559,13 +9666,17 @@
       <c r="I218" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N218" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E219" t="s">
         <v>564</v>
       </c>
-      <c r="F219" t="s">
-        <v>565</v>
+      <c r="F219" t="str">
+        <f t="shared" si="3"/>
+        <v>z_SYNH2_PRODUCERS</v>
       </c>
       <c r="G219" t="s">
         <v>566</v>
@@ -8582,16 +9693,20 @@
       <c r="K219" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N219" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>129</v>
       </c>
       <c r="E220" t="s">
         <v>567</v>
       </c>
-      <c r="F220" t="s">
-        <v>567</v>
+      <c r="F220" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TAI</v>
       </c>
       <c r="G220" t="s">
         <v>568</v>
@@ -8602,16 +9717,20 @@
       <c r="I220" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N220" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>182</v>
       </c>
       <c r="E221" t="s">
         <v>569</v>
       </c>
-      <c r="F221" t="s">
-        <v>569</v>
+      <c r="F221" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TAV</v>
       </c>
       <c r="G221" t="s">
         <v>570</v>
@@ -8622,16 +9741,20 @@
       <c r="I221" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N221" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>182</v>
       </c>
       <c r="E222" t="s">
         <v>571</v>
       </c>
-      <c r="F222" t="s">
-        <v>571</v>
+      <c r="F222" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TBI</v>
       </c>
       <c r="G222" t="s">
         <v>572</v>
@@ -8642,16 +9765,20 @@
       <c r="I222" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N222" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>129</v>
       </c>
       <c r="E223" t="s">
         <v>573</v>
       </c>
-      <c r="F223" t="s">
-        <v>573</v>
+      <c r="F223" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TBU</v>
       </c>
       <c r="G223" t="s">
         <v>574</v>
@@ -8662,16 +9789,20 @@
       <c r="I223" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N223" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>575</v>
       </c>
       <c r="E224" t="s">
         <v>576</v>
       </c>
-      <c r="F224" t="s">
-        <v>577</v>
+      <c r="F224" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TCAR</v>
       </c>
       <c r="G224" t="s">
         <v>578</v>
@@ -8682,16 +9813,20 @@
       <c r="I224" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N224" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>182</v>
       </c>
       <c r="E225" t="s">
         <v>579</v>
       </c>
-      <c r="F225" t="s">
-        <v>580</v>
+      <c r="F225" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TCL-TCS</v>
       </c>
       <c r="G225" t="s">
         <v>578</v>
@@ -8702,16 +9837,20 @@
       <c r="I225" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N225" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>551</v>
       </c>
       <c r="B226" t="s">
         <v>581</v>
       </c>
-      <c r="F226" t="s">
-        <v>582</v>
+      <c r="F226" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TENDO_ELC</v>
       </c>
       <c r="G226" t="s">
         <v>583</v>
@@ -8722,16 +9861,20 @@
       <c r="I226" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N226" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>551</v>
       </c>
       <c r="B227" t="s">
         <v>584</v>
       </c>
-      <c r="F227" t="s">
-        <v>585</v>
+      <c r="F227" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TENDO_GAS</v>
       </c>
       <c r="G227" t="s">
         <v>586</v>
@@ -8742,13 +9885,17 @@
       <c r="I227" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N227" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>587</v>
       </c>
-      <c r="F228" t="s">
-        <v>588</v>
+      <c r="F228" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TEXO_ELC</v>
       </c>
       <c r="G228" t="s">
         <v>589</v>
@@ -8759,16 +9906,20 @@
       <c r="I228" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N228" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>551</v>
       </c>
       <c r="B229" t="s">
         <v>590</v>
       </c>
-      <c r="F229" t="s">
-        <v>591</v>
+      <c r="F229" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TEXO_GAS</v>
       </c>
       <c r="G229" t="s">
         <v>592</v>
@@ -8779,16 +9930,20 @@
       <c r="I229" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N229" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>551</v>
       </c>
       <c r="B230" t="s">
         <v>593</v>
       </c>
-      <c r="F230" t="s">
-        <v>594</v>
+      <c r="F230" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TEXO_LNG</v>
       </c>
       <c r="G230" t="s">
         <v>595</v>
@@ -8799,16 +9954,20 @@
       <c r="I230" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N230" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>575</v>
       </c>
       <c r="E231" t="s">
         <v>596</v>
       </c>
-      <c r="F231" t="s">
-        <v>596</v>
+      <c r="F231" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TFR</v>
       </c>
       <c r="G231" t="s">
         <v>597</v>
@@ -8819,16 +9978,20 @@
       <c r="I231" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N231" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>598</v>
       </c>
       <c r="E232" t="s">
         <v>599</v>
       </c>
-      <c r="F232" t="s">
-        <v>599</v>
+      <c r="F232" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TMO</v>
       </c>
       <c r="G232" t="s">
         <v>600</v>
@@ -8839,16 +10002,20 @@
       <c r="I232" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N232" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>601</v>
       </c>
       <c r="E233" t="s">
         <v>602</v>
       </c>
-      <c r="F233" t="s">
-        <v>602</v>
+      <c r="F233" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TNA</v>
       </c>
       <c r="G233" t="s">
         <v>603</v>
@@ -8859,16 +10026,20 @@
       <c r="I233" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N233" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>601</v>
       </c>
       <c r="E234" t="s">
         <v>604</v>
       </c>
-      <c r="F234" t="s">
-        <v>604</v>
+      <c r="F234" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TNB</v>
       </c>
       <c r="G234" t="s">
         <v>605</v>
@@ -8879,8 +10050,11 @@
       <c r="I234" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N234" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>606</v>
       </c>
@@ -8890,8 +10064,9 @@
       <c r="E235" t="s">
         <v>575</v>
       </c>
-      <c r="F235" t="s">
-        <v>607</v>
+      <c r="F235" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA</v>
       </c>
       <c r="G235" t="s">
         <v>249</v>
@@ -8902,16 +10077,20 @@
       <c r="I235" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N235" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>608</v>
       </c>
       <c r="E236" t="s">
         <v>609</v>
       </c>
-      <c r="F236" t="s">
-        <v>610</v>
+      <c r="F236" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_AIR</v>
       </c>
       <c r="G236" t="s">
         <v>611</v>
@@ -8922,16 +10101,20 @@
       <c r="I236" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N236" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>612</v>
       </c>
       <c r="E237" t="s">
         <v>613</v>
       </c>
-      <c r="F237" t="s">
-        <v>614</v>
+      <c r="F237" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_BUS</v>
       </c>
       <c r="G237" t="s">
         <v>615</v>
@@ -8942,16 +10125,20 @@
       <c r="I237" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N237" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>612</v>
       </c>
       <c r="E238" t="s">
         <v>616</v>
       </c>
-      <c r="F238" t="s">
-        <v>617</v>
+      <c r="F238" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_CAR</v>
       </c>
       <c r="G238" t="s">
         <v>618</v>
@@ -8962,8 +10149,11 @@
       <c r="I238" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N238" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>619</v>
       </c>
@@ -8973,8 +10163,9 @@
       <c r="E239" t="s">
         <v>616</v>
       </c>
-      <c r="F239" t="s">
-        <v>621</v>
+      <c r="F239" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_CAR-DST</v>
       </c>
       <c r="G239" t="s">
         <v>622</v>
@@ -8985,8 +10176,11 @@
       <c r="I239" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N239" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>623</v>
       </c>
@@ -8996,8 +10190,9 @@
       <c r="E240" t="s">
         <v>616</v>
       </c>
-      <c r="F240" t="s">
-        <v>625</v>
+      <c r="F240" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_CAR-GSL</v>
       </c>
       <c r="G240" t="s">
         <v>626</v>
@@ -9008,16 +10203,20 @@
       <c r="I240" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N240" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>608</v>
       </c>
       <c r="E241" t="s">
         <v>627</v>
       </c>
-      <c r="F241" t="s">
-        <v>628</v>
+      <c r="F241" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_FREIGHT</v>
       </c>
       <c r="G241" t="s">
         <v>629</v>
@@ -9028,16 +10227,20 @@
       <c r="I241" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N241" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>598</v>
       </c>
       <c r="E242" t="s">
         <v>599</v>
       </c>
-      <c r="F242" t="s">
-        <v>630</v>
+      <c r="F242" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_MOT</v>
       </c>
       <c r="G242" t="s">
         <v>631</v>
@@ -9048,16 +10251,20 @@
       <c r="I242" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N242" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>601</v>
       </c>
       <c r="E243" t="s">
         <v>632</v>
       </c>
-      <c r="F243" t="s">
-        <v>633</v>
+      <c r="F243" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_NAV</v>
       </c>
       <c r="G243" t="s">
         <v>634</v>
@@ -9068,16 +10275,20 @@
       <c r="I243" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N243" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>612</v>
       </c>
       <c r="E244" t="s">
         <v>635</v>
       </c>
-      <c r="F244" t="s">
-        <v>636</v>
+      <c r="F244" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_PRIVATE</v>
       </c>
       <c r="G244" t="s">
         <v>637</v>
@@ -9088,16 +10299,20 @@
       <c r="I244" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N244" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>612</v>
       </c>
       <c r="E245" t="s">
         <v>638</v>
       </c>
-      <c r="F245" t="s">
-        <v>639</v>
+      <c r="F245" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_PUBLIC</v>
       </c>
       <c r="G245" t="s">
         <v>640</v>
@@ -9108,16 +10323,20 @@
       <c r="I245" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N245" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>608</v>
       </c>
       <c r="E246" t="s">
         <v>641</v>
       </c>
-      <c r="F246" t="s">
-        <v>642</v>
+      <c r="F246" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_TRK</v>
       </c>
       <c r="G246" t="s">
         <v>643</v>
@@ -9128,16 +10347,20 @@
       <c r="I246" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N246" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>601</v>
       </c>
       <c r="E247" t="s">
         <v>644</v>
       </c>
-      <c r="F247" t="s">
-        <v>645</v>
+      <c r="F247" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA_TRN</v>
       </c>
       <c r="G247" t="s">
         <v>646</v>
@@ -9148,8 +10371,11 @@
       <c r="I247" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N247" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>647</v>
       </c>
@@ -9159,8 +10385,9 @@
       <c r="E248" t="s">
         <v>575</v>
       </c>
-      <c r="F248" t="s">
-        <v>648</v>
+      <c r="F248" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA-ALL</v>
       </c>
       <c r="G248" t="s">
         <v>249</v>
@@ -9171,16 +10398,20 @@
       <c r="I248" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N248" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>551</v>
       </c>
       <c r="B249" t="s">
         <v>649</v>
       </c>
-      <c r="F249" t="s">
-        <v>650</v>
+      <c r="F249" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRADEENDO</v>
       </c>
       <c r="G249" t="s">
         <v>651</v>
@@ -9191,16 +10422,20 @@
       <c r="I249" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N249" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>551</v>
       </c>
       <c r="B250" t="s">
         <v>652</v>
       </c>
-      <c r="F250" t="s">
-        <v>653</v>
+      <c r="F250" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRADEEXOG</v>
       </c>
       <c r="G250" t="s">
         <v>654</v>
@@ -9211,16 +10446,20 @@
       <c r="I250" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N250" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>655</v>
       </c>
       <c r="C251" t="s">
         <v>75</v>
       </c>
-      <c r="F251" t="s">
-        <v>656</v>
+      <c r="F251" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRA-INFRASTRUCTURE</v>
       </c>
       <c r="G251" t="s">
         <v>657</v>
@@ -9231,13 +10470,17 @@
       <c r="I251" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N251" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>658</v>
       </c>
-      <c r="F252" t="s">
-        <v>659</v>
+      <c r="F252" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TRDOILRPPGAS</v>
       </c>
       <c r="G252" t="s">
         <v>660</v>
@@ -9248,16 +10491,20 @@
       <c r="I252" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N252" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>601</v>
       </c>
       <c r="E253" t="s">
         <v>661</v>
       </c>
-      <c r="F253" t="s">
-        <v>661</v>
+      <c r="F253" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TTF</v>
       </c>
       <c r="G253" t="s">
         <v>662</v>
@@ -9268,16 +10515,20 @@
       <c r="I253" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N253" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>601</v>
       </c>
       <c r="E254" t="s">
         <v>663</v>
       </c>
-      <c r="F254" t="s">
-        <v>663</v>
+      <c r="F254" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TTL</v>
       </c>
       <c r="G254" t="s">
         <v>664</v>
@@ -9288,16 +10539,20 @@
       <c r="I254" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N254" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>601</v>
       </c>
       <c r="E255" t="s">
         <v>665</v>
       </c>
-      <c r="F255" t="s">
-        <v>665</v>
+      <c r="F255" t="str">
+        <f t="shared" si="3"/>
+        <v>z_TTP</v>
       </c>
       <c r="G255" t="s">
         <v>666</v>
@@ -9307,6 +10562,9 @@
       </c>
       <c r="I255" t="s">
         <v>17</v>
+      </c>
+      <c r="N255" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06577315-435B-42FF-81FA-6FA260A9A86C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FDB8914-3BCA-46C4-8FA5-88BE1F171036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{194177E5-D604-47FB-933F-7CD5106C261E}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{194177E5-D604-47FB-933F-7CD5106C261E}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1880" uniqueCount="821">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -2124,15 +2124,6 @@
     <t>DEM</t>
   </si>
   <si>
-    <t>A*,-AGR</t>
-  </si>
-  <si>
-    <t>AGR-DMD</t>
-  </si>
-  <si>
-    <t>Agri-Demand</t>
-  </si>
-  <si>
     <t>I*STM</t>
   </si>
   <si>
@@ -2184,9 +2175,6 @@
     <t>Biomass</t>
   </si>
   <si>
-    <t>COA___,*COA,*COB,*COL,*COH,COL*,COH*,*COK,*DGS</t>
-  </si>
-  <si>
     <t>ALLCOAL</t>
   </si>
   <si>
@@ -2196,21 +2184,12 @@
     <t>ALLELC</t>
   </si>
   <si>
-    <t>GAS___,___GAS,*COG,*BFG,-BIOGAS</t>
-  </si>
-  <si>
     <t>ALLGAS</t>
   </si>
   <si>
-    <t>*GEO</t>
-  </si>
-  <si>
     <t>ALLGEO</t>
   </si>
   <si>
-    <t>Geo</t>
-  </si>
-  <si>
     <t>*H2*,,-BIO*,-*ETH</t>
   </si>
   <si>
@@ -2238,9 +2217,6 @@
     <t>ALLHYD</t>
   </si>
   <si>
-    <t>*NUC*,NUC*</t>
-  </si>
-  <si>
     <t>ALLNUC</t>
   </si>
   <si>
@@ -2283,18 +2259,6 @@
     <t>*CH4*</t>
   </si>
   <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>CHX</t>
-  </si>
-  <si>
-    <t>*CO2*,-SE*,-TOT*,-SNK*,-___SCO2*</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
     <t>DEM_AGR</t>
   </si>
   <si>
@@ -2304,90 +2268,42 @@
     <t>DEM_COM</t>
   </si>
   <si>
-    <t>Commercial Demands</t>
-  </si>
-  <si>
     <t>DEM_IND</t>
   </si>
   <si>
-    <t>Industrial Demands</t>
-  </si>
-  <si>
     <t>DEM_RSD</t>
   </si>
   <si>
-    <t>Residential Demands</t>
-  </si>
-  <si>
     <t>DEM_TRA</t>
   </si>
   <si>
     <t>Trasport Demand</t>
   </si>
   <si>
-    <t>DEMRHX</t>
-  </si>
-  <si>
-    <t>C___,R___,T__,I__</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
     <t>ENV_CH4</t>
   </si>
   <si>
-    <t>*CO2*,-SE*,-TOT*,-SNK*</t>
-  </si>
-  <si>
     <t>ENV_CO2</t>
   </si>
   <si>
-    <t>*COX*</t>
-  </si>
-  <si>
-    <t>ENV_COX</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>*N2O*</t>
   </si>
   <si>
     <t>ENV_N2O</t>
   </si>
   <si>
-    <t>*NO*,-*N2O*</t>
-  </si>
-  <si>
     <t>ENV_NOX</t>
   </si>
   <si>
-    <t>*PM*</t>
-  </si>
-  <si>
     <t>ENV_PMX</t>
   </si>
   <si>
-    <t>*SO*</t>
-  </si>
-  <si>
     <t>ENV_SOX</t>
   </si>
   <si>
-    <t>*VO*</t>
-  </si>
-  <si>
     <t>ENV_VOC</t>
   </si>
   <si>
-    <t>VOC</t>
-  </si>
-  <si>
-    <t>___ELC</t>
-  </si>
-  <si>
     <t>FINALELC</t>
   </si>
   <si>
@@ -2451,33 +2367,18 @@
     <t>Renewable - TRA</t>
   </si>
   <si>
-    <t>ELC___,-ELCHIG*,-ELCMED,-ELCLOW</t>
-  </si>
-  <si>
     <t>FUEELC</t>
   </si>
   <si>
-    <t>ENV,NRG</t>
-  </si>
-  <si>
-    <t>FUEELC+ELC</t>
-  </si>
-  <si>
     <t>FUEELC-REN</t>
   </si>
   <si>
     <t>Ren Fuels</t>
   </si>
   <si>
-    <t>Resdential</t>
-  </si>
-  <si>
     <t>FUESUP</t>
   </si>
   <si>
-    <t>Energy Transformation</t>
-  </si>
-  <si>
     <t>I*LTH,I*HTH</t>
   </si>
   <si>
@@ -2487,64 +2388,118 @@
     <t>Industrial Heat</t>
   </si>
   <si>
-    <t>N2O</t>
-  </si>
-  <si>
-    <t>NOX</t>
-  </si>
-  <si>
-    <t>,-GASBFG</t>
-  </si>
-  <si>
-    <t>NRG-BFG</t>
-  </si>
-  <si>
-    <t>NRG no BFG</t>
-  </si>
-  <si>
-    <t>*TID*,*WAV*</t>
-  </si>
-  <si>
-    <t>OCEAN</t>
-  </si>
-  <si>
-    <t>OILHFO,OILDST,OILGSL,OILLPG,OILKER</t>
-  </si>
-  <si>
-    <t>OILRPPTRD</t>
-  </si>
-  <si>
-    <t>Traded RPP</t>
-  </si>
-  <si>
-    <t>PMX</t>
-  </si>
-  <si>
-    <t>RSD_DEM</t>
-  </si>
-  <si>
-    <t>SOX</t>
-  </si>
-  <si>
-    <t>TRAELC, TRABAT</t>
-  </si>
-  <si>
-    <t>TRAELC</t>
-  </si>
-  <si>
     <t>*TID, *WAV</t>
   </si>
   <si>
-    <t>A__</t>
-  </si>
-  <si>
-    <t>C___</t>
-  </si>
-  <si>
-    <t>I__</t>
-  </si>
-  <si>
-    <t>T__</t>
+    <t>A*</t>
+  </si>
+  <si>
+    <t>Commercial Demand</t>
+  </si>
+  <si>
+    <t>Industrial Demand</t>
+  </si>
+  <si>
+    <t>Residential Demand</t>
+  </si>
+  <si>
+    <t>I*,N*</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>CH4 Emissions</t>
+  </si>
+  <si>
+    <t>*CO2*,-*CO2S*</t>
+  </si>
+  <si>
+    <t>CO2 Emissions</t>
+  </si>
+  <si>
+    <t>N2O Emissions</t>
+  </si>
+  <si>
+    <t>*NOx*</t>
+  </si>
+  <si>
+    <t>NOx Emissions</t>
+  </si>
+  <si>
+    <t>PM2.5 Emissions</t>
+  </si>
+  <si>
+    <t>PM10 Emissions</t>
+  </si>
+  <si>
+    <t>ENV_PM10</t>
+  </si>
+  <si>
+    <t>ENV_PM2p5</t>
+  </si>
+  <si>
+    <t>*PM25*</t>
+  </si>
+  <si>
+    <t>*PM10*</t>
+  </si>
+  <si>
+    <t>*SO2*</t>
+  </si>
+  <si>
+    <t>ENV_SO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO2 Emissions </t>
+  </si>
+  <si>
+    <t>*VOC*</t>
+  </si>
+  <si>
+    <t>VOC Emissions</t>
+  </si>
+  <si>
+    <t>*ELC</t>
+  </si>
+  <si>
+    <t>FEC_ELC</t>
+  </si>
+  <si>
+    <t>Final consumption -  electricity</t>
+  </si>
+  <si>
+    <t>Agriculture fuels</t>
+  </si>
+  <si>
+    <t>Commercial fuels</t>
+  </si>
+  <si>
+    <t>Industrial fuels</t>
+  </si>
+  <si>
+    <t>Resdential fuels</t>
+  </si>
+  <si>
+    <t>Supply fuels</t>
+  </si>
+  <si>
+    <t>Transport fuels</t>
+  </si>
+  <si>
+    <t>ELC*,-ELCH,-ELCD,-ELCC</t>
+  </si>
+  <si>
+    <t>Electricity sector fuels</t>
+  </si>
+  <si>
+    <t>*NUC*</t>
+  </si>
+  <si>
+    <t>*COA*,*COH,*COK</t>
+  </si>
+  <si>
+    <t>*GAS*,*COG,*BFG,-BIOGAS</t>
   </si>
 </sst>
 </file>
@@ -2906,23 +2861,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C81DF5AD-B845-4EDD-A631-66C609C42342}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>687</v>
       </c>
@@ -2954,19 +2912,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>694</v>
-      </c>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>695</v>
       </c>
       <c r="D3" t="str">
-        <f>"z_"&amp;N3</f>
-        <v>z_AGR-DMD</v>
+        <f t="shared" ref="D3:D47" si="0">"z_"&amp;N3</f>
+        <v>z_ALL_STM</v>
       </c>
       <c r="E3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
@@ -2978,13 +2933,13 @@
         <v>696</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D67" si="0">"z_"&amp;N4</f>
-        <v>z_ALL_STM</v>
+        <f t="shared" si="0"/>
+        <v>z_ALL_TH</v>
       </c>
       <c r="E4" t="s">
         <v>699</v>
@@ -2996,43 +2951,46 @@
         <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>700</v>
+      </c>
       <c r="B5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALL_TH</v>
+        <v>z_ALLBIO</v>
       </c>
       <c r="E5" t="s">
+        <v>703</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
         <v>702</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B6" t="s">
         <v>704</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLBIO</v>
+        <v>z_ALLBIOGAS</v>
       </c>
       <c r="E6" t="s">
-        <v>706</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -3044,19 +3002,19 @@
         <v>705</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLBIOGAS</v>
+        <v>z_ALLBIOLIQ</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>708</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -3065,16 +3023,19 @@
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>700</v>
+      </c>
       <c r="B8" t="s">
         <v>709</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLBIOLIQ</v>
+        <v>z_ALLBIOMASS</v>
       </c>
       <c r="E8" t="s">
         <v>711</v>
@@ -3089,19 +3050,18 @@
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B9" t="s">
+        <v>819</v>
+      </c>
+      <c r="D9" t="s">
         <v>712</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ALLBIOMASS</v>
-      </c>
       <c r="E9" t="s">
-        <v>714</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -3110,22 +3070,25 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
+        <v>712</v>
+      </c>
+      <c r="P9" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B10" t="s">
         <v>713</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>703</v>
-      </c>
-      <c r="B10" t="s">
-        <v>715</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLCOAL</v>
+        <v>z_ALLELC</v>
       </c>
       <c r="E10" t="s">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -3134,64 +3097,74 @@
         <v>17</v>
       </c>
       <c r="N10" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>700</v>
+      </c>
+      <c r="B11" t="s">
+        <v>820</v>
+      </c>
+      <c r="D11" t="s">
+        <v>715</v>
+      </c>
+      <c r="E11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>715</v>
+      </c>
+      <c r="P11" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="E12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>716</v>
+      </c>
+      <c r="P12" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>700</v>
+      </c>
+      <c r="B13" t="s">
         <v>717</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ALLELC</v>
-      </c>
-      <c r="E11" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>719</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ALLGAS</v>
-      </c>
-      <c r="E12" t="s">
-        <v>158</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>703</v>
-      </c>
-      <c r="B13" t="s">
-        <v>721</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLGEO</v>
+        <v>z_ALLH2</v>
       </c>
       <c r="E13" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -3200,22 +3173,22 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B14" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLH2</v>
+        <v>z_ALLHET</v>
       </c>
       <c r="E14" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -3224,19 +3197,22 @@
         <v>17</v>
       </c>
       <c r="N14" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>700</v>
+      </c>
       <c r="B15" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLHET</v>
+        <v>z_ALLHETNOIND</v>
       </c>
       <c r="E15" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -3245,19 +3221,21 @@
         <v>17</v>
       </c>
       <c r="N15" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>700</v>
+      </c>
       <c r="B16" t="s">
-        <v>730</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ALLHETNOIND</v>
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
+        <v>725</v>
       </c>
       <c r="E16" t="s">
-        <v>729</v>
+        <v>293</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -3266,22 +3244,24 @@
         <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+      <c r="P16" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
-      </c>
-      <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ALLHYD</v>
+        <v>818</v>
+      </c>
+      <c r="D17" t="s">
+        <v>726</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -3290,22 +3270,25 @@
         <v>17</v>
       </c>
       <c r="N17" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+      <c r="P17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B18" t="s">
-        <v>733</v>
+        <v>783</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLNUC</v>
+        <v>z_ALLOCE</v>
       </c>
       <c r="E18" t="s">
-        <v>172</v>
+        <v>728</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -3314,19 +3297,22 @@
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>700</v>
+      </c>
       <c r="B19" t="s">
-        <v>831</v>
+        <v>729</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLOCE</v>
+        <v>z_ALLOIL</v>
       </c>
       <c r="E19" t="s">
-        <v>736</v>
+        <v>175</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -3335,22 +3321,22 @@
         <v>17</v>
       </c>
       <c r="N19" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B20" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLOIL</v>
+        <v>z_ALLREN</v>
       </c>
       <c r="E20" t="s">
-        <v>175</v>
+        <v>516</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -3359,22 +3345,21 @@
         <v>17</v>
       </c>
       <c r="N20" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B21" t="s">
-        <v>739</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ALLREN</v>
+        <v>305</v>
+      </c>
+      <c r="D21" t="s">
+        <v>733</v>
       </c>
       <c r="E21" t="s">
-        <v>516</v>
+        <v>307</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -3383,19 +3368,25 @@
         <v>17</v>
       </c>
       <c r="N21" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+      <c r="P21" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>700</v>
+      </c>
       <c r="B22" t="s">
-        <v>305</v>
+        <v>734</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>z_ALLSOL</v>
+        <v>z_ALLSYN</v>
       </c>
       <c r="E22" t="s">
-        <v>307</v>
+        <v>736</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -3404,67 +3395,73 @@
         <v>17</v>
       </c>
       <c r="N22" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>700</v>
+      </c>
+      <c r="B23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D23" t="s">
+        <v>737</v>
+      </c>
+      <c r="E23" t="s">
+        <v>313</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" t="s">
+        <v>737</v>
+      </c>
+      <c r="P23" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>694</v>
+      </c>
+      <c r="B24" t="s">
+        <v>784</v>
+      </c>
+      <c r="D24" t="s">
+        <v>740</v>
+      </c>
+      <c r="E24" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>703</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" t="s">
+        <v>740</v>
+      </c>
+      <c r="P24" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>694</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" t="s">
         <v>742</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ALLSYN</v>
-      </c>
-      <c r="E23" t="s">
-        <v>744</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ALLWIN</v>
-      </c>
-      <c r="E24" t="s">
-        <v>313</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>746</v>
-      </c>
-      <c r="B25" t="s">
-        <v>747</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" si="0"/>
-        <v>z_CH4</v>
-      </c>
       <c r="E25" t="s">
-        <v>748</v>
+        <v>785</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -3473,22 +3470,24 @@
         <v>17</v>
       </c>
       <c r="N25" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+      <c r="P25" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>694</v>
       </c>
       <c r="B26" t="s">
-        <v>677</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" si="0"/>
-        <v>z_CHX</v>
+        <v>788</v>
+      </c>
+      <c r="D26" t="s">
+        <v>743</v>
       </c>
       <c r="E26" t="s">
-        <v>749</v>
+        <v>786</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -3497,22 +3496,24 @@
         <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+      <c r="P26" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>746</v>
+        <v>694</v>
       </c>
       <c r="B27" t="s">
-        <v>750</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" si="0"/>
-        <v>z_CO2</v>
+        <v>496</v>
+      </c>
+      <c r="D27" t="s">
+        <v>744</v>
       </c>
       <c r="E27" t="s">
-        <v>751</v>
+        <v>787</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -3521,256 +3522,282 @@
         <v>17</v>
       </c>
       <c r="N27" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+      <c r="P27" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>694</v>
       </c>
       <c r="B28" t="s">
-        <v>832</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" si="0"/>
-        <v>z_DEM_AGR</v>
+        <v>575</v>
+      </c>
+      <c r="D28" t="s">
+        <v>745</v>
       </c>
       <c r="E28" t="s">
+        <v>746</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" t="s">
+        <v>745</v>
+      </c>
+      <c r="P28" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>738</v>
+      </c>
+      <c r="B29" t="s">
+        <v>739</v>
+      </c>
+      <c r="D29" t="s">
+        <v>747</v>
+      </c>
+      <c r="E29" t="s">
+        <v>790</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" t="s">
+        <v>747</v>
+      </c>
+      <c r="P29" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>738</v>
+      </c>
+      <c r="B30" t="s">
+        <v>791</v>
+      </c>
+      <c r="D30" t="s">
+        <v>748</v>
+      </c>
+      <c r="E30" t="s">
+        <v>792</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" t="s">
+        <v>748</v>
+      </c>
+      <c r="P30" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>738</v>
+      </c>
+      <c r="B31" t="s">
+        <v>749</v>
+      </c>
+      <c r="D31" t="s">
+        <v>750</v>
+      </c>
+      <c r="E31" t="s">
+        <v>793</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" t="s">
+        <v>750</v>
+      </c>
+      <c r="P31" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>738</v>
+      </c>
+      <c r="B32" t="s">
+        <v>794</v>
+      </c>
+      <c r="D32" t="s">
+        <v>751</v>
+      </c>
+      <c r="E32" t="s">
+        <v>795</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" t="s">
+        <v>751</v>
+      </c>
+      <c r="P32" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>738</v>
+      </c>
+      <c r="B33" t="s">
+        <v>800</v>
+      </c>
+      <c r="D33" t="s">
+        <v>799</v>
+      </c>
+      <c r="E33" t="s">
+        <v>796</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" t="s">
+        <v>752</v>
+      </c>
+      <c r="P33" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>738</v>
+      </c>
+      <c r="B34" t="s">
+        <v>801</v>
+      </c>
+      <c r="D34" t="s">
+        <v>798</v>
+      </c>
+      <c r="E34" t="s">
+        <v>797</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>738</v>
+      </c>
+      <c r="B35" t="s">
+        <v>802</v>
+      </c>
+      <c r="D35" t="s">
+        <v>803</v>
+      </c>
+      <c r="E35" t="s">
+        <v>804</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" t="s">
         <v>753</v>
       </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>694</v>
-      </c>
-      <c r="B29" t="s">
-        <v>833</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" si="0"/>
-        <v>z_DEM_COM</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="P35" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>738</v>
+      </c>
+      <c r="B36" t="s">
+        <v>805</v>
+      </c>
+      <c r="D36" t="s">
+        <v>754</v>
+      </c>
+      <c r="E36" t="s">
+        <v>806</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" t="s">
+        <v>754</v>
+      </c>
+      <c r="P36" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>700</v>
+      </c>
+      <c r="B37" t="s">
+        <v>807</v>
+      </c>
+      <c r="D37" t="s">
+        <v>808</v>
+      </c>
+      <c r="E37" t="s">
+        <v>809</v>
+      </c>
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" t="s">
         <v>755</v>
       </c>
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>694</v>
-      </c>
-      <c r="B30" t="s">
-        <v>834</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" si="0"/>
-        <v>z_DEM_IND</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="P37" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>756</v>
+      </c>
+      <c r="B38" t="s">
         <v>757</v>
-      </c>
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>446</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" si="0"/>
-        <v>z_DEM_RSD</v>
-      </c>
-      <c r="E31" t="s">
-        <v>759</v>
-      </c>
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>694</v>
-      </c>
-      <c r="B32" t="s">
-        <v>835</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" si="0"/>
-        <v>z_DEM_TRA</v>
-      </c>
-      <c r="E32" t="s">
-        <v>761</v>
-      </c>
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>694</v>
-      </c>
-      <c r="B33" t="s">
-        <v>685</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" si="0"/>
-        <v>z_DEMRHX</v>
-      </c>
-      <c r="E33" t="s">
-        <v>762</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="N33" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>763</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" si="0"/>
-        <v>z_DM</v>
-      </c>
-      <c r="E34" t="s">
-        <v>764</v>
-      </c>
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="N34" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>746</v>
-      </c>
-      <c r="B35" t="s">
-        <v>747</v>
-      </c>
-      <c r="D35" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ENV_CH4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>765</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="N35" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>746</v>
-      </c>
-      <c r="B36" t="s">
-        <v>766</v>
-      </c>
-      <c r="D36" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ENV_CO2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>767</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>746</v>
-      </c>
-      <c r="B37" t="s">
-        <v>768</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" si="0"/>
-        <v>z_ENV_COX</v>
-      </c>
-      <c r="E37" t="s">
-        <v>770</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>746</v>
-      </c>
-      <c r="B38" t="s">
-        <v>771</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>z_ENV_N2O</v>
+        <v>z_FINREN</v>
       </c>
       <c r="E38" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
@@ -3779,22 +3806,22 @@
         <v>17</v>
       </c>
       <c r="N38" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="B39" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v>z_ENV_NOX</v>
+        <v>z_FINREN-AGR</v>
       </c>
       <c r="E39" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3803,22 +3830,22 @@
         <v>17</v>
       </c>
       <c r="N39" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>746</v>
+        <v>763</v>
       </c>
       <c r="B40" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>z_ENV_PMX</v>
+        <v>z_FINREN-COM</v>
       </c>
       <c r="E40" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -3827,22 +3854,22 @@
         <v>17</v>
       </c>
       <c r="N40" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="B41" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>z_ENV_SOX</v>
+        <v>z_FINREN-IND</v>
       </c>
       <c r="E41" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -3851,22 +3878,22 @@
         <v>17</v>
       </c>
       <c r="N41" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="B42" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>z_ENV_VOC</v>
+        <v>z_FINREN-RSD</v>
       </c>
       <c r="E42" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -3875,19 +3902,22 @@
         <v>17</v>
       </c>
       <c r="N42" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>773</v>
+      </c>
       <c r="B43" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v>z_FINALELC</v>
+        <v>z_FINREN-TRA</v>
       </c>
       <c r="E43" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -3896,22 +3926,21 @@
         <v>17</v>
       </c>
       <c r="N43" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>784</v>
+        <v>700</v>
       </c>
       <c r="B44" t="s">
-        <v>785</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FINREN</v>
+        <v>74</v>
+      </c>
+      <c r="D44" t="s">
+        <v>760</v>
       </c>
       <c r="E44" t="s">
-        <v>787</v>
+        <v>810</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -3920,22 +3949,24 @@
         <v>17</v>
       </c>
       <c r="N44" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+      <c r="P44" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>788</v>
+        <v>700</v>
       </c>
       <c r="B45" t="s">
-        <v>785</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FINREN-AGR</v>
+        <v>216</v>
+      </c>
+      <c r="D45" t="s">
+        <v>763</v>
       </c>
       <c r="E45" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -3944,22 +3975,24 @@
         <v>17</v>
       </c>
       <c r="N45" t="s">
+        <v>763</v>
+      </c>
+      <c r="P45" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>791</v>
+        <v>700</v>
       </c>
       <c r="B46" t="s">
-        <v>785</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FINREN-COM</v>
+        <v>816</v>
+      </c>
+      <c r="D46" t="s">
+        <v>776</v>
       </c>
       <c r="E46" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -3968,22 +4001,25 @@
         <v>17</v>
       </c>
       <c r="N46" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+      <c r="P46" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>794</v>
+        <v>732</v>
       </c>
       <c r="B47" t="s">
-        <v>795</v>
+        <v>556</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>z_FINREN-IND</v>
+        <v>z_FUEELC-REN</v>
       </c>
       <c r="E47" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -3992,22 +4028,21 @@
         <v>17</v>
       </c>
       <c r="N47" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>798</v>
+        <v>700</v>
       </c>
       <c r="B48" t="s">
-        <v>785</v>
-      </c>
-      <c r="D48" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FINREN-RSD</v>
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>766</v>
       </c>
       <c r="E48" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -4016,22 +4051,24 @@
         <v>17</v>
       </c>
       <c r="N48" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+      <c r="P48" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>801</v>
+        <v>700</v>
       </c>
       <c r="B49" t="s">
-        <v>785</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FINREN-TRA</v>
+        <v>237</v>
+      </c>
+      <c r="D49" t="s">
+        <v>770</v>
       </c>
       <c r="E49" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -4040,22 +4077,24 @@
         <v>17</v>
       </c>
       <c r="N49" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+      <c r="P49" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FUEAGR</v>
+        <v>243</v>
+      </c>
+      <c r="D50" t="s">
+        <v>779</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
+        <v>814</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -4064,22 +4103,24 @@
         <v>17</v>
       </c>
       <c r="N50" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+      <c r="P50" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FUECOM</v>
+        <v>655</v>
+      </c>
+      <c r="D51" t="s">
+        <v>773</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>815</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -4088,22 +4129,24 @@
         <v>17</v>
       </c>
       <c r="N51" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+      <c r="P51" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B52" t="s">
-        <v>804</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FUEELC</v>
+        <v>780</v>
+      </c>
+      <c r="D52" t="s">
+        <v>781</v>
       </c>
       <c r="E52" t="s">
-        <v>350</v>
+        <v>782</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -4112,376 +4155,10 @@
         <v>17</v>
       </c>
       <c r="N52" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>806</v>
-      </c>
-      <c r="B53" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FUEELC+ELC</v>
-      </c>
-      <c r="E53" t="s">
-        <v>350</v>
-      </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>17</v>
-      </c>
-      <c r="N53" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>740</v>
-      </c>
-      <c r="B54" t="s">
-        <v>556</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FUEELC-REN</v>
-      </c>
-      <c r="E54" t="s">
-        <v>809</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>703</v>
-      </c>
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FUEIND</v>
-      </c>
-      <c r="E55" t="s">
-        <v>232</v>
-      </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>17</v>
-      </c>
-      <c r="N55" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>703</v>
-      </c>
-      <c r="B56" t="s">
-        <v>237</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FUERSD</v>
-      </c>
-      <c r="E56" t="s">
-        <v>810</v>
-      </c>
-      <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
-      <c r="N56" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>703</v>
-      </c>
-      <c r="B57" t="s">
-        <v>243</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FUESUP</v>
-      </c>
-      <c r="E57" t="s">
-        <v>812</v>
-      </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>17</v>
-      </c>
-      <c r="N57" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>703</v>
-      </c>
-      <c r="B58" t="s">
-        <v>655</v>
-      </c>
-      <c r="D58" t="str">
-        <f t="shared" si="0"/>
-        <v>z_FUETRA</v>
-      </c>
-      <c r="E58" t="s">
-        <v>249</v>
-      </c>
-      <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
-      <c r="N58" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>813</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" si="0"/>
-        <v>z_INDHEAT</v>
-      </c>
-      <c r="E59" t="s">
-        <v>815</v>
-      </c>
-      <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>17</v>
-      </c>
-      <c r="N59" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>746</v>
-      </c>
-      <c r="B60" t="s">
-        <v>771</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="0"/>
-        <v>z_N2O</v>
-      </c>
-      <c r="E60" t="s">
-        <v>816</v>
-      </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
-      <c r="N60" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>746</v>
-      </c>
-      <c r="B61" t="s">
-        <v>773</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="0"/>
-        <v>z_NOX</v>
-      </c>
-      <c r="E61" t="s">
-        <v>817</v>
-      </c>
-      <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>17</v>
-      </c>
-      <c r="N61" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>703</v>
-      </c>
-      <c r="B62" t="s">
-        <v>818</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="0"/>
-        <v>z_NRG-BFG</v>
-      </c>
-      <c r="E62" t="s">
-        <v>820</v>
-      </c>
-      <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
-      <c r="N62" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>821</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="0"/>
-        <v>z_OCEAN</v>
-      </c>
-      <c r="E63" t="s">
-        <v>822</v>
-      </c>
-      <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>17</v>
-      </c>
-      <c r="N63" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>823</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="0"/>
-        <v>z_OILRPPTRD</v>
-      </c>
-      <c r="E64" t="s">
-        <v>825</v>
-      </c>
-      <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>17</v>
-      </c>
-      <c r="N64" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>746</v>
-      </c>
-      <c r="B65" t="s">
-        <v>775</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="0"/>
-        <v>z_PMX</v>
-      </c>
-      <c r="E65" t="s">
-        <v>826</v>
-      </c>
-      <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>17</v>
-      </c>
-      <c r="N65" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>446</v>
-      </c>
-      <c r="D66" t="str">
-        <f t="shared" si="0"/>
-        <v>z_RSD_DEM</v>
-      </c>
-      <c r="E66" t="s">
-        <v>759</v>
-      </c>
-      <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>17</v>
-      </c>
-      <c r="N66" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>746</v>
-      </c>
-      <c r="B67" t="s">
-        <v>777</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" si="0"/>
-        <v>z_SOX</v>
-      </c>
-      <c r="E67" t="s">
-        <v>828</v>
-      </c>
-      <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
-        <v>17</v>
-      </c>
-      <c r="N67" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>829</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" ref="D68" si="1">"z_"&amp;N68</f>
-        <v>z_TRAELC</v>
-      </c>
-      <c r="E68" t="s">
-        <v>350</v>
-      </c>
-      <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>17</v>
-      </c>
-      <c r="N68" t="s">
-        <v>830</v>
+        <v>781</v>
+      </c>
+      <c r="P52" t="s">
+        <v>789</v>
       </c>
     </row>
   </sheetData>
@@ -7537,7 +7214,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>681</v>
       </c>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E51E5B-8246-48E4-BEB3-898E07FF35C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CE1F4A-4506-4B48-ADD5-C39B270BB1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
-    <sheet name="VEDA_Sets-Comm" sheetId="2" r:id="rId1"/>
+    <sheet name="VEDA_Sets-Comm" sheetId="5" r:id="rId1"/>
     <sheet name="extra_Sets-Comm" sheetId="3" r:id="rId2"/>
-    <sheet name="VEDA_Sets-Proc" sheetId="1" r:id="rId3"/>
+    <sheet name="VEDA_Sets-Proc" sheetId="6" r:id="rId3"/>
     <sheet name="extra_Sets-Proc" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2666" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1103">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -3249,6 +3249,105 @@
   </si>
   <si>
     <t>Transport Train Long Distance</t>
+  </si>
+  <si>
+    <t>Residential Water Heating</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-WH</t>
+  </si>
+  <si>
+    <t>R-WH*</t>
+  </si>
+  <si>
+    <t>Residential Space Heating</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-SH</t>
+  </si>
+  <si>
+    <t>R-SH*</t>
+  </si>
+  <si>
+    <t>Residential Space Cooling</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-SC</t>
+  </si>
+  <si>
+    <t>R-SC*</t>
+  </si>
+  <si>
+    <t>Residential Refrigeration</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-RF</t>
+  </si>
+  <si>
+    <t>R-RSDRF*</t>
+  </si>
+  <si>
+    <t>Residential Pump and Fans</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-PF</t>
+  </si>
+  <si>
+    <t>R-PF*</t>
+  </si>
+  <si>
+    <t>Residential Electric Appliances</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-OE</t>
+  </si>
+  <si>
+    <t>R-RSDOE*</t>
+  </si>
+  <si>
+    <t>Residential Other Applications</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-OA</t>
+  </si>
+  <si>
+    <t>R-RSDOA*</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-LT</t>
+  </si>
+  <si>
+    <t>R-LT*</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-DW</t>
+  </si>
+  <si>
+    <t>R-RSDDW*</t>
+  </si>
+  <si>
+    <t>Residential Cloth Washing</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-CW</t>
+  </si>
+  <si>
+    <t>R-RSDCW*</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-CK</t>
+  </si>
+  <si>
+    <t>R-RSDCK*</t>
+  </si>
+  <si>
+    <t>Residential Cloth Drying</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-CD</t>
+  </si>
+  <si>
+    <t>R-RSDCD*</t>
   </si>
 </sst>
 </file>
@@ -3609,27 +3708,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CE0C8F-B7C1-486F-ABA3-B5D6FFB88B6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCDF15-1442-474A-ACC7-D199AB8A1E18}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -3670,16 +3759,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -3696,22 +3785,22 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -3722,22 +3811,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -3748,22 +3837,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -3774,22 +3863,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -3803,19 +3892,19 @@
         <v>242</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -3829,13 +3918,13 @@
         <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
@@ -3855,13 +3944,13 @@
         <v>242</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -3881,19 +3970,19 @@
         <v>242</v>
       </c>
       <c r="B11" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -3907,13 +3996,13 @@
         <v>242</v>
       </c>
       <c r="B12" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
@@ -3933,13 +4022,13 @@
         <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="F13" t="s">
         <v>15</v>
@@ -3959,13 +4048,13 @@
         <v>242</v>
       </c>
       <c r="B14" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
         <v>15</v>
@@ -3985,13 +4074,13 @@
         <v>242</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="D15" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
@@ -4011,19 +4100,19 @@
         <v>242</v>
       </c>
       <c r="B16" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="D16" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -4037,13 +4126,13 @@
         <v>242</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="F17" t="s">
         <v>15</v>
@@ -4063,13 +4152,13 @@
         <v>242</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>215</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -4089,19 +4178,19 @@
         <v>242</v>
       </c>
       <c r="B19" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
         <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -4115,13 +4204,13 @@
         <v>242</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="D20" t="s">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -4141,13 +4230,13 @@
         <v>242</v>
       </c>
       <c r="B21" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="D21" t="s">
-        <v>152</v>
+        <v>220</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -4167,13 +4256,13 @@
         <v>242</v>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="F22" t="s">
         <v>15</v>
@@ -4193,13 +4282,13 @@
         <v>242</v>
       </c>
       <c r="B23" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="D23" t="s">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>225</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -4219,19 +4308,19 @@
         <v>242</v>
       </c>
       <c r="B24" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>227</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -4245,13 +4334,13 @@
         <v>242</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
@@ -4271,13 +4360,13 @@
         <v>242</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="E26" t="s">
-        <v>163</v>
+        <v>231</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -4297,19 +4386,19 @@
         <v>242</v>
       </c>
       <c r="B27" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="D27" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -4323,13 +4412,13 @@
         <v>242</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>235</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
@@ -4349,13 +4438,13 @@
         <v>242</v>
       </c>
       <c r="B29" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -4375,13 +4464,13 @@
         <v>242</v>
       </c>
       <c r="B30" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="D30" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>239</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -4401,13 +4490,13 @@
         <v>242</v>
       </c>
       <c r="B31" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
@@ -4427,19 +4516,19 @@
         <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="D32" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -4453,13 +4542,13 @@
         <v>242</v>
       </c>
       <c r="B33" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
@@ -4479,13 +4568,13 @@
         <v>242</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="E34" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
@@ -4505,19 +4594,19 @@
         <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -4528,16 +4617,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
@@ -4554,22 +4643,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B37" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="F37" t="s">
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -4580,22 +4669,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
@@ -4606,22 +4695,22 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="F39" t="s">
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
         <v>15</v>
@@ -4632,16 +4721,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="D40" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
         <v>15</v>
@@ -4658,22 +4747,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="F41" t="s">
         <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s">
         <v>15</v>
@@ -4687,19 +4776,19 @@
         <v>242</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
         <v>15</v>
@@ -4713,13 +4802,13 @@
         <v>242</v>
       </c>
       <c r="B43" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="D43" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s">
         <v>15</v>
@@ -4739,13 +4828,13 @@
         <v>242</v>
       </c>
       <c r="B44" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="D44" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="F44" t="s">
         <v>15</v>
@@ -4765,13 +4854,13 @@
         <v>242</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="D45" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -4791,13 +4880,13 @@
         <v>242</v>
       </c>
       <c r="B46" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="D46" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
@@ -4817,13 +4906,13 @@
         <v>242</v>
       </c>
       <c r="B47" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="D47" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="F47" t="s">
         <v>15</v>
@@ -4843,19 +4932,19 @@
         <v>242</v>
       </c>
       <c r="B48" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="D48" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="F48" t="s">
         <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
@@ -4869,13 +4958,13 @@
         <v>242</v>
       </c>
       <c r="B49" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="D49" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
@@ -4895,19 +4984,19 @@
         <v>242</v>
       </c>
       <c r="B50" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="D50" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H50" t="s">
         <v>15</v>
@@ -4921,13 +5010,13 @@
         <v>242</v>
       </c>
       <c r="B51" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
@@ -4947,13 +5036,13 @@
         <v>242</v>
       </c>
       <c r="B52" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="D52" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
@@ -4973,13 +5062,13 @@
         <v>242</v>
       </c>
       <c r="B53" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="E53" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
@@ -4999,13 +5088,13 @@
         <v>242</v>
       </c>
       <c r="B54" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="D54" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="E54" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
@@ -5025,13 +5114,13 @@
         <v>242</v>
       </c>
       <c r="B55" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="D55" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="F55" t="s">
         <v>15</v>
@@ -5051,19 +5140,19 @@
         <v>242</v>
       </c>
       <c r="B56" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="F56" t="s">
         <v>15</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H56" t="s">
         <v>15</v>
@@ -5077,13 +5166,13 @@
         <v>242</v>
       </c>
       <c r="B57" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="E57" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="F57" t="s">
         <v>15</v>
@@ -5103,19 +5192,19 @@
         <v>242</v>
       </c>
       <c r="B58" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s">
         <v>15</v>
@@ -5129,13 +5218,13 @@
         <v>242</v>
       </c>
       <c r="B59" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
@@ -5155,13 +5244,13 @@
         <v>242</v>
       </c>
       <c r="B60" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="F60" t="s">
         <v>15</v>
@@ -5181,13 +5270,13 @@
         <v>242</v>
       </c>
       <c r="B61" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D61" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="E61" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="F61" t="s">
         <v>15</v>
@@ -5207,13 +5296,13 @@
         <v>242</v>
       </c>
       <c r="B62" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
@@ -5233,13 +5322,13 @@
         <v>242</v>
       </c>
       <c r="B63" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="E63" t="s">
-        <v>237</v>
+        <v>179</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -5259,19 +5348,19 @@
         <v>242</v>
       </c>
       <c r="B64" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="D64" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H64" t="s">
         <v>15</v>
@@ -5282,16 +5371,16 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="B65" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="D65" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="E65" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="F65" t="s">
         <v>15</v>
@@ -5315,8 +5404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CB6C28-EC74-4923-AA3E-E780416BCEAF}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6660,30 +6749,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA82158A-CD0E-4DF6-A2AF-F14CC1280C79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24231217-6A54-4B12-AA31-B59CB94B1CCE}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -7463,7 +7539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>104</v>
       </c>
@@ -7480,7 +7556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>105</v>
       </c>
@@ -7497,7 +7573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>106</v>
       </c>
@@ -7514,7 +7590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>107</v>
       </c>
@@ -7528,6 +7604,282 @@
         <v>15</v>
       </c>
       <c r="I36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G38" t="s">
+        <v>878</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G40" t="s">
+        <v>883</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G41" t="s">
+        <v>919</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H47" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" t="s">
         <v>16</v>
       </c>
     </row>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCDA325-BD6E-4C46-8565-B993B8AF904B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8290EA1A-A870-47CB-AB10-933367BDC2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="870" windowWidth="20670" windowHeight="11385" activeTab="2" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="1103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="1106">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -3348,6 +3348,15 @@
   </si>
   <si>
     <t>TRAF*</t>
+  </si>
+  <si>
+    <t>T-MGT*</t>
+  </si>
+  <si>
+    <t>DMD_TRA-F-MTRUCK</t>
+  </si>
+  <si>
+    <t>Freight transport - medium goods truck</t>
   </si>
 </sst>
 </file>
@@ -6753,10 +6762,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6900,16 +6909,16 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>1103</v>
       </c>
       <c r="E6" t="s">
         <v>1102</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>1104</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>1105</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -6929,16 +6938,16 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>1102</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -6958,16 +6967,16 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
         <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -6987,16 +6996,16 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -7016,16 +7025,16 @@
         <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
         <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -7045,16 +7054,16 @@
         <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -7074,16 +7083,16 @@
         <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E12" t="s">
         <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -7103,16 +7112,16 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" t="s">
         <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -7132,16 +7141,16 @@
         <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" t="s">
         <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -7158,45 +7167,51 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>75</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" t="s">
         <v>41</v>
       </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
-      </c>
       <c r="H16" t="s">
         <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
         <v>15</v>
@@ -7207,13 +7222,13 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -7230,13 +7245,13 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -7253,13 +7268,13 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -7276,13 +7291,13 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -7299,13 +7314,13 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -7322,13 +7337,13 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -7345,13 +7360,13 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -7368,13 +7383,13 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -7391,13 +7406,13 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -7414,70 +7429,76 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
       </c>
       <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
       </c>
       <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -7488,53 +7509,53 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
       </c>
       <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -7545,13 +7566,13 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -7562,13 +7583,13 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -7579,13 +7600,13 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -7596,13 +7617,13 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -7613,36 +7634,30 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>1101</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>1100</v>
+        <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>1099</v>
+        <v>72</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="F38" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="G38" t="s">
-        <v>877</v>
+        <v>1099</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
@@ -7659,13 +7674,13 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="F39" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="G39" t="s">
-        <v>1094</v>
+        <v>877</v>
       </c>
       <c r="H39" t="s">
         <v>15</v>
@@ -7682,13 +7697,13 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="F40" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="G40" t="s">
-        <v>882</v>
+        <v>1094</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
@@ -7705,13 +7720,13 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="F41" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="G41" t="s">
-        <v>918</v>
+        <v>882</v>
       </c>
       <c r="H41" t="s">
         <v>15</v>
@@ -7728,13 +7743,13 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="F42" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="G42" t="s">
-        <v>1087</v>
+        <v>918</v>
       </c>
       <c r="H42" t="s">
         <v>15</v>
@@ -7751,13 +7766,13 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="F43" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="G43" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="H43" t="s">
         <v>15</v>
@@ -7774,13 +7789,13 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="F44" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="G44" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
@@ -7797,13 +7812,13 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="F45" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="G45" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="H45" t="s">
         <v>15</v>
@@ -7820,13 +7835,13 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="F46" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="G46" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="H46" t="s">
         <v>15</v>
@@ -7843,13 +7858,13 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="F47" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="G47" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -7866,24 +7881,47 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H48" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>1071</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>1070</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" t="s">
         <v>1069</v>
       </c>
-      <c r="H48" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" t="s">
         <v>16</v>
       </c>
     </row>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr backupFile="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8290EA1A-A870-47CB-AB10-933367BDC2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6AE0DD-6680-4E08-A7A0-A37459DFC57D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3254,27 +3253,18 @@
     <t>RSD_NRGSRV-WH</t>
   </si>
   <si>
-    <t>R-WH*</t>
-  </si>
-  <si>
     <t>Residential Space Heating</t>
   </si>
   <si>
     <t>RSD_NRGSRV-SH</t>
   </si>
   <si>
-    <t>R-SH*</t>
-  </si>
-  <si>
     <t>Residential Space Cooling</t>
   </si>
   <si>
     <t>RSD_NRGSRV-SC</t>
   </si>
   <si>
-    <t>R-SC*</t>
-  </si>
-  <si>
     <t>Residential Refrigeration</t>
   </si>
   <si>
@@ -3357,6 +3347,15 @@
   </si>
   <si>
     <t>Freight transport - medium goods truck</t>
+  </si>
+  <si>
+    <t>R-WH*,R-H*</t>
+  </si>
+  <si>
+    <t>R-SC*,R-HC*</t>
+  </si>
+  <si>
+    <t>R-SH*,R-H*,R-HC*</t>
   </si>
 </sst>
 </file>
@@ -6764,8 +6763,8 @@
   </sheetPr>
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6825,7 +6824,7 @@
         <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -6854,7 +6853,7 @@
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -6883,7 +6882,7 @@
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -6909,16 +6908,16 @@
         <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G6" t="s">
         <v>1102</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1104</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1105</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -6941,7 +6940,7 @@
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -7651,13 +7650,13 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F38" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G38" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
@@ -7674,10 +7673,10 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="F39" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G39" t="s">
         <v>877</v>
@@ -7697,13 +7696,13 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F40" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="G40" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="H40" t="s">
         <v>15</v>
@@ -7720,10 +7719,10 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="F41" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="G41" t="s">
         <v>882</v>
@@ -7743,10 +7742,10 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="F42" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="G42" t="s">
         <v>918</v>
@@ -7766,13 +7765,13 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="F43" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="G43" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="H43" t="s">
         <v>15</v>
@@ -7789,13 +7788,13 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="F44" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="G44" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="H44" t="s">
         <v>15</v>
@@ -7812,13 +7811,13 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="F45" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="G45" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="H45" t="s">
         <v>15</v>
@@ -7835,13 +7834,13 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="F46" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="G46" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="H46" t="s">
         <v>15</v>
@@ -7858,13 +7857,13 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>1077</v>
+        <v>1104</v>
       </c>
       <c r="F47" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G47" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H47" t="s">
         <v>15</v>
@@ -7881,13 +7880,13 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>1074</v>
+        <v>1105</v>
       </c>
       <c r="F48" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="G48" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H48" t="s">
         <v>15</v>
@@ -7904,7 +7903,7 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>1071</v>
+        <v>1103</v>
       </c>
       <c r="F49" t="s">
         <v>1070</v>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr backupFile="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\ind-redevelopment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8290EA1A-A870-47CB-AB10-933367BDC2B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F436B8A-D943-4097-AA14-85D1F1EB0E92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="9330" yWindow="915" windowWidth="10425" windowHeight="14355" activeTab="2" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="VEDA_Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="1145">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -3357,6 +3357,123 @@
   </si>
   <si>
     <t>Freight transport - medium goods truck</t>
+  </si>
+  <si>
+    <t>I*CAF*</t>
+  </si>
+  <si>
+    <t>DMD_IND-CAF</t>
+  </si>
+  <si>
+    <t>Industry - Chemicals and man-made fibers</t>
+  </si>
+  <si>
+    <t>I*EOE*</t>
+  </si>
+  <si>
+    <t>DMD_IND-EOE</t>
+  </si>
+  <si>
+    <t>Industry - Electrical and optical equipment</t>
+  </si>
+  <si>
+    <t>I*FAB*</t>
+  </si>
+  <si>
+    <t>DMD_IND-FAB</t>
+  </si>
+  <si>
+    <t>Industry - Food and beverages</t>
+  </si>
+  <si>
+    <t>I*MAE*</t>
+  </si>
+  <si>
+    <t>DMD_IND-MAE</t>
+  </si>
+  <si>
+    <t>Industry - Machinery and equipment n.e.c.</t>
+  </si>
+  <si>
+    <t>I*MAP*</t>
+  </si>
+  <si>
+    <t>DMD_IND-MAP</t>
+  </si>
+  <si>
+    <t>Industry - Basic metals and fabricated metal prod.</t>
+  </si>
+  <si>
+    <t>I*NEM*</t>
+  </si>
+  <si>
+    <t>DMD_IND-NEM</t>
+  </si>
+  <si>
+    <t>Industry - Non-energy mining</t>
+  </si>
+  <si>
+    <t>I*OMA*</t>
+  </si>
+  <si>
+    <t>DMD_IND-OMA</t>
+  </si>
+  <si>
+    <t>Industry - Other manufacturing</t>
+  </si>
+  <si>
+    <t>I*ONM*</t>
+  </si>
+  <si>
+    <t>DMD_IND-ONM</t>
+  </si>
+  <si>
+    <t>Industry - Other non-metalic mineral products</t>
+  </si>
+  <si>
+    <t>I*PX4*</t>
+  </si>
+  <si>
+    <t>DMD_IND-PX4</t>
+  </si>
+  <si>
+    <t>Industry - Pulp, paper, publishing and printing</t>
+  </si>
+  <si>
+    <t>I*RAP*</t>
+  </si>
+  <si>
+    <t>DMD_IND-RAP</t>
+  </si>
+  <si>
+    <t>Industry - Rubber and plastic products</t>
+  </si>
+  <si>
+    <t>I*TAP*</t>
+  </si>
+  <si>
+    <t>DMD_IND-TAP</t>
+  </si>
+  <si>
+    <t>Industry - Textiles and textile products</t>
+  </si>
+  <si>
+    <t>I*TEM*</t>
+  </si>
+  <si>
+    <t>DMD_IND-TEM</t>
+  </si>
+  <si>
+    <t>Industry - Transport equipment manufacture</t>
+  </si>
+  <si>
+    <t>I*WAP*</t>
+  </si>
+  <si>
+    <t>DMD_IND-WAP</t>
+  </si>
+  <si>
+    <t>Industry - Wood and wood products</t>
   </si>
 </sst>
 </file>
@@ -3723,8 +3840,8 @@
   </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6762,10 +6879,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7902,7 +8019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>1071</v>
       </c>
@@ -7922,6 +8039,344 @@
         <v>15</v>
       </c>
       <c r="K49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H50" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H52" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H53" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H54" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H55" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1126</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1129</v>
+      </c>
+      <c r="H57" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H59" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H61" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" t="s">
         <v>16</v>
       </c>
     </row>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8C5E45-2483-4970-A359-5F116FC062A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB225BC-9D44-4A6C-9E19-646A7C0619DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="4" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1170">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -3027,24 +3027,6 @@
     <t>Transport Train Long Distance</t>
   </si>
   <si>
-    <t>Residential Water Heating</t>
-  </si>
-  <si>
-    <t>RSD_NRGSRV-WH</t>
-  </si>
-  <si>
-    <t>Residential Space Heating</t>
-  </si>
-  <si>
-    <t>RSD_NRGSRV-SH</t>
-  </si>
-  <si>
-    <t>Residential Space Cooling</t>
-  </si>
-  <si>
-    <t>RSD_NRGSRV-SC</t>
-  </si>
-  <si>
     <t>Residential Refrigeration</t>
   </si>
   <si>
@@ -3525,13 +3507,52 @@
     <t>T-CAR*BEV*</t>
   </si>
   <si>
-    <t>R-SC*,R-HC*</t>
-  </si>
-  <si>
-    <t>R-SH*,R-H*,R-HC*</t>
-  </si>
-  <si>
-    <t>R-WH*,R-H*</t>
+    <t>RSDWH*,RSDSH*,RSDSC*</t>
+  </si>
+  <si>
+    <t>Residential Hot Water and Space Heating and Cooling</t>
+  </si>
+  <si>
+    <t>RSD_NRGSRV-WS</t>
+  </si>
+  <si>
+    <t>-IRE</t>
+  </si>
+  <si>
+    <t>DUMMY_IMPORT</t>
+  </si>
+  <si>
+    <t>Dummy import processes</t>
+  </si>
+  <si>
+    <t>IMP*Z</t>
+  </si>
+  <si>
+    <t>NGR-FUELS_RSD</t>
+  </si>
+  <si>
+    <t>Residential energy carriers</t>
+  </si>
+  <si>
+    <t>NGR-FUELS_COM</t>
+  </si>
+  <si>
+    <t>Commercial energy carriers</t>
+  </si>
+  <si>
+    <t>NGR-FUELS_IND</t>
+  </si>
+  <si>
+    <t>Industry energy carriers</t>
+  </si>
+  <si>
+    <t>NGR-FUELS_AGR</t>
+  </si>
+  <si>
+    <t>Agriculture energy carriers</t>
+  </si>
+  <si>
+    <t>RSD*,-*_*t</t>
   </si>
 </sst>
 </file>
@@ -3573,12 +3594,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3896,10 +3918,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,7 +4105,7 @@
         <v>208</v>
       </c>
       <c r="D8" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="E8" t="s">
         <v>140</v>
@@ -4109,7 +4131,7 @@
         <v>209</v>
       </c>
       <c r="D9" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="E9" t="s">
         <v>141</v>
@@ -4135,7 +4157,7 @@
         <v>210</v>
       </c>
       <c r="D10" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E10" t="s">
         <v>142</v>
@@ -4161,7 +4183,7 @@
         <v>211</v>
       </c>
       <c r="D11" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="E11" t="s">
         <v>143</v>
@@ -4187,7 +4209,7 @@
         <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="E12" t="s">
         <v>144</v>
@@ -4213,7 +4235,7 @@
         <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="E13" t="s">
         <v>145</v>
@@ -4239,7 +4261,7 @@
         <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="E14" t="s">
         <v>146</v>
@@ -4265,7 +4287,7 @@
         <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="E15" t="s">
         <v>147</v>
@@ -4291,7 +4313,7 @@
         <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="E16" t="s">
         <v>149</v>
@@ -4317,7 +4339,7 @@
         <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="E17" t="s">
         <v>150</v>
@@ -4343,7 +4365,7 @@
         <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="E18" t="s">
         <v>151</v>
@@ -4369,7 +4391,7 @@
         <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="E19" t="s">
         <v>152</v>
@@ -4395,7 +4417,7 @@
         <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E20" t="s">
         <v>153</v>
@@ -4421,7 +4443,7 @@
         <v>221</v>
       </c>
       <c r="D21" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="E21" t="s">
         <v>154</v>
@@ -4447,7 +4469,7 @@
         <v>222</v>
       </c>
       <c r="D22" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E22" t="s">
         <v>155</v>
@@ -4473,7 +4495,7 @@
         <v>223</v>
       </c>
       <c r="D23" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="E23" t="s">
         <v>156</v>
@@ -4499,7 +4521,7 @@
         <v>224</v>
       </c>
       <c r="D24" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="E24" t="s">
         <v>158</v>
@@ -4525,7 +4547,7 @@
         <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E25" t="s">
         <v>159</v>
@@ -4551,7 +4573,7 @@
         <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="E26" t="s">
         <v>160</v>
@@ -4577,7 +4599,7 @@
         <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="E27" t="s">
         <v>161</v>
@@ -4603,7 +4625,7 @@
         <v>228</v>
       </c>
       <c r="D28" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E28" t="s">
         <v>162</v>
@@ -4629,7 +4651,7 @@
         <v>229</v>
       </c>
       <c r="D29" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
       <c r="E29" t="s">
         <v>163</v>
@@ -4655,7 +4677,7 @@
         <v>230</v>
       </c>
       <c r="D30" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="E30" t="s">
         <v>164</v>
@@ -4681,7 +4703,7 @@
         <v>231</v>
       </c>
       <c r="D31" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="E31" t="s">
         <v>165</v>
@@ -4707,7 +4729,7 @@
         <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="E32" t="s">
         <v>92</v>
@@ -4733,7 +4755,7 @@
         <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E33" t="s">
         <v>93</v>
@@ -4759,7 +4781,7 @@
         <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="E34" t="s">
         <v>94</v>
@@ -4785,7 +4807,7 @@
         <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
       <c r="E35" t="s">
         <v>95</v>
@@ -4811,7 +4833,7 @@
         <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="E36" t="s">
         <v>96</v>
@@ -4837,7 +4859,7 @@
         <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="E37" t="s">
         <v>97</v>
@@ -4863,7 +4885,7 @@
         <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="E38" t="s">
         <v>98</v>
@@ -4889,7 +4911,7 @@
         <v>174</v>
       </c>
       <c r="D39" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="E39" t="s">
         <v>99</v>
@@ -4915,7 +4937,7 @@
         <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E40" t="s">
         <v>101</v>
@@ -4941,7 +4963,7 @@
         <v>176</v>
       </c>
       <c r="D41" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="E41" t="s">
         <v>102</v>
@@ -4967,7 +4989,7 @@
         <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="E42" t="s">
         <v>103</v>
@@ -4993,7 +5015,7 @@
         <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E43" t="s">
         <v>104</v>
@@ -5019,7 +5041,7 @@
         <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="E44" t="s">
         <v>105</v>
@@ -5045,7 +5067,7 @@
         <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="E45" t="s">
         <v>106</v>
@@ -5071,7 +5093,7 @@
         <v>181</v>
       </c>
       <c r="D46" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="E46" t="s">
         <v>107</v>
@@ -5097,7 +5119,7 @@
         <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="E47" t="s">
         <v>108</v>
@@ -5123,7 +5145,7 @@
         <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="E48" t="s">
         <v>109</v>
@@ -5149,7 +5171,7 @@
         <v>184</v>
       </c>
       <c r="D49" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E49" t="s">
         <v>110</v>
@@ -5175,7 +5197,7 @@
         <v>185</v>
       </c>
       <c r="D50" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="E50" t="s">
         <v>111</v>
@@ -5201,7 +5223,7 @@
         <v>186</v>
       </c>
       <c r="D51" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="E51" t="s">
         <v>112</v>
@@ -5227,7 +5249,7 @@
         <v>187</v>
       </c>
       <c r="D52" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E52" t="s">
         <v>113</v>
@@ -5253,7 +5275,7 @@
         <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="E53" t="s">
         <v>114</v>
@@ -5279,7 +5301,7 @@
         <v>189</v>
       </c>
       <c r="D54" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E54" t="s">
         <v>115</v>
@@ -5305,7 +5327,7 @@
         <v>190</v>
       </c>
       <c r="D55" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E55" t="s">
         <v>116</v>
@@ -5331,7 +5353,7 @@
         <v>191</v>
       </c>
       <c r="D56" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="E56" t="s">
         <v>118</v>
@@ -5357,7 +5379,7 @@
         <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E57" t="s">
         <v>119</v>
@@ -5383,7 +5405,7 @@
         <v>193</v>
       </c>
       <c r="D58" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="E58" t="s">
         <v>120</v>
@@ -5409,7 +5431,7 @@
         <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="E59" t="s">
         <v>121</v>
@@ -5435,7 +5457,7 @@
         <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="E60" t="s">
         <v>122</v>
@@ -5461,7 +5483,7 @@
         <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="E61" t="s">
         <v>123</v>
@@ -5487,7 +5509,7 @@
         <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="E62" t="s">
         <v>124</v>
@@ -5513,7 +5535,7 @@
         <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E63" t="s">
         <v>125</v>
@@ -5539,7 +5561,7 @@
         <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="E64" t="s">
         <v>127</v>
@@ -5565,7 +5587,7 @@
         <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="E65" t="s">
         <v>128</v>
@@ -5580,6 +5602,110 @@
         <v>15</v>
       </c>
       <c r="I65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
+        <v>336</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6941,10 +7067,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6997,14 +7123,17 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>881</v>
+      </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>1160</v>
       </c>
       <c r="F3" t="s">
-        <v>1126</v>
+        <v>1158</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>1159</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -7021,13 +7150,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>1127</v>
+        <v>1120</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -7044,13 +7173,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>1128</v>
+        <v>1121</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -7067,13 +7196,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>1129</v>
+        <v>1122</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -7090,13 +7219,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1067</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>1130</v>
+        <v>1123</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -7113,13 +7242,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>1061</v>
       </c>
       <c r="F8" t="s">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -7136,13 +7265,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>1132</v>
+        <v>1125</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -7159,13 +7288,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>1133</v>
+        <v>1126</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -7182,24 +7311,47 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>71</v>
       </c>
-      <c r="F11" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F12" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G12" t="s">
         <v>50</v>
       </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7273,13 +7425,13 @@
         <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="F3" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="G3" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -7299,13 +7451,13 @@
         <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F4" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="G4" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -7325,13 +7477,13 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F5" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="G5" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -7351,13 +7503,13 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="F6" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="G6" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -7377,13 +7529,13 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="F7" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="G7" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -7403,13 +7555,13 @@
         <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="F8" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="G8" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -7429,13 +7581,13 @@
         <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="F9" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="G9" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -7455,13 +7607,13 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="F10" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="G10" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -7481,13 +7633,13 @@
         <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="F11" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="G11" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -7507,13 +7659,13 @@
         <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="F12" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="G12" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -7533,13 +7685,13 @@
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="F13" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="G13" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -7559,13 +7711,13 @@
         <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="F14" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="G14" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -7585,13 +7737,13 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="F15" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="G15" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -7616,10 +7768,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7673,13 +7825,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F3" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="G3" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -7696,10 +7848,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="F4" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="G4" t="s">
         <v>802</v>
@@ -7719,13 +7871,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="F5" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="G5" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -7742,10 +7894,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F6" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="G6" t="s">
         <v>807</v>
@@ -7765,10 +7917,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F7" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="G7" t="s">
         <v>843</v>
@@ -7788,13 +7940,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F8" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="G8" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -7811,13 +7963,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F9" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="G9" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -7834,13 +7986,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F10" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="G10" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -7857,13 +8009,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F11" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="G11" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -7879,71 +8031,28 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>1160</v>
+      <c r="A12" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1154</v>
       </c>
       <c r="F12" t="s">
-        <v>999</v>
+        <v>1156</v>
       </c>
       <c r="G12" t="s">
-        <v>998</v>
+        <v>1155</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
         <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F13" t="s">
-        <v>997</v>
-      </c>
-      <c r="G13" t="s">
-        <v>996</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F14" t="s">
-        <v>995</v>
-      </c>
-      <c r="G14" t="s">
-        <v>994</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7960,7 +8069,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8020,7 +8129,7 @@
         <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -8049,7 +8158,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -8078,7 +8187,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -8104,16 +8213,16 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="E6" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F6" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="G6" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -8136,7 +8245,7 @@
         <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -8420,16 +8529,16 @@
         <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="E17" t="s">
         <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="G17" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -8514,10 +8623,10 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="G3" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -8531,10 +8640,10 @@
         <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="G4" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -8554,10 +8663,10 @@
         <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="G5" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -8571,10 +8680,10 @@
         <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="G6" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -8588,10 +8697,10 @@
         <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="G7" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -8611,10 +8720,10 @@
         <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="G8" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -8628,10 +8737,10 @@
         <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="G9" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -8645,10 +8754,10 @@
         <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="G10" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -8662,10 +8771,10 @@
         <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
       <c r="G11" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -8679,10 +8788,10 @@
         <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="G12" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -8696,10 +8805,10 @@
         <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="G13" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -8717,8 +8826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493D947D-D359-42F9-887E-EA748C65C63F}">
   <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A152" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB225BC-9D44-4A6C-9E19-646A7C0619DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CE543-923A-4EAF-A22B-E138F362EBBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="4" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="1212">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -3553,6 +3553,132 @@
   </si>
   <si>
     <t>RSD*,-*_*t</t>
+  </si>
+  <si>
+    <t>Residential - Buildings - Apartments</t>
+  </si>
+  <si>
+    <t>Residential - Buildings - Attached</t>
+  </si>
+  <si>
+    <t>Residential - Buildings - Detached</t>
+  </si>
+  <si>
+    <t>DMD_RSD-BLD-APT</t>
+  </si>
+  <si>
+    <t>DMD_RSD-BLD-ATT</t>
+  </si>
+  <si>
+    <t>DMD_RSD-BLD-DET</t>
+  </si>
+  <si>
+    <t>R*BLD*APT*</t>
+  </si>
+  <si>
+    <t>R*BLD*ATT*</t>
+  </si>
+  <si>
+    <t>R*BLD*DET*</t>
+  </si>
+  <si>
+    <t>R*SW*N*,-R*HP*,-R*HET*</t>
+  </si>
+  <si>
+    <t>R*SW*HP*N*</t>
+  </si>
+  <si>
+    <t>R*SW*HET*N*</t>
+  </si>
+  <si>
+    <t>R*SH*N*,-R*HP*</t>
+  </si>
+  <si>
+    <t>R*HC*HP*N*</t>
+  </si>
+  <si>
+    <t>R*SC*N*</t>
+  </si>
+  <si>
+    <t>R*WH*N*,-R*WH*SOL*</t>
+  </si>
+  <si>
+    <t>R*WH*SOL*N*</t>
+  </si>
+  <si>
+    <t>R*SH*X*</t>
+  </si>
+  <si>
+    <t>R*WH*X*</t>
+  </si>
+  <si>
+    <t>Residential - Space and Water Heating - New Boilers</t>
+  </si>
+  <si>
+    <t>Residential - Space and Water Heating - New Heat Pumps</t>
+  </si>
+  <si>
+    <t>Residential - Space and Water Heating - New District Heating</t>
+  </si>
+  <si>
+    <t>Residential - Space Heating - New Boilers</t>
+  </si>
+  <si>
+    <t>Residential - Space Heating - New Heat Pumps</t>
+  </si>
+  <si>
+    <t>Residential - Space Heating and Cooling - New Heat Pumps</t>
+  </si>
+  <si>
+    <t>Residential - Space Cooling - New Air Conditioners</t>
+  </si>
+  <si>
+    <t>Residential - Water Heating - New Boilers</t>
+  </si>
+  <si>
+    <t>Residential - Water Heating - New Solar</t>
+  </si>
+  <si>
+    <t>RSD_TECH-SW-N-BOILERS</t>
+  </si>
+  <si>
+    <t>RSD_TECH-SW-N-HP</t>
+  </si>
+  <si>
+    <t>RSD_TECH-SW-N-DH</t>
+  </si>
+  <si>
+    <t>RSD_TECH-SH-N-BOILERS</t>
+  </si>
+  <si>
+    <t>RSD_TECH-SH-N-HP</t>
+  </si>
+  <si>
+    <t>RSD_TECH-HC-N-HP</t>
+  </si>
+  <si>
+    <t>RSD_TECH-SC-N-AC</t>
+  </si>
+  <si>
+    <t>RSD_TECH-WH-N-BOILERS</t>
+  </si>
+  <si>
+    <t>RSD_TECH-WH-N-SOLAR</t>
+  </si>
+  <si>
+    <t>RSD_TECH-SH-E</t>
+  </si>
+  <si>
+    <t>RSD_TECH-WH-E</t>
+  </si>
+  <si>
+    <t>Residential - Water Heating - Existing</t>
+  </si>
+  <si>
+    <t>Residential - Space Heating - Existing</t>
+  </si>
+  <si>
+    <t>R*SH*HP*N*</t>
   </si>
 </sst>
 </file>
@@ -3920,7 +4046,7 @@
   </sheetPr>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -7368,7 +7494,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H15" sqref="H15:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7768,15 +7894,15 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8053,6 +8179,337 @@
         <v>15</v>
       </c>
       <c r="K12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1201</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" t="s">
         <v>16</v>
       </c>
     </row>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CE543-923A-4EAF-A22B-E138F362EBBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF54747-F701-4C65-B551-C9418E8D70AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="4" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="1212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="1215">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -3679,6 +3679,15 @@
   </si>
   <si>
     <t>R*SH*HP*N*</t>
+  </si>
+  <si>
+    <t>I*CON*</t>
+  </si>
+  <si>
+    <t>DMD_IND-CON</t>
+  </si>
+  <si>
+    <t>Industry - Construction</t>
   </si>
 </sst>
 </file>
@@ -4046,8 +4055,8 @@
   </sheetPr>
   <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7491,10 +7500,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:K15"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7881,6 +7890,32 @@
         <v>15</v>
       </c>
       <c r="K15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7896,7 +7931,7 @@
   </sheetPr>
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AB06B3-1E55-48C5-935D-CD98E3686307}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1323FABE-5FFC-4E2C-9040-70CA44F985E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" firstSheet="2" activeTab="2" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3115" uniqueCount="1245">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -3751,6 +3751,33 @@
   </si>
   <si>
     <t>NGR-FUELS_PWR</t>
+  </si>
+  <si>
+    <t>IRE-IMP</t>
+  </si>
+  <si>
+    <t>Import processes</t>
+  </si>
+  <si>
+    <t>EXP*</t>
+  </si>
+  <si>
+    <t>IRE-EXP</t>
+  </si>
+  <si>
+    <t>IRE-MIN</t>
+  </si>
+  <si>
+    <t>Export processes</t>
+  </si>
+  <si>
+    <t>Mining processes</t>
+  </si>
+  <si>
+    <t>IMP*</t>
+  </si>
+  <si>
+    <t>MIN*,-*WLK,-*CYC</t>
   </si>
 </sst>
 </file>
@@ -4118,8 +4145,8 @@
   </sheetPr>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5942,8 +5969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CB6C28-EC74-4923-AA3E-E780416BCEAF}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7291,10 +7318,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7373,14 +7400,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>876</v>
+      </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>1243</v>
       </c>
       <c r="F4" t="s">
-        <v>1115</v>
+        <v>1236</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>1237</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -7396,14 +7426,17 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>876</v>
+      </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>1238</v>
       </c>
       <c r="F5" t="s">
-        <v>1116</v>
+        <v>1239</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>1241</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -7419,14 +7452,17 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>876</v>
+      </c>
       <c r="B6" t="s">
-        <v>1209</v>
+        <v>1244</v>
       </c>
       <c r="F6" t="s">
-        <v>1117</v>
+        <v>1240</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>1242</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -7443,13 +7479,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1208</v>
+        <v>64</v>
       </c>
       <c r="F7" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -7466,13 +7502,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1056</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -7489,13 +7525,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>66</v>
+        <v>1209</v>
       </c>
       <c r="F9" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -7512,13 +7548,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>1208</v>
       </c>
       <c r="F10" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -7535,13 +7571,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>1056</v>
       </c>
       <c r="F11" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -7558,24 +7594,93 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
         <v>1123</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9147,7 +9252,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ACB2AD-3FDA-4401-B394-DA92864953DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF740041-D1B2-4216-8DB7-0D83311FAF19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" firstSheet="2" activeTab="5" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" firstSheet="2" activeTab="7" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="RSD_Sets-Proc" sheetId="9" r:id="rId5"/>
     <sheet name="TRA_Sets-Proc" sheetId="10" r:id="rId6"/>
     <sheet name="PWR_Sets-Proc" sheetId="8" r:id="rId7"/>
-    <sheet name="extra_Sets-Proc" sheetId="4" r:id="rId8"/>
+    <sheet name="SUP_Sets-Proc" sheetId="12" r:id="rId8"/>
+    <sheet name="extra_Sets-Proc" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3406" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="1351">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -4087,6 +4088,15 @@
   </si>
   <si>
     <t xml:space="preserve">Passenger transport - light goods truck - plugin hybrid electric </t>
+  </si>
+  <si>
+    <t>SH2P*ELC*</t>
+  </si>
+  <si>
+    <t>SUP-H2-Electrolysis</t>
+  </si>
+  <si>
+    <t>Hydrogen Generation - Electrolysis</t>
   </si>
 </sst>
 </file>
@@ -9398,7 +9408,7 @@
   </sheetPr>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -10867,6 +10877,94 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B790B4BC-8607-4508-A698-E46A5EB98EA7}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493D947D-D359-42F9-887E-EA748C65C63F}">
   <dimension ref="A1:N255"/>
   <sheetViews>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr backupFile="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A641A5E6-E400-490B-8AC0-C4C159B2A547}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D667FB43-5CF1-41D1-8B1E-D348AE4B4C94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="9" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="1319">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -2970,75 +2970,30 @@
     <t>Transport Train Long Distance</t>
   </si>
   <si>
-    <t>Residential Refrigeration</t>
-  </si>
-  <si>
-    <t>RSD_NRGSRV-RF</t>
-  </si>
-  <si>
     <t>R-RSDRF*</t>
   </si>
   <si>
-    <t>Residential Pump and Fans</t>
-  </si>
-  <si>
-    <t>RSD_NRGSRV-PF</t>
-  </si>
-  <si>
     <t>R-PF*</t>
   </si>
   <si>
-    <t>Residential Electric Appliances</t>
-  </si>
-  <si>
-    <t>RSD_NRGSRV-OE</t>
-  </si>
-  <si>
     <t>R-RSDOE*</t>
   </si>
   <si>
-    <t>Residential Other Applications</t>
-  </si>
-  <si>
-    <t>RSD_NRGSRV-OA</t>
-  </si>
-  <si>
     <t>R-RSDOA*</t>
   </si>
   <si>
-    <t>RSD_NRGSRV-LT</t>
-  </si>
-  <si>
     <t>R-LT*</t>
   </si>
   <si>
-    <t>RSD_NRGSRV-DW</t>
-  </si>
-  <si>
     <t>R-RSDDW*</t>
   </si>
   <si>
-    <t>Residential Cloth Washing</t>
-  </si>
-  <si>
-    <t>RSD_NRGSRV-CW</t>
-  </si>
-  <si>
     <t>R-RSDCW*</t>
   </si>
   <si>
-    <t>RSD_NRGSRV-CK</t>
-  </si>
-  <si>
     <t>R-RSDCK*</t>
   </si>
   <si>
-    <t>Residential Cloth Drying</t>
-  </si>
-  <si>
-    <t>RSD_NRGSRV-CD</t>
-  </si>
-  <si>
     <t>R-RSDCD*</t>
   </si>
   <si>
@@ -3414,12 +3369,6 @@
     <t>RSDWH*,RSDSH*,RSDSC*</t>
   </si>
   <si>
-    <t>Residential Hot Water and Space Heating and Cooling</t>
-  </si>
-  <si>
-    <t>RSD_NRGSRV-WS</t>
-  </si>
-  <si>
     <t>-IRE</t>
   </si>
   <si>
@@ -3480,105 +3429,6 @@
     <t>R*BLD*DET*</t>
   </si>
   <si>
-    <t>R*SW*N*,-R*HP*,-R*HET*</t>
-  </si>
-  <si>
-    <t>R*SW*HP*N*</t>
-  </si>
-  <si>
-    <t>R*SW*HET*N*</t>
-  </si>
-  <si>
-    <t>R*SH*N*,-R*HP*</t>
-  </si>
-  <si>
-    <t>R*HC*HP*N*</t>
-  </si>
-  <si>
-    <t>R*SC*N*</t>
-  </si>
-  <si>
-    <t>R*WH*N*,-R*WH*SOL*</t>
-  </si>
-  <si>
-    <t>R*WH*SOL*N*</t>
-  </si>
-  <si>
-    <t>R*SH*X*</t>
-  </si>
-  <si>
-    <t>R*WH*X*</t>
-  </si>
-  <si>
-    <t>Residential - Space and Water Heating - New Boilers</t>
-  </si>
-  <si>
-    <t>Residential - Space and Water Heating - New Heat Pumps</t>
-  </si>
-  <si>
-    <t>Residential - Space and Water Heating - New District Heating</t>
-  </si>
-  <si>
-    <t>Residential - Space Heating - New Boilers</t>
-  </si>
-  <si>
-    <t>Residential - Space Heating - New Heat Pumps</t>
-  </si>
-  <si>
-    <t>Residential - Space Heating and Cooling - New Heat Pumps</t>
-  </si>
-  <si>
-    <t>Residential - Space Cooling - New Air Conditioners</t>
-  </si>
-  <si>
-    <t>Residential - Water Heating - New Boilers</t>
-  </si>
-  <si>
-    <t>Residential - Water Heating - New Solar</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SW-N-BOILERS</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SW-N-HP</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SW-N-DH</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SH-N-BOILERS</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SH-N-HP</t>
-  </si>
-  <si>
-    <t>RSD_TECH-HC-N-HP</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SC-N-AC</t>
-  </si>
-  <si>
-    <t>RSD_TECH-WH-N-BOILERS</t>
-  </si>
-  <si>
-    <t>RSD_TECH-WH-N-SOLAR</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SH-E</t>
-  </si>
-  <si>
-    <t>RSD_TECH-WH-E</t>
-  </si>
-  <si>
-    <t>Residential - Water Heating - Existing</t>
-  </si>
-  <si>
-    <t>Residential - Space Heating - Existing</t>
-  </si>
-  <si>
-    <t>R*SH*HP*N*</t>
-  </si>
-  <si>
     <t>I*CON*</t>
   </si>
   <si>
@@ -3699,126 +3549,6 @@
     <t>MIN*,-*WLK,-*CYC</t>
   </si>
   <si>
-    <t>RSD_TECH-HP</t>
-  </si>
-  <si>
-    <t>RSD_TECH-AC</t>
-  </si>
-  <si>
-    <t>RSD_TECH-DH</t>
-  </si>
-  <si>
-    <t>RSD_TECH-BOILERS</t>
-  </si>
-  <si>
-    <t>Residential - Heat Pumps</t>
-  </si>
-  <si>
-    <t>Residential - Boiler</t>
-  </si>
-  <si>
-    <t>Residential - Air Conditioners</t>
-  </si>
-  <si>
-    <t>Residential - Heat Exchangers</t>
-  </si>
-  <si>
-    <t>R*HP*,R*ELC_X1</t>
-  </si>
-  <si>
-    <t>R*SC*ELC_N*</t>
-  </si>
-  <si>
-    <t>R*t_het*</t>
-  </si>
-  <si>
-    <t>R*t_*</t>
-  </si>
-  <si>
-    <t>RSDSH*,RSDWH*</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SH-APT</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SH-ATT</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SH-DET</t>
-  </si>
-  <si>
-    <t>RSD_TECH-WH-APT</t>
-  </si>
-  <si>
-    <t>RSD_TECH-WH-ATT</t>
-  </si>
-  <si>
-    <t>RSD_TECH-WH-DET</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SC-APT</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SC-ATT</t>
-  </si>
-  <si>
-    <t>RSD_TECH-SC-DET</t>
-  </si>
-  <si>
-    <t>RSDSH_APT</t>
-  </si>
-  <si>
-    <t>RSDSH_ATT</t>
-  </si>
-  <si>
-    <t>RSDSH_DET</t>
-  </si>
-  <si>
-    <t>RSDWH_APT</t>
-  </si>
-  <si>
-    <t>RSDWH_ATT</t>
-  </si>
-  <si>
-    <t>RSDWH_DET</t>
-  </si>
-  <si>
-    <t>RSDSC_DET</t>
-  </si>
-  <si>
-    <t>RSDSC_APT</t>
-  </si>
-  <si>
-    <t>RSDSC_ATT</t>
-  </si>
-  <si>
-    <t>Residential - Space Heating - Apartments</t>
-  </si>
-  <si>
-    <t>Residential - Space Heating - Attached</t>
-  </si>
-  <si>
-    <t>Residential - Space Heating - Detached</t>
-  </si>
-  <si>
-    <t>Residential - Water Heating - Apartments</t>
-  </si>
-  <si>
-    <t>Residential - Water Heating - Attached</t>
-  </si>
-  <si>
-    <t>Residential - Water Heating - Detached</t>
-  </si>
-  <si>
-    <t>Residential - Space Cooling - Apartments</t>
-  </si>
-  <si>
-    <t>Residential - Space Cooling - Attached</t>
-  </si>
-  <si>
-    <t>Residential - Space Cooling - Detached</t>
-  </si>
-  <si>
     <t>TAVIDOM</t>
   </si>
   <si>
@@ -4156,6 +3886,123 @@
   </si>
   <si>
     <t>Services energy carriers</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_NRGSRV-CD</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_NRGSRV-CK</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_NRGSRV-CW</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_NRGSRV-DW</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_NRGSRV-LT</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_NRGSRV-OA</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_NRGSRV-OE</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_NRGSRV-PF</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_NRGSRV-RF</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_NRGSRV-WS</t>
+  </si>
+  <si>
+    <t>Residential - All Buildings - Cloth Drying</t>
+  </si>
+  <si>
+    <t>Residential  - All Buildings - Cooking</t>
+  </si>
+  <si>
+    <t>Residential - All Buildings - Cloth Washing</t>
+  </si>
+  <si>
+    <t>Residential - All Buildings - Dish Washing</t>
+  </si>
+  <si>
+    <t>Residential - All Buildings - Lighting</t>
+  </si>
+  <si>
+    <t>Residential - All Buildings - Other Applications</t>
+  </si>
+  <si>
+    <t>Residential - All Buildings - Electric Appliances</t>
+  </si>
+  <si>
+    <t>Residential - All Buildings - Pump and Fans</t>
+  </si>
+  <si>
+    <t>Residential - All Buildings - Refrigeration</t>
+  </si>
+  <si>
+    <t>Residential - All Buildings - Hot Water and Space Heating and Cooling</t>
+  </si>
+  <si>
+    <t>Residential - Apartments - Hot Water and Space Heating and Cooling</t>
+  </si>
+  <si>
+    <t>Residential - Attached - Hot Water and Space Heating and Cooling</t>
+  </si>
+  <si>
+    <t>Residential - Detached - Hot Water and Space Heating and Cooling</t>
+  </si>
+  <si>
+    <t>RSD_BLD-APT_NRGSRV-WS</t>
+  </si>
+  <si>
+    <t>RSD_BLD-ATT_NRGSRV-WS</t>
+  </si>
+  <si>
+    <t>RSD_BLD-DET_NRGSRV-WS</t>
+  </si>
+  <si>
+    <t>R*,-R-RTFT*</t>
+  </si>
+  <si>
+    <t>R-RTFT*</t>
+  </si>
+  <si>
+    <t>RSD_BLD-XXX_RTFT</t>
+  </si>
+  <si>
+    <t>Residential - All Buildings - Retrofits</t>
+  </si>
+  <si>
+    <t>Residential - Apartments - Retrofits</t>
+  </si>
+  <si>
+    <t>Residential - Attached - Retrofits</t>
+  </si>
+  <si>
+    <t>Residential - Detached - Retrofits</t>
+  </si>
+  <si>
+    <t>R*APT*</t>
+  </si>
+  <si>
+    <t>R*ATT*</t>
+  </si>
+  <si>
+    <t>R*DET*</t>
+  </si>
+  <si>
+    <t>RSD_BLD-APT_RTFT</t>
+  </si>
+  <si>
+    <t>RSD_BLD-ATT_RTFT</t>
+  </si>
+  <si>
+    <t>RSD_BLD-DET_RTFT</t>
   </si>
 </sst>
 </file>
@@ -4604,10 +4451,10 @@
         <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>1352</v>
+        <v>1262</v>
       </c>
       <c r="E4" t="s">
-        <v>1361</v>
+        <v>1271</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -4708,7 +4555,7 @@
         <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>1042</v>
+        <v>1027</v>
       </c>
       <c r="E8" t="s">
         <v>123</v>
@@ -4734,7 +4581,7 @@
         <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>1043</v>
+        <v>1028</v>
       </c>
       <c r="E9" t="s">
         <v>124</v>
@@ -4760,10 +4607,10 @@
         <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>1353</v>
+        <v>1263</v>
       </c>
       <c r="E10" t="s">
-        <v>1362</v>
+        <v>1272</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -4786,7 +4633,7 @@
         <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="E11" t="s">
         <v>125</v>
@@ -4812,7 +4659,7 @@
         <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>1045</v>
+        <v>1030</v>
       </c>
       <c r="E12" t="s">
         <v>126</v>
@@ -4838,7 +4685,7 @@
         <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="E13" t="s">
         <v>127</v>
@@ -4864,7 +4711,7 @@
         <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="E14" t="s">
         <v>128</v>
@@ -4890,7 +4737,7 @@
         <v>195</v>
       </c>
       <c r="D15" t="s">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="E15" t="s">
         <v>129</v>
@@ -4916,7 +4763,7 @@
         <v>196</v>
       </c>
       <c r="D16" t="s">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="E16" t="s">
         <v>131</v>
@@ -4942,7 +4789,7 @@
         <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
       <c r="E17" t="s">
         <v>132</v>
@@ -4968,10 +4815,10 @@
         <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>1354</v>
+        <v>1264</v>
       </c>
       <c r="E18" t="s">
-        <v>1363</v>
+        <v>1273</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
@@ -4994,7 +4841,7 @@
         <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
       <c r="E19" t="s">
         <v>133</v>
@@ -5020,7 +4867,7 @@
         <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
       <c r="E20" t="s">
         <v>134</v>
@@ -5046,7 +4893,7 @@
         <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="E21" t="s">
         <v>135</v>
@@ -5072,7 +4919,7 @@
         <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>1054</v>
+        <v>1039</v>
       </c>
       <c r="E22" t="s">
         <v>136</v>
@@ -5098,7 +4945,7 @@
         <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>1055</v>
+        <v>1040</v>
       </c>
       <c r="E23" t="s">
         <v>137</v>
@@ -5124,7 +4971,7 @@
         <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="E24" t="s">
         <v>139</v>
@@ -5150,7 +4997,7 @@
         <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>1057</v>
+        <v>1042</v>
       </c>
       <c r="E25" t="s">
         <v>140</v>
@@ -5176,10 +5023,10 @@
         <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>1355</v>
+        <v>1265</v>
       </c>
       <c r="E26" t="s">
-        <v>1364</v>
+        <v>1274</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -5202,7 +5049,7 @@
         <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>1058</v>
+        <v>1043</v>
       </c>
       <c r="E27" t="s">
         <v>141</v>
@@ -5228,7 +5075,7 @@
         <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>1059</v>
+        <v>1044</v>
       </c>
       <c r="E28" t="s">
         <v>142</v>
@@ -5254,7 +5101,7 @@
         <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>1060</v>
+        <v>1045</v>
       </c>
       <c r="E29" t="s">
         <v>143</v>
@@ -5280,7 +5127,7 @@
         <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="E30" t="s">
         <v>144</v>
@@ -5306,7 +5153,7 @@
         <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>1062</v>
+        <v>1047</v>
       </c>
       <c r="E31" t="s">
         <v>145</v>
@@ -5332,7 +5179,7 @@
         <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>1063</v>
+        <v>1048</v>
       </c>
       <c r="E32" t="s">
         <v>79</v>
@@ -5358,7 +5205,7 @@
         <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>1064</v>
+        <v>1049</v>
       </c>
       <c r="E33" t="s">
         <v>80</v>
@@ -5384,10 +5231,10 @@
         <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>1356</v>
+        <v>1266</v>
       </c>
       <c r="E34" t="s">
-        <v>1365</v>
+        <v>1275</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
@@ -5410,7 +5257,7 @@
         <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>1065</v>
+        <v>1050</v>
       </c>
       <c r="E35" t="s">
         <v>81</v>
@@ -5436,7 +5283,7 @@
         <v>151</v>
       </c>
       <c r="D36" t="s">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="E36" t="s">
         <v>82</v>
@@ -5462,7 +5309,7 @@
         <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>1067</v>
+        <v>1052</v>
       </c>
       <c r="E37" t="s">
         <v>83</v>
@@ -5488,7 +5335,7 @@
         <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>1068</v>
+        <v>1053</v>
       </c>
       <c r="E38" t="s">
         <v>84</v>
@@ -5514,7 +5361,7 @@
         <v>154</v>
       </c>
       <c r="D39" t="s">
-        <v>1069</v>
+        <v>1054</v>
       </c>
       <c r="E39" t="s">
         <v>85</v>
@@ -5540,7 +5387,7 @@
         <v>155</v>
       </c>
       <c r="D40" t="s">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="E40" t="s">
         <v>87</v>
@@ -5566,7 +5413,7 @@
         <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>1071</v>
+        <v>1056</v>
       </c>
       <c r="E41" t="s">
         <v>88</v>
@@ -5592,10 +5439,10 @@
         <v>157</v>
       </c>
       <c r="D42" t="s">
-        <v>1357</v>
+        <v>1267</v>
       </c>
       <c r="E42" t="s">
-        <v>1366</v>
+        <v>1276</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -5618,7 +5465,7 @@
         <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="E43" t="s">
         <v>89</v>
@@ -5644,7 +5491,7 @@
         <v>159</v>
       </c>
       <c r="D44" t="s">
-        <v>1073</v>
+        <v>1058</v>
       </c>
       <c r="E44" t="s">
         <v>90</v>
@@ -5670,7 +5517,7 @@
         <v>160</v>
       </c>
       <c r="D45" t="s">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="E45" t="s">
         <v>91</v>
@@ -5696,7 +5543,7 @@
         <v>161</v>
       </c>
       <c r="D46" t="s">
-        <v>1075</v>
+        <v>1060</v>
       </c>
       <c r="E46" t="s">
         <v>92</v>
@@ -5722,7 +5569,7 @@
         <v>162</v>
       </c>
       <c r="D47" t="s">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="E47" t="s">
         <v>93</v>
@@ -5748,7 +5595,7 @@
         <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>1077</v>
+        <v>1062</v>
       </c>
       <c r="E48" t="s">
         <v>94</v>
@@ -5774,7 +5621,7 @@
         <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>1078</v>
+        <v>1063</v>
       </c>
       <c r="E49" t="s">
         <v>95</v>
@@ -5800,10 +5647,10 @@
         <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>1358</v>
+        <v>1268</v>
       </c>
       <c r="E50" t="s">
-        <v>1367</v>
+        <v>1277</v>
       </c>
       <c r="F50" t="s">
         <v>15</v>
@@ -5826,7 +5673,7 @@
         <v>166</v>
       </c>
       <c r="D51" t="s">
-        <v>1079</v>
+        <v>1064</v>
       </c>
       <c r="E51" t="s">
         <v>96</v>
@@ -5852,7 +5699,7 @@
         <v>167</v>
       </c>
       <c r="D52" t="s">
-        <v>1080</v>
+        <v>1065</v>
       </c>
       <c r="E52" t="s">
         <v>97</v>
@@ -5878,7 +5725,7 @@
         <v>168</v>
       </c>
       <c r="D53" t="s">
-        <v>1081</v>
+        <v>1066</v>
       </c>
       <c r="E53" t="s">
         <v>98</v>
@@ -5904,7 +5751,7 @@
         <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>1082</v>
+        <v>1067</v>
       </c>
       <c r="E54" t="s">
         <v>99</v>
@@ -5930,7 +5777,7 @@
         <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>1083</v>
+        <v>1068</v>
       </c>
       <c r="E55" t="s">
         <v>100</v>
@@ -5956,7 +5803,7 @@
         <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>1084</v>
+        <v>1069</v>
       </c>
       <c r="E56" t="s">
         <v>102</v>
@@ -5982,7 +5829,7 @@
         <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="E57" t="s">
         <v>103</v>
@@ -6008,10 +5855,10 @@
         <v>173</v>
       </c>
       <c r="D58" t="s">
-        <v>1359</v>
+        <v>1269</v>
       </c>
       <c r="E58" t="s">
-        <v>1368</v>
+        <v>1278</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
@@ -6034,7 +5881,7 @@
         <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="E59" t="s">
         <v>104</v>
@@ -6060,7 +5907,7 @@
         <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>1087</v>
+        <v>1072</v>
       </c>
       <c r="E60" t="s">
         <v>105</v>
@@ -6086,7 +5933,7 @@
         <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>1088</v>
+        <v>1073</v>
       </c>
       <c r="E61" t="s">
         <v>106</v>
@@ -6112,7 +5959,7 @@
         <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>1089</v>
+        <v>1074</v>
       </c>
       <c r="E62" t="s">
         <v>107</v>
@@ -6138,7 +5985,7 @@
         <v>178</v>
       </c>
       <c r="D63" t="s">
-        <v>1090</v>
+        <v>1075</v>
       </c>
       <c r="E63" t="s">
         <v>108</v>
@@ -6164,7 +6011,7 @@
         <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>1091</v>
+        <v>1076</v>
       </c>
       <c r="E64" t="s">
         <v>110</v>
@@ -6190,7 +6037,7 @@
         <v>181</v>
       </c>
       <c r="D65" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="E65" t="s">
         <v>111</v>
@@ -6213,13 +6060,13 @@
         <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
       <c r="D66" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="E66" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
       <c r="F66" t="s">
         <v>15</v>
@@ -6242,10 +6089,10 @@
         <v>308</v>
       </c>
       <c r="D67" t="s">
-        <v>1360</v>
+        <v>1270</v>
       </c>
       <c r="E67" t="s">
-        <v>1369</v>
+        <v>1279</v>
       </c>
       <c r="F67" t="s">
         <v>15</v>
@@ -6268,10 +6115,10 @@
         <v>316</v>
       </c>
       <c r="D68" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
       <c r="E68" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
@@ -6294,10 +6141,10 @@
         <v>306</v>
       </c>
       <c r="D69" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="E69" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -6317,13 +6164,13 @@
         <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>1205</v>
+        <v>1155</v>
       </c>
       <c r="D70" t="s">
-        <v>1207</v>
+        <v>1157</v>
       </c>
       <c r="E70" t="s">
-        <v>1206</v>
+        <v>1156</v>
       </c>
       <c r="F70" t="s">
         <v>15</v>
@@ -6350,8 +6197,8 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6412,13 +6259,13 @@
         <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>1330</v>
+        <v>1240</v>
       </c>
       <c r="F3" t="s">
-        <v>1332</v>
+        <v>1242</v>
       </c>
       <c r="G3" t="s">
-        <v>1333</v>
+        <v>1243</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -6441,13 +6288,13 @@
         <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>1334</v>
+        <v>1244</v>
       </c>
       <c r="F4" t="s">
-        <v>1331</v>
+        <v>1241</v>
       </c>
       <c r="G4" t="s">
-        <v>1343</v>
+        <v>1253</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -6473,10 +6320,10 @@
         <v>494</v>
       </c>
       <c r="F5" t="s">
-        <v>1342</v>
+        <v>1252</v>
       </c>
       <c r="G5" t="s">
-        <v>1344</v>
+        <v>1254</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -6502,10 +6349,10 @@
         <v>497</v>
       </c>
       <c r="F6" t="s">
-        <v>1341</v>
+        <v>1251</v>
       </c>
       <c r="G6" t="s">
-        <v>1345</v>
+        <v>1255</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -6528,13 +6375,13 @@
         <v>184</v>
       </c>
       <c r="E7" t="s">
-        <v>1335</v>
+        <v>1245</v>
       </c>
       <c r="F7" t="s">
-        <v>1340</v>
+        <v>1250</v>
       </c>
       <c r="G7" t="s">
-        <v>1346</v>
+        <v>1256</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -6560,10 +6407,10 @@
         <v>445</v>
       </c>
       <c r="F8" t="s">
-        <v>1339</v>
+        <v>1249</v>
       </c>
       <c r="G8" t="s">
-        <v>1347</v>
+        <v>1257</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -6589,10 +6436,10 @@
         <v>564</v>
       </c>
       <c r="F9" t="s">
-        <v>1338</v>
+        <v>1248</v>
       </c>
       <c r="G9" t="s">
-        <v>1348</v>
+        <v>1258</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -6615,13 +6462,13 @@
         <v>184</v>
       </c>
       <c r="E10" t="s">
-        <v>1336</v>
+        <v>1246</v>
       </c>
       <c r="F10" t="s">
-        <v>1337</v>
+        <v>1247</v>
       </c>
       <c r="G10" t="s">
-        <v>1349</v>
+        <v>1259</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -14136,13 +13983,13 @@
         <v>861</v>
       </c>
       <c r="B3" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="F3" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="G3" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -14162,13 +14009,13 @@
         <v>861</v>
       </c>
       <c r="B4" t="s">
-        <v>1215</v>
+        <v>1165</v>
       </c>
       <c r="F4" t="s">
-        <v>1208</v>
+        <v>1158</v>
       </c>
       <c r="G4" t="s">
-        <v>1209</v>
+        <v>1159</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -14188,13 +14035,13 @@
         <v>861</v>
       </c>
       <c r="B5" t="s">
-        <v>1210</v>
+        <v>1160</v>
       </c>
       <c r="F5" t="s">
-        <v>1211</v>
+        <v>1161</v>
       </c>
       <c r="G5" t="s">
-        <v>1213</v>
+        <v>1163</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -14214,13 +14061,13 @@
         <v>861</v>
       </c>
       <c r="B6" t="s">
-        <v>1216</v>
+        <v>1166</v>
       </c>
       <c r="F6" t="s">
-        <v>1212</v>
+        <v>1162</v>
       </c>
       <c r="G6" t="s">
-        <v>1214</v>
+        <v>1164</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -14237,10 +14084,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1181</v>
+        <v>1131</v>
       </c>
       <c r="F7" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="G7" t="s">
         <v>39</v>
@@ -14260,13 +14107,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1180</v>
+        <v>1130</v>
       </c>
       <c r="F8" t="s">
-        <v>1350</v>
+        <v>1260</v>
       </c>
       <c r="G8" t="s">
-        <v>1351</v>
+        <v>1261</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -14283,10 +14130,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="F9" t="s">
-        <v>1094</v>
+        <v>1079</v>
       </c>
       <c r="G9" t="s">
         <v>40</v>
@@ -14309,7 +14156,7 @@
         <v>58</v>
       </c>
       <c r="F10" t="s">
-        <v>1095</v>
+        <v>1080</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -14332,7 +14179,7 @@
         <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>1096</v>
+        <v>1081</v>
       </c>
       <c r="G11" t="s">
         <v>42</v>
@@ -14355,7 +14202,7 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="G12" t="s">
         <v>43</v>
@@ -14378,7 +14225,7 @@
         <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>1098</v>
+        <v>1083</v>
       </c>
       <c r="G13" t="s">
         <v>44</v>
@@ -14466,13 +14313,13 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>1002</v>
+        <v>987</v>
       </c>
       <c r="F3" t="s">
-        <v>1003</v>
+        <v>988</v>
       </c>
       <c r="G3" t="s">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -14492,13 +14339,13 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>1005</v>
+        <v>990</v>
       </c>
       <c r="F4" t="s">
-        <v>1006</v>
+        <v>991</v>
       </c>
       <c r="G4" t="s">
-        <v>1007</v>
+        <v>992</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -14518,13 +14365,13 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>1008</v>
+        <v>993</v>
       </c>
       <c r="F5" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="G5" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -14544,13 +14391,13 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>1011</v>
+        <v>996</v>
       </c>
       <c r="F6" t="s">
-        <v>1012</v>
+        <v>997</v>
       </c>
       <c r="G6" t="s">
-        <v>1013</v>
+        <v>998</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -14570,13 +14417,13 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="F7" t="s">
-        <v>1015</v>
+        <v>1000</v>
       </c>
       <c r="G7" t="s">
-        <v>1016</v>
+        <v>1001</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -14596,13 +14443,13 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>1017</v>
+        <v>1002</v>
       </c>
       <c r="F8" t="s">
-        <v>1018</v>
+        <v>1003</v>
       </c>
       <c r="G8" t="s">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -14622,13 +14469,13 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="F9" t="s">
-        <v>1021</v>
+        <v>1006</v>
       </c>
       <c r="G9" t="s">
-        <v>1022</v>
+        <v>1007</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -14648,13 +14495,13 @@
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>1023</v>
+        <v>1008</v>
       </c>
       <c r="F10" t="s">
-        <v>1024</v>
+        <v>1009</v>
       </c>
       <c r="G10" t="s">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -14674,13 +14521,13 @@
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>1026</v>
+        <v>1011</v>
       </c>
       <c r="F11" t="s">
-        <v>1027</v>
+        <v>1012</v>
       </c>
       <c r="G11" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -14700,13 +14547,13 @@
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="F12" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="G12" t="s">
-        <v>1031</v>
+        <v>1016</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -14726,13 +14573,13 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="F13" t="s">
-        <v>1033</v>
+        <v>1018</v>
       </c>
       <c r="G13" t="s">
-        <v>1034</v>
+        <v>1019</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -14752,13 +14599,13 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>1035</v>
+        <v>1020</v>
       </c>
       <c r="F14" t="s">
-        <v>1036</v>
+        <v>1021</v>
       </c>
       <c r="G14" t="s">
-        <v>1037</v>
+        <v>1022</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -14778,13 +14625,13 @@
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>1038</v>
+        <v>1023</v>
       </c>
       <c r="F15" t="s">
-        <v>1039</v>
+        <v>1024</v>
       </c>
       <c r="G15" t="s">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -14804,13 +14651,13 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>1177</v>
+        <v>1127</v>
       </c>
       <c r="F16" t="s">
-        <v>1178</v>
+        <v>1128</v>
       </c>
       <c r="G16" t="s">
-        <v>1179</v>
+        <v>1129</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -14835,18 +14682,18 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -14894,13 +14741,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>997</v>
+        <v>982</v>
       </c>
       <c r="F3" t="s">
-        <v>996</v>
+        <v>1280</v>
       </c>
       <c r="G3" t="s">
-        <v>995</v>
+        <v>1290</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -14917,13 +14764,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="F4" t="s">
-        <v>993</v>
+        <v>1281</v>
       </c>
       <c r="G4" t="s">
-        <v>782</v>
+        <v>1291</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -14940,13 +14787,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="F5" t="s">
-        <v>991</v>
+        <v>1282</v>
       </c>
       <c r="G5" t="s">
-        <v>990</v>
+        <v>1292</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -14963,13 +14810,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="F6" t="s">
-        <v>988</v>
+        <v>1283</v>
       </c>
       <c r="G6" t="s">
-        <v>787</v>
+        <v>1293</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -14986,13 +14833,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="F7" t="s">
-        <v>986</v>
+        <v>1284</v>
       </c>
       <c r="G7" t="s">
-        <v>823</v>
+        <v>1294</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -15009,13 +14856,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="F8" t="s">
-        <v>984</v>
+        <v>1285</v>
       </c>
       <c r="G8" t="s">
-        <v>983</v>
+        <v>1295</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -15032,13 +14879,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="F9" t="s">
-        <v>981</v>
+        <v>1286</v>
       </c>
       <c r="G9" t="s">
-        <v>980</v>
+        <v>1296</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -15055,13 +14902,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="F10" t="s">
-        <v>978</v>
+        <v>1287</v>
       </c>
       <c r="G10" t="s">
-        <v>977</v>
+        <v>1297</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -15078,13 +14925,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F11" t="s">
-        <v>975</v>
+        <v>1288</v>
       </c>
       <c r="G11" t="s">
-        <v>974</v>
+        <v>1298</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -15101,163 +14948,178 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="str">
+        <f>$F$12</f>
+        <v>RSD_BLD-XXX_NRGSRV-WS</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="str">
+        <f t="shared" ref="A14:A15" si="0">$F$12</f>
+        <v>RSD_BLD-XXX_NRGSRV-WS</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1301</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>RSD_BLD-XXX_NRGSRV-WS</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>1124</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F16" t="s">
         <v>1121</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G16" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F18" t="s">
         <v>1123</v>
       </c>
-      <c r="G12" t="s">
-        <v>1122</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1138</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1135</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1142</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1139</v>
-      </c>
-      <c r="G14" t="s">
-        <v>1136</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1137</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1163</v>
-      </c>
-      <c r="G16" t="s">
-        <v>1154</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1164</v>
-      </c>
-      <c r="G17" t="s">
-        <v>1155</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>1146</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1165</v>
-      </c>
       <c r="G18" t="s">
-        <v>1156</v>
+        <v>1120</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -15273,14 +15135,15 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>1147</v>
+        <v>1307</v>
       </c>
       <c r="F19" t="s">
-        <v>1166</v>
+        <v>1308</v>
       </c>
       <c r="G19" t="s">
-        <v>1157</v>
+        <v>1309</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -15296,20 +15159,24 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="str">
+        <f>$F$19</f>
+        <v>RSD_BLD-XXX_RTFT</v>
+      </c>
       <c r="B20" t="s">
-        <v>1176</v>
+        <v>1313</v>
       </c>
       <c r="F20" t="s">
-        <v>1167</v>
+        <v>1316</v>
       </c>
       <c r="G20" t="s">
-        <v>1158</v>
+        <v>1310</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
         <v>15</v>
@@ -15319,20 +15186,24 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="str">
+        <f t="shared" ref="A21:A22" si="1">$F$19</f>
+        <v>RSD_BLD-XXX_RTFT</v>
+      </c>
       <c r="B21" t="s">
-        <v>1148</v>
+        <v>1314</v>
       </c>
       <c r="F21" t="s">
-        <v>1168</v>
+        <v>1317</v>
       </c>
       <c r="G21" t="s">
-        <v>1159</v>
+        <v>1311</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
         <v>15</v>
@@ -15342,450 +15213,29 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>RSD_BLD-XXX_RTFT</v>
+      </c>
       <c r="B22" t="s">
-        <v>1149</v>
+        <v>1315</v>
       </c>
       <c r="F22" t="s">
-        <v>1169</v>
+        <v>1318</v>
       </c>
       <c r="G22" t="s">
-        <v>1160</v>
+        <v>1312</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
         <v>15</v>
       </c>
       <c r="K22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1170</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1161</v>
-      </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1162</v>
-      </c>
-      <c r="H24" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1175</v>
-      </c>
-      <c r="H25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>1225</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1217</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1221</v>
-      </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1223</v>
-      </c>
-      <c r="H28" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H29" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>"-"&amp;_xlfn.TEXTJOIN(",-",TRUE,F27:F29)</f>
-        <v>-RSD_TECH-HP,-RSD_TECH-AC,-RSD_TECH-DH</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1220</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1222</v>
-      </c>
-      <c r="H30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" t="s">
-        <v>15</v>
-      </c>
-      <c r="K30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>186</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1248</v>
-      </c>
-      <c r="H31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" t="s">
-        <v>15</v>
-      </c>
-      <c r="K31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H32" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" t="s">
-        <v>15</v>
-      </c>
-      <c r="K32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1241</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" t="s">
-        <v>16</v>
-      </c>
-      <c r="J33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>186</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1242</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1233</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H34" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1252</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" t="s">
-        <v>15</v>
-      </c>
-      <c r="K35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1235</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>16</v>
-      </c>
-      <c r="J36" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1236</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1254</v>
-      </c>
-      <c r="H37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1255</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1256</v>
-      </c>
-      <c r="H39" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" t="s">
-        <v>15</v>
-      </c>
-      <c r="K39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -15862,7 +15312,7 @@
         <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -15891,7 +15341,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -15920,7 +15370,7 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -15946,16 +15396,16 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>999</v>
+        <v>984</v>
       </c>
       <c r="E6" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F6" t="s">
-        <v>1000</v>
+        <v>985</v>
       </c>
       <c r="G6" t="s">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -15978,7 +15428,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
@@ -16239,13 +15689,13 @@
         <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>1257</v>
+        <v>1167</v>
       </c>
       <c r="F16" t="s">
-        <v>1258</v>
+        <v>1168</v>
       </c>
       <c r="G16" t="s">
-        <v>1259</v>
+        <v>1169</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -16268,13 +15718,13 @@
         <v>47</v>
       </c>
       <c r="E17" t="s">
-        <v>1260</v>
+        <v>1170</v>
       </c>
       <c r="F17" t="s">
-        <v>1261</v>
+        <v>1171</v>
       </c>
       <c r="G17" t="s">
-        <v>1262</v>
+        <v>1172</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -16297,13 +15747,13 @@
         <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>1263</v>
+        <v>1173</v>
       </c>
       <c r="F18" t="s">
-        <v>1271</v>
+        <v>1181</v>
       </c>
       <c r="G18" t="s">
-        <v>1264</v>
+        <v>1174</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -16326,13 +15776,13 @@
         <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>1266</v>
+        <v>1176</v>
       </c>
       <c r="F19" t="s">
-        <v>1265</v>
+        <v>1175</v>
       </c>
       <c r="G19" t="s">
-        <v>1267</v>
+        <v>1177</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -16355,13 +15805,13 @@
         <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>1268</v>
+        <v>1178</v>
       </c>
       <c r="F20" t="s">
-        <v>1269</v>
+        <v>1179</v>
       </c>
       <c r="G20" t="s">
-        <v>1270</v>
+        <v>1180</v>
       </c>
       <c r="H20" t="s">
         <v>15</v>
@@ -16381,16 +15831,16 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>1272</v>
+        <v>1182</v>
       </c>
       <c r="E21" t="s">
         <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>1119</v>
+        <v>1104</v>
       </c>
       <c r="G21" t="s">
-        <v>1120</v>
+        <v>1105</v>
       </c>
       <c r="H21" t="s">
         <v>15</v>
@@ -16410,16 +15860,16 @@
         <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>1273</v>
+        <v>1183</v>
       </c>
       <c r="E22" t="s">
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>1281</v>
+        <v>1191</v>
       </c>
       <c r="G22" t="s">
-        <v>1274</v>
+        <v>1184</v>
       </c>
       <c r="H22" t="s">
         <v>15</v>
@@ -16439,16 +15889,16 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>1275</v>
+        <v>1185</v>
       </c>
       <c r="E23" t="s">
         <v>51</v>
       </c>
       <c r="F23" t="s">
-        <v>1282</v>
+        <v>1192</v>
       </c>
       <c r="G23" t="s">
-        <v>1276</v>
+        <v>1186</v>
       </c>
       <c r="H23" t="s">
         <v>15</v>
@@ -16468,16 +15918,16 @@
         <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>1277</v>
+        <v>1187</v>
       </c>
       <c r="E24" t="s">
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>1283</v>
+        <v>1193</v>
       </c>
       <c r="G24" t="s">
-        <v>1278</v>
+        <v>1188</v>
       </c>
       <c r="H24" t="s">
         <v>15</v>
@@ -16497,16 +15947,16 @@
         <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>1279</v>
+        <v>1189</v>
       </c>
       <c r="E25" t="s">
         <v>51</v>
       </c>
       <c r="F25" t="s">
-        <v>1284</v>
+        <v>1194</v>
       </c>
       <c r="G25" t="s">
-        <v>1280</v>
+        <v>1190</v>
       </c>
       <c r="H25" t="s">
         <v>15</v>
@@ -16526,16 +15976,16 @@
         <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>1285</v>
+        <v>1195</v>
       </c>
       <c r="E26" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F26" t="s">
-        <v>1286</v>
+        <v>1196</v>
       </c>
       <c r="G26" t="s">
-        <v>1287</v>
+        <v>1197</v>
       </c>
       <c r="H26" t="s">
         <v>15</v>
@@ -16555,16 +16005,16 @@
         <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>1288</v>
+        <v>1198</v>
       </c>
       <c r="E27" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F27" t="s">
-        <v>1309</v>
+        <v>1219</v>
       </c>
       <c r="G27" t="s">
-        <v>1291</v>
+        <v>1201</v>
       </c>
       <c r="H27" t="s">
         <v>15</v>
@@ -16584,16 +16034,16 @@
         <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>1289</v>
+        <v>1199</v>
       </c>
       <c r="E28" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F28" t="s">
-        <v>1310</v>
+        <v>1220</v>
       </c>
       <c r="G28" t="s">
-        <v>1292</v>
+        <v>1202</v>
       </c>
       <c r="H28" t="s">
         <v>15</v>
@@ -16613,16 +16063,16 @@
         <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>1290</v>
+        <v>1200</v>
       </c>
       <c r="E29" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F29" t="s">
-        <v>1311</v>
+        <v>1221</v>
       </c>
       <c r="G29" t="s">
-        <v>1293</v>
+        <v>1203</v>
       </c>
       <c r="H29" t="s">
         <v>15</v>
@@ -16642,16 +16092,16 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>1294</v>
+        <v>1204</v>
       </c>
       <c r="E30" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F30" t="s">
-        <v>1298</v>
+        <v>1208</v>
       </c>
       <c r="G30" t="s">
-        <v>1299</v>
+        <v>1209</v>
       </c>
       <c r="H30" t="s">
         <v>15</v>
@@ -16671,16 +16121,16 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>1295</v>
+        <v>1205</v>
       </c>
       <c r="E31" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F31" t="s">
-        <v>1312</v>
+        <v>1222</v>
       </c>
       <c r="G31" t="s">
-        <v>1300</v>
+        <v>1210</v>
       </c>
       <c r="H31" t="s">
         <v>15</v>
@@ -16700,16 +16150,16 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>1296</v>
+        <v>1206</v>
       </c>
       <c r="E32" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F32" t="s">
-        <v>1313</v>
+        <v>1223</v>
       </c>
       <c r="G32" t="s">
-        <v>1301</v>
+        <v>1211</v>
       </c>
       <c r="H32" t="s">
         <v>15</v>
@@ -16729,16 +16179,16 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>1297</v>
+        <v>1207</v>
       </c>
       <c r="E33" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F33" t="s">
-        <v>1314</v>
+        <v>1224</v>
       </c>
       <c r="G33" t="s">
-        <v>1302</v>
+        <v>1212</v>
       </c>
       <c r="H33" t="s">
         <v>15</v>
@@ -16758,16 +16208,16 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>1303</v>
+        <v>1213</v>
       </c>
       <c r="E34" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F34" t="s">
-        <v>1308</v>
+        <v>1218</v>
       </c>
       <c r="G34" t="s">
-        <v>1319</v>
+        <v>1229</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -16787,16 +16237,16 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>1304</v>
+        <v>1214</v>
       </c>
       <c r="E35" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F35" t="s">
-        <v>1315</v>
+        <v>1225</v>
       </c>
       <c r="G35" t="s">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
@@ -16816,16 +16266,16 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>1305</v>
+        <v>1215</v>
       </c>
       <c r="E36" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F36" t="s">
-        <v>1316</v>
+        <v>1226</v>
       </c>
       <c r="G36" t="s">
-        <v>1321</v>
+        <v>1231</v>
       </c>
       <c r="H36" t="s">
         <v>15</v>
@@ -16845,16 +16295,16 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>1306</v>
+        <v>1216</v>
       </c>
       <c r="E37" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F37" t="s">
-        <v>1317</v>
+        <v>1227</v>
       </c>
       <c r="G37" t="s">
-        <v>1322</v>
+        <v>1232</v>
       </c>
       <c r="H37" t="s">
         <v>15</v>
@@ -16874,16 +16324,16 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>1307</v>
+        <v>1217</v>
       </c>
       <c r="E38" t="s">
-        <v>998</v>
+        <v>983</v>
       </c>
       <c r="F38" t="s">
-        <v>1318</v>
+        <v>1228</v>
       </c>
       <c r="G38" t="s">
-        <v>1323</v>
+        <v>1233</v>
       </c>
       <c r="H38" t="s">
         <v>15</v>
@@ -16965,13 +16415,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1193</v>
+        <v>1143</v>
       </c>
       <c r="F3" t="s">
-        <v>1099</v>
+        <v>1084</v>
       </c>
       <c r="G3" t="s">
-        <v>1186</v>
+        <v>1136</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -16982,13 +16432,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>1194</v>
+        <v>1144</v>
       </c>
       <c r="F4" t="s">
-        <v>1187</v>
+        <v>1137</v>
       </c>
       <c r="G4" t="s">
-        <v>1188</v>
+        <v>1138</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -16999,13 +16449,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>1183</v>
+        <v>1133</v>
       </c>
       <c r="F5" t="s">
-        <v>1185</v>
+        <v>1135</v>
       </c>
       <c r="G5" t="s">
-        <v>1184</v>
+        <v>1134</v>
       </c>
       <c r="H5" t="s">
         <v>15</v>
@@ -17016,13 +16466,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>1195</v>
+        <v>1145</v>
       </c>
       <c r="F6" t="s">
-        <v>1100</v>
+        <v>1085</v>
       </c>
       <c r="G6" t="s">
-        <v>1190</v>
+        <v>1140</v>
       </c>
       <c r="H6" t="s">
         <v>15</v>
@@ -17039,13 +16489,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>1196</v>
+        <v>1146</v>
       </c>
       <c r="F7" t="s">
-        <v>1191</v>
+        <v>1141</v>
       </c>
       <c r="G7" t="s">
-        <v>1192</v>
+        <v>1142</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -17056,13 +16506,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>1198</v>
+        <v>1148</v>
       </c>
       <c r="F8" t="s">
-        <v>1189</v>
+        <v>1139</v>
       </c>
       <c r="G8" t="s">
-        <v>1199</v>
+        <v>1149</v>
       </c>
       <c r="H8" t="s">
         <v>15</v>
@@ -17073,13 +16523,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>1197</v>
+        <v>1147</v>
       </c>
       <c r="F9" t="s">
-        <v>1201</v>
+        <v>1151</v>
       </c>
       <c r="G9" t="s">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -17093,10 +16543,10 @@
         <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>1101</v>
+        <v>1086</v>
       </c>
       <c r="G10" t="s">
-        <v>1118</v>
+        <v>1103</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -17110,10 +16560,10 @@
         <v>63</v>
       </c>
       <c r="F11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G11" t="s">
         <v>1102</v>
-      </c>
-      <c r="G11" t="s">
-        <v>1117</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -17127,10 +16577,10 @@
         <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>1103</v>
+        <v>1088</v>
       </c>
       <c r="G12" t="s">
-        <v>1116</v>
+        <v>1101</v>
       </c>
       <c r="H12" t="s">
         <v>15</v>
@@ -17147,13 +16597,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>1182</v>
+        <v>1132</v>
       </c>
       <c r="F13" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="G13" t="s">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="H13" t="s">
         <v>15</v>
@@ -17167,10 +16617,10 @@
         <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="G14" t="s">
-        <v>1114</v>
+        <v>1099</v>
       </c>
       <c r="H14" t="s">
         <v>15</v>
@@ -17184,10 +16634,10 @@
         <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>1106</v>
+        <v>1091</v>
       </c>
       <c r="G15" t="s">
-        <v>1113</v>
+        <v>1098</v>
       </c>
       <c r="H15" t="s">
         <v>15</v>
@@ -17201,10 +16651,10 @@
         <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>1107</v>
+        <v>1092</v>
       </c>
       <c r="G16" t="s">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="H16" t="s">
         <v>15</v>
@@ -17218,10 +16668,10 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>1108</v>
+        <v>1093</v>
       </c>
       <c r="G17" t="s">
-        <v>1111</v>
+        <v>1096</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -17235,10 +16685,10 @@
         <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>1109</v>
+        <v>1094</v>
       </c>
       <c r="G18" t="s">
-        <v>1112</v>
+        <v>1097</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>
@@ -17249,13 +16699,13 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>1202</v>
+        <v>1152</v>
       </c>
       <c r="F19" t="s">
-        <v>1203</v>
+        <v>1153</v>
       </c>
       <c r="G19" t="s">
-        <v>1204</v>
+        <v>1154</v>
       </c>
       <c r="H19" t="s">
         <v>15</v>
@@ -17334,13 +16784,13 @@
         <v>788</v>
       </c>
       <c r="B3" t="s">
-        <v>1327</v>
+        <v>1237</v>
       </c>
       <c r="F3" t="s">
-        <v>1328</v>
+        <v>1238</v>
       </c>
       <c r="G3" t="s">
-        <v>1329</v>
+        <v>1239</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>
@@ -17423,13 +16873,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1324</v>
+        <v>1234</v>
       </c>
       <c r="F3" t="s">
-        <v>1325</v>
+        <v>1235</v>
       </c>
       <c r="G3" t="s">
-        <v>1326</v>
+        <v>1236</v>
       </c>
       <c r="H3" t="s">
         <v>15</v>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D667FB43-5CF1-41D1-8B1E-D348AE4B4C94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D870E49-1AC0-4CD2-B643-EA0B86F40E55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3390" uniqueCount="1319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="1343">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -4003,6 +4003,78 @@
   </si>
   <si>
     <t>RSD_BLD-DET_RTFT</t>
+  </si>
+  <si>
+    <t>SEAI_COAL</t>
+  </si>
+  <si>
+    <t>Coal - SEAI grouping</t>
+  </si>
+  <si>
+    <t>SEAI_PEAT</t>
+  </si>
+  <si>
+    <t>SEAI_OIL</t>
+  </si>
+  <si>
+    <t>Oil - SEAI grouping</t>
+  </si>
+  <si>
+    <t>Peat - SEAI grouping</t>
+  </si>
+  <si>
+    <t>SEAI_NATGAS</t>
+  </si>
+  <si>
+    <t>Natural gas - SEAI grouping</t>
+  </si>
+  <si>
+    <t>SEAI_RENEWABLES</t>
+  </si>
+  <si>
+    <t>Renewables - SEAI grouping</t>
+  </si>
+  <si>
+    <t>SEAI_ELECTRICITY</t>
+  </si>
+  <si>
+    <t>SEAI_HEAT</t>
+  </si>
+  <si>
+    <t>Electricity - SEAI grouping</t>
+  </si>
+  <si>
+    <t>Heat - SEAI grouping</t>
+  </si>
+  <si>
+    <t>*COA*</t>
+  </si>
+  <si>
+    <t>*PEA*</t>
+  </si>
+  <si>
+    <t>*OIL*,*LPG,*HFO,*GSL,*DST,*KER,INDCOK</t>
+  </si>
+  <si>
+    <t>*ELC*</t>
+  </si>
+  <si>
+    <t>*HET*</t>
+  </si>
+  <si>
+    <t>*REN*,BIO*,AMBHET</t>
+  </si>
+  <si>
+    <t>SUPH2*</t>
+  </si>
+  <si>
+    <t>SEAI_HYDROGEN</t>
+  </si>
+  <si>
+    <t>Hydrogen - SEAI grouping</t>
+  </si>
+  <si>
+    <t>*NAT*,*GAS,*LNG</t>
   </si>
 </sst>
 </file>
@@ -4368,15 +4440,15 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E70"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6182,6 +6254,214 @@
         <v>15</v>
       </c>
       <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>180</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" t="s">
         <v>16</v>
       </c>
     </row>
@@ -14684,7 +14964,7 @@
   </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D870E49-1AC0-4CD2-B643-EA0B86F40E55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B1E673-DCE1-4A55-A52D-E87A7330B70D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="1346">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -4029,12 +4029,6 @@
     <t>Natural gas - SEAI grouping</t>
   </si>
   <si>
-    <t>SEAI_RENEWABLES</t>
-  </si>
-  <si>
-    <t>Renewables - SEAI grouping</t>
-  </si>
-  <si>
     <t>SEAI_ELECTRICITY</t>
   </si>
   <si>
@@ -4062,9 +4056,6 @@
     <t>*HET*</t>
   </si>
   <si>
-    <t>*REN*,BIO*,AMBHET</t>
-  </si>
-  <si>
     <t>SUPH2*</t>
   </si>
   <si>
@@ -4075,6 +4066,24 @@
   </si>
   <si>
     <t>*NAT*,*GAS,*LNG</t>
+  </si>
+  <si>
+    <t>*REN*,AMBHET</t>
+  </si>
+  <si>
+    <t>BIO*</t>
+  </si>
+  <si>
+    <t>Other renewables - SEAI grouping</t>
+  </si>
+  <si>
+    <t>SEAI_OTHER_RENEWABLES</t>
+  </si>
+  <si>
+    <t>SEAI_BIOENERGY</t>
+  </si>
+  <si>
+    <t>Bioenergy - SEAI grouping</t>
   </si>
 </sst>
 </file>
@@ -4440,10 +4449,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6262,7 +6271,7 @@
         <v>180</v>
       </c>
       <c r="B71" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="D71" t="s">
         <v>1319</v>
@@ -6288,7 +6297,7 @@
         <v>180</v>
       </c>
       <c r="B72" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D72" t="s">
         <v>1321</v>
@@ -6314,7 +6323,7 @@
         <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D73" t="s">
         <v>1322</v>
@@ -6340,7 +6349,7 @@
         <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D74" t="s">
         <v>1325</v>
@@ -6366,13 +6375,13 @@
         <v>180</v>
       </c>
       <c r="B75" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="D75" t="s">
-        <v>1327</v>
+        <v>1343</v>
       </c>
       <c r="E75" t="s">
-        <v>1328</v>
+        <v>1342</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -6392,13 +6401,13 @@
         <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>1336</v>
+        <v>1341</v>
       </c>
       <c r="D76" t="s">
-        <v>1329</v>
+        <v>1344</v>
       </c>
       <c r="E76" t="s">
-        <v>1331</v>
+        <v>1345</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>
@@ -6418,13 +6427,13 @@
         <v>180</v>
       </c>
       <c r="B77" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="D77" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="E77" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="F77" t="s">
         <v>15</v>
@@ -6444,13 +6453,13 @@
         <v>180</v>
       </c>
       <c r="B78" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="D78" t="s">
-        <v>1340</v>
+        <v>1328</v>
       </c>
       <c r="E78" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="F78" t="s">
         <v>15</v>
@@ -6462,6 +6471,32 @@
         <v>15</v>
       </c>
       <c r="I78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
         <v>16</v>
       </c>
     </row>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B1E673-DCE1-4A55-A52D-E87A7330B70D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5D40EB-590E-4D46-8F6E-219345022048}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -4068,9 +4068,6 @@
     <t>*NAT*,*GAS,*LNG</t>
   </si>
   <si>
-    <t>*REN*,AMBHET</t>
-  </si>
-  <si>
     <t>BIO*</t>
   </si>
   <si>
@@ -4084,6 +4081,9 @@
   </si>
   <si>
     <t>Bioenergy - SEAI grouping</t>
+  </si>
+  <si>
+    <t>*REN*</t>
   </si>
 </sst>
 </file>
@@ -4451,8 +4451,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6375,13 +6375,13 @@
         <v>180</v>
       </c>
       <c r="B75" t="s">
-        <v>1340</v>
+        <v>1345</v>
       </c>
       <c r="D75" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E75" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -6401,13 +6401,13 @@
         <v>180</v>
       </c>
       <c r="B76" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="D76" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E76" t="s">
         <v>1344</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1345</v>
       </c>
       <c r="F76" t="s">
         <v>15</v>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005907B0-C45D-4C33-9459-57B09F9566A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C6096-5609-479A-BFFF-5729BFC0D5B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="605">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -1848,6 +1848,15 @@
   </si>
   <si>
     <t>Commercial Services - All Except Data Centers</t>
+  </si>
+  <si>
+    <t>SRV_CS-DC-EH-HP</t>
+  </si>
+  <si>
+    <t>SRVHET-LT</t>
+  </si>
+  <si>
+    <t>Commercial Services - DC Excess Heat - Heat Pumps</t>
   </si>
 </sst>
 </file>
@@ -2205,8 +2214,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7245,14 +7254,15 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="57.85546875" bestFit="1" customWidth="1"/>
@@ -7678,6 +7688,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" t="s">
+        <v>603</v>
+      </c>
+      <c r="F17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G17" t="s">
+        <v>604</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C31C6096-5609-479A-BFFF-5729BFC0D5B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932C3CC-2658-44FD-A540-416023D3C1DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="612">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -1857,6 +1857,27 @@
   </si>
   <si>
     <t>Commercial Services - DC Excess Heat - Heat Pumps</t>
+  </si>
+  <si>
+    <t>SRVAHT</t>
+  </si>
+  <si>
+    <t>S*PU*</t>
+  </si>
+  <si>
+    <t>SRV_PU-HP</t>
+  </si>
+  <si>
+    <t>S*CS*</t>
+  </si>
+  <si>
+    <t>SRV_CS-HP</t>
+  </si>
+  <si>
+    <t>Public Services - Heat Pumps</t>
+  </si>
+  <si>
+    <t>Commercial Services - Heat Pumps</t>
   </si>
 </sst>
 </file>
@@ -7254,10 +7275,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7714,6 +7735,58 @@
         <v>16</v>
       </c>
     </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" t="s">
+        <v>605</v>
+      </c>
+      <c r="F18" t="s">
+        <v>607</v>
+      </c>
+      <c r="G18" t="s">
+        <v>610</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>608</v>
+      </c>
+      <c r="D19" t="s">
+        <v>605</v>
+      </c>
+      <c r="F19" t="s">
+        <v>609</v>
+      </c>
+      <c r="G19" t="s">
+        <v>611</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932C3CC-2658-44FD-A540-416023D3C1DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EFB912-37D6-4F5E-9355-AC2393FA7669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="633">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -1878,6 +1878,69 @@
   </si>
   <si>
     <t>Commercial Services - Heat Pumps</t>
+  </si>
+  <si>
+    <t>PRC_AGR</t>
+  </si>
+  <si>
+    <t>PRC_SRV</t>
+  </si>
+  <si>
+    <t>PRC_IND</t>
+  </si>
+  <si>
+    <t>PRC_PWR</t>
+  </si>
+  <si>
+    <t>PRC_RSD</t>
+  </si>
+  <si>
+    <t>PRC_SUP</t>
+  </si>
+  <si>
+    <t>PRC_TRA</t>
+  </si>
+  <si>
+    <t>All AGR processes</t>
+  </si>
+  <si>
+    <t>All SRV processes</t>
+  </si>
+  <si>
+    <t>All IND processes</t>
+  </si>
+  <si>
+    <t>All PWR processes</t>
+  </si>
+  <si>
+    <t>All RSD processes</t>
+  </si>
+  <si>
+    <t>All SUP processes</t>
+  </si>
+  <si>
+    <t>All TRA processes</t>
+  </si>
+  <si>
+    <t>A*,FT-AGR*</t>
+  </si>
+  <si>
+    <t>R*,FT-RSD*</t>
+  </si>
+  <si>
+    <t>P*,FT-PWR*,*GRID*</t>
+  </si>
+  <si>
+    <t>I*,FT-IND*</t>
+  </si>
+  <si>
+    <t>S-*,FT-SRV*</t>
+  </si>
+  <si>
+    <t>T*,FT-TRA*</t>
+  </si>
+  <si>
+    <t>S*,FT-SUP*,-S-*</t>
   </si>
 </sst>
 </file>
@@ -4294,10 +4357,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4611,6 +4674,173 @@
         <v>15</v>
       </c>
       <c r="K13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>626</v>
+      </c>
+      <c r="F14" t="s">
+        <v>612</v>
+      </c>
+      <c r="G14" t="s">
+        <v>619</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>630</v>
+      </c>
+      <c r="F15" t="s">
+        <v>613</v>
+      </c>
+      <c r="G15" t="s">
+        <v>620</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" t="s">
+        <v>629</v>
+      </c>
+      <c r="F16" t="s">
+        <v>614</v>
+      </c>
+      <c r="G16" t="s">
+        <v>621</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>628</v>
+      </c>
+      <c r="F17" t="s">
+        <v>615</v>
+      </c>
+      <c r="G17" t="s">
+        <v>622</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>627</v>
+      </c>
+      <c r="F18" t="s">
+        <v>616</v>
+      </c>
+      <c r="G18" t="s">
+        <v>623</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>632</v>
+      </c>
+      <c r="F19" t="s">
+        <v>617</v>
+      </c>
+      <c r="G19" t="s">
+        <v>624</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" t="s">
+        <v>631</v>
+      </c>
+      <c r="F20" t="s">
+        <v>618</v>
+      </c>
+      <c r="G20" t="s">
+        <v>625</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7277,8 +7507,8 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr backupFile="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EFB912-37D6-4F5E-9355-AC2393FA7669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E46CE5-263A-4F40-AC1E-409B701C8B99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -1922,9 +1922,6 @@
     <t>All TRA processes</t>
   </si>
   <si>
-    <t>A*,FT-AGR*</t>
-  </si>
-  <si>
     <t>R*,FT-RSD*</t>
   </si>
   <si>
@@ -1941,6 +1938,9 @@
   </si>
   <si>
     <t>S*,FT-SUP*,-S-*</t>
+  </si>
+  <si>
+    <t>A*,*AGR*</t>
   </si>
 </sst>
 </file>
@@ -4360,7 +4360,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="F14" t="s">
         <v>612</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F15" t="s">
         <v>613</v>
@@ -4728,7 +4728,7 @@
         <v>325</v>
       </c>
       <c r="B16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F16" t="s">
         <v>614</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F17" t="s">
         <v>615</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F18" t="s">
         <v>616</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F19" t="s">
         <v>617</v>
@@ -4823,7 +4823,7 @@
         <v>325</v>
       </c>
       <c r="B20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F20" t="s">
         <v>618</v>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E46CE5-263A-4F40-AC1E-409B701C8B99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD2C40A-699B-4CE4-9753-B9E06BE51D2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -1937,10 +1937,10 @@
     <t>T*,FT-TRA*</t>
   </si>
   <si>
-    <t>S*,FT-SUP*,-S-*</t>
-  </si>
-  <si>
     <t>A*,*AGR*</t>
+  </si>
+  <si>
+    <t>S*,FT-SUP*,IMP*,EXP*,MIN*,-S-*</t>
   </si>
 </sst>
 </file>
@@ -4360,7 +4360,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F14" t="s">
         <v>612</v>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F19" t="s">
         <v>617</v>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr backupFile="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD2C40A-699B-4CE4-9753-B9E06BE51D2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9C4B48-1DEE-48E5-849E-9281725DECAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
@@ -4359,8 +4359,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6961,8 +6961,8 @@
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7272,7 +7272,7 @@
         <v>311</v>
       </c>
       <c r="G17" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H17" t="s">
         <v>15</v>
@@ -7289,7 +7289,7 @@
         <v>312</v>
       </c>
       <c r="G18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H18" t="s">
         <v>15</v>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,28 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr backupFile="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr backupFile="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9C4B48-1DEE-48E5-849E-9281725DECAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91F43E5-4D5A-4405-B66A-C12391594DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sets-Comm" sheetId="5" r:id="rId1"/>
-    <sheet name="Sets-Proc" sheetId="11" r:id="rId2"/>
-    <sheet name="IND_Sets-Proc" sheetId="6" r:id="rId3"/>
-    <sheet name="RSD_Sets-Proc" sheetId="9" r:id="rId4"/>
-    <sheet name="TRA_Sets-Proc" sheetId="10" r:id="rId5"/>
-    <sheet name="PWR_Sets-Proc" sheetId="8" r:id="rId6"/>
-    <sheet name="AGR_Sets-Proc" sheetId="14" r:id="rId7"/>
-    <sheet name="SUP_Sets-Proc" sheetId="12" r:id="rId8"/>
-    <sheet name="SRV_Sets-Proc" sheetId="15" r:id="rId9"/>
+    <sheet name="Cover" sheetId="16" r:id="rId1"/>
+    <sheet name="Sets-Comm" sheetId="5" r:id="rId2"/>
+    <sheet name="Sets-Proc" sheetId="11" r:id="rId3"/>
+    <sheet name="IND_Sets-Proc" sheetId="6" r:id="rId4"/>
+    <sheet name="RSD_Sets-Proc" sheetId="9" r:id="rId5"/>
+    <sheet name="TRA_Sets-Proc" sheetId="10" r:id="rId6"/>
+    <sheet name="PWR_Sets-Proc" sheetId="8" r:id="rId7"/>
+    <sheet name="AGR_Sets-Proc" sheetId="14" r:id="rId8"/>
+    <sheet name="SUP_Sets-Proc" sheetId="12" r:id="rId9"/>
+    <sheet name="SRV_Sets-Proc" sheetId="15" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">2030000</definedName>
+    <definedName name="RiskHasSettings" hidden="1">5</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
+    <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="649">
   <si>
     <t>~TFM_Psets</t>
   </si>
@@ -1941,13 +2011,64 @@
   </si>
   <si>
     <t>S*,FT-SUP*,IMP*,EXP*,MIN*,-S-*</t>
+  </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Document type:</t>
+  </si>
+  <si>
+    <t>Template type</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Sector name</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Brief description of what this file is for</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Full Name(s) (Affiliation, email)</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1955,13 +2076,107 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1973,15 +2188,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{17C529F0-2ACB-423D-84AA-01D83A782E0E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1994,6 +2267,328 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4793B0C-7E95-455C-B0CB-1A9B2502D62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1"/>
+          <a:ext cx="5796000" cy="2324211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784447AE-1FD0-4F28-A1A5-EE6260431F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="8810625"/>
+          <a:ext cx="1431433" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509323</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312511</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{491EA09E-8916-42B6-AFF9-6AE648928F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957123" y="8810625"/>
+          <a:ext cx="1250988" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1408474</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049B1B57-E70B-46F9-901A-CE09A3B75F2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733801" y="8810625"/>
+          <a:ext cx="2018073" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8091D1-74BF-4EFB-AAD8-850904C730D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3628275" y="7962900"/>
+          <a:ext cx="1400925" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB27DD0-3AE8-4401-AAF8-48085C11883C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="8077200"/>
+          <a:ext cx="1676400" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2292,8 +2887,3380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A254A0F-7158-4F85-B7C3-36851FAE9E89}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>636</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>641</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="B29" s="15">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+      <c r="Z61" s="3"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+      <c r="Z65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+      <c r="Z69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="3"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" s="3"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="3"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{7C4949C3-8590-458B-B2D3-98B4CE2A4156}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{11085E39-260B-4B51-8A4C-480062017CCE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F4EBB5-8F5D-4492-A870-22D6545A1D24}">
+  <sheetPr codeName="Sheet9">
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F3" t="s">
+        <v>560</v>
+      </c>
+      <c r="G3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F4" t="s">
+        <v>577</v>
+      </c>
+      <c r="G4" t="s">
+        <v>589</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F5" t="s">
+        <v>561</v>
+      </c>
+      <c r="G5" t="s">
+        <v>586</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>546</v>
+      </c>
+      <c r="E6" t="s">
+        <v>563</v>
+      </c>
+      <c r="F6" t="s">
+        <v>562</v>
+      </c>
+      <c r="G6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>546</v>
+      </c>
+      <c r="E7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F7" t="s">
+        <v>567</v>
+      </c>
+      <c r="G7" t="s">
+        <v>582</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>546</v>
+      </c>
+      <c r="E8" t="s">
+        <v>566</v>
+      </c>
+      <c r="F8" t="s">
+        <v>568</v>
+      </c>
+      <c r="G8" t="s">
+        <v>583</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>546</v>
+      </c>
+      <c r="E9" t="s">
+        <v>569</v>
+      </c>
+      <c r="F9" t="s">
+        <v>571</v>
+      </c>
+      <c r="G9" t="s">
+        <v>584</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>546</v>
+      </c>
+      <c r="E10" t="s">
+        <v>570</v>
+      </c>
+      <c r="F10" t="s">
+        <v>572</v>
+      </c>
+      <c r="G10" t="s">
+        <v>585</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E11" t="s">
+        <v>573</v>
+      </c>
+      <c r="F11" t="s">
+        <v>574</v>
+      </c>
+      <c r="G11" t="s">
+        <v>580</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>546</v>
+      </c>
+      <c r="E12" t="s">
+        <v>575</v>
+      </c>
+      <c r="F12" t="s">
+        <v>576</v>
+      </c>
+      <c r="G12" t="s">
+        <v>581</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>546</v>
+      </c>
+      <c r="E13" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" t="s">
+        <v>593</v>
+      </c>
+      <c r="G13" t="s">
+        <v>591</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>546</v>
+      </c>
+      <c r="E14" t="s">
+        <v>592</v>
+      </c>
+      <c r="F14" t="s">
+        <v>594</v>
+      </c>
+      <c r="G14" t="s">
+        <v>595</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>546</v>
+      </c>
+      <c r="E15" t="s">
+        <v>596</v>
+      </c>
+      <c r="F15" t="s">
+        <v>598</v>
+      </c>
+      <c r="G15" t="s">
+        <v>601</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>546</v>
+      </c>
+      <c r="E16" t="s">
+        <v>597</v>
+      </c>
+      <c r="F16" t="s">
+        <v>599</v>
+      </c>
+      <c r="G16" t="s">
+        <v>600</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" t="s">
+        <v>603</v>
+      </c>
+      <c r="F17" t="s">
+        <v>602</v>
+      </c>
+      <c r="G17" t="s">
+        <v>604</v>
+      </c>
+      <c r="H17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" t="s">
+        <v>605</v>
+      </c>
+      <c r="F18" t="s">
+        <v>607</v>
+      </c>
+      <c r="G18" t="s">
+        <v>610</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>608</v>
+      </c>
+      <c r="D19" t="s">
+        <v>605</v>
+      </c>
+      <c r="F19" t="s">
+        <v>609</v>
+      </c>
+      <c r="G19" t="s">
+        <v>611</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCDF15-1442-474A-ACC7-D199AB8A1E18}">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:J79"/>
@@ -4352,9 +8319,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD40ADC-D5CC-4772-80B1-A116F59E0A06}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L20"/>
@@ -4849,9 +8816,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24231217-6A54-4B12-AA31-B59CB94B1CCE}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L16"/>
@@ -5278,9 +9245,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E260F6-B56C-4203-813B-A6591E1CBE42}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L22"/>
@@ -5845,9 +9812,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164F825B-1ED3-4C53-ABF7-18084792D4FD}">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L38"/>
@@ -6954,14 +10921,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDDC4F5-4EDB-49DB-9D6D-333A351F1738}">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
@@ -7320,9 +11287,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A73284-DF56-4361-8316-EB8159A9346F}">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
@@ -7412,9 +11379,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B790B4BC-8607-4508-A698-E46A5EB98EA7}">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:L3"/>
@@ -7498,526 +11465,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F4EBB5-8F5D-4492-A870-22D6545A1D24}">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:L19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>546</v>
-      </c>
-      <c r="E3" t="s">
-        <v>578</v>
-      </c>
-      <c r="F3" t="s">
-        <v>560</v>
-      </c>
-      <c r="G3" t="s">
-        <v>588</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>546</v>
-      </c>
-      <c r="E4" t="s">
-        <v>579</v>
-      </c>
-      <c r="F4" t="s">
-        <v>577</v>
-      </c>
-      <c r="G4" t="s">
-        <v>589</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>546</v>
-      </c>
-      <c r="E5" t="s">
-        <v>564</v>
-      </c>
-      <c r="F5" t="s">
-        <v>561</v>
-      </c>
-      <c r="G5" t="s">
-        <v>586</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>546</v>
-      </c>
-      <c r="E6" t="s">
-        <v>563</v>
-      </c>
-      <c r="F6" t="s">
-        <v>562</v>
-      </c>
-      <c r="G6" t="s">
-        <v>587</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>546</v>
-      </c>
-      <c r="E7" t="s">
-        <v>565</v>
-      </c>
-      <c r="F7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G7" t="s">
-        <v>582</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>546</v>
-      </c>
-      <c r="E8" t="s">
-        <v>566</v>
-      </c>
-      <c r="F8" t="s">
-        <v>568</v>
-      </c>
-      <c r="G8" t="s">
-        <v>583</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>546</v>
-      </c>
-      <c r="E9" t="s">
-        <v>569</v>
-      </c>
-      <c r="F9" t="s">
-        <v>571</v>
-      </c>
-      <c r="G9" t="s">
-        <v>584</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>546</v>
-      </c>
-      <c r="E10" t="s">
-        <v>570</v>
-      </c>
-      <c r="F10" t="s">
-        <v>572</v>
-      </c>
-      <c r="G10" t="s">
-        <v>585</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>546</v>
-      </c>
-      <c r="E11" t="s">
-        <v>573</v>
-      </c>
-      <c r="F11" t="s">
-        <v>574</v>
-      </c>
-      <c r="G11" t="s">
-        <v>580</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>546</v>
-      </c>
-      <c r="E12" t="s">
-        <v>575</v>
-      </c>
-      <c r="F12" t="s">
-        <v>576</v>
-      </c>
-      <c r="G12" t="s">
-        <v>581</v>
-      </c>
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>546</v>
-      </c>
-      <c r="E13" t="s">
-        <v>590</v>
-      </c>
-      <c r="F13" t="s">
-        <v>593</v>
-      </c>
-      <c r="G13" t="s">
-        <v>591</v>
-      </c>
-      <c r="H13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>546</v>
-      </c>
-      <c r="E14" t="s">
-        <v>592</v>
-      </c>
-      <c r="F14" t="s">
-        <v>594</v>
-      </c>
-      <c r="G14" t="s">
-        <v>595</v>
-      </c>
-      <c r="H14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>546</v>
-      </c>
-      <c r="E15" t="s">
-        <v>596</v>
-      </c>
-      <c r="F15" t="s">
-        <v>598</v>
-      </c>
-      <c r="G15" t="s">
-        <v>601</v>
-      </c>
-      <c r="H15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>546</v>
-      </c>
-      <c r="E16" t="s">
-        <v>597</v>
-      </c>
-      <c r="F16" t="s">
-        <v>599</v>
-      </c>
-      <c r="G16" t="s">
-        <v>600</v>
-      </c>
-      <c r="H16" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>546</v>
-      </c>
-      <c r="D17" t="s">
-        <v>603</v>
-      </c>
-      <c r="F17" t="s">
-        <v>602</v>
-      </c>
-      <c r="G17" t="s">
-        <v>604</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>606</v>
-      </c>
-      <c r="D18" t="s">
-        <v>605</v>
-      </c>
-      <c r="F18" t="s">
-        <v>607</v>
-      </c>
-      <c r="G18" t="s">
-        <v>610</v>
-      </c>
-      <c r="H18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>608</v>
-      </c>
-      <c r="D19" t="s">
-        <v>605</v>
-      </c>
-      <c r="F19" t="s">
-        <v>609</v>
-      </c>
-      <c r="G19" t="s">
-        <v>611</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91F43E5-4D5A-4405-B66A-C12391594DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E332CD-8857-4FF5-9ADC-8731981B702F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
@@ -24,9 +24,6 @@
     <sheet name="SUP_Sets-Proc" sheetId="12" r:id="rId9"/>
     <sheet name="SRV_Sets-Proc" sheetId="15" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -2019,27 +2016,15 @@
     <t>Document type:</t>
   </si>
   <si>
-    <t>Template type</t>
-  </si>
-  <si>
     <t>Sector(s):</t>
   </si>
   <si>
-    <t>Sector name</t>
-  </si>
-  <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Brief description of what this file is for</t>
-  </si>
-  <si>
     <t>Original developer(s):</t>
   </si>
   <si>
-    <t>Full Name(s) (Affiliation, email)</t>
-  </si>
-  <si>
     <t>Current maintainer(s):</t>
   </si>
   <si>
@@ -2059,6 +2044,18 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Set Rules</t>
+  </si>
+  <si>
+    <t>All sectors</t>
+  </si>
+  <si>
+    <t>Specifies aggrigation rules for user-defined sets</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
   </si>
 </sst>
 </file>
@@ -2202,9 +2199,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2223,9 +2217,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2238,14 +2229,20 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2578,19 +2575,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2892,7 +2876,7 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3329,20 +3313,20 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="18" t="s">
         <v>633</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -3359,10 +3343,10 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3387,18 +3371,18 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -3415,22 +3399,22 @@
       <c r="Z18" s="3"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
+      <c r="B19" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -3447,22 +3431,22 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
+      <c r="A20" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -3479,22 +3463,22 @@
       <c r="Z20" s="3"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="A21" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -3511,18 +3495,18 @@
       <c r="Z21" s="3"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -3539,14 +3523,14 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3571,10 +3555,10 @@
       <c r="Z23" s="3"/>
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3599,10 +3583,10 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3627,14 +3611,14 @@
       <c r="Z25" s="3"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>642</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3659,10 +3643,10 @@
       <c r="Z26" s="3"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -3687,10 +3671,10 @@
       <c r="Z27" s="3"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3715,14 +3699,14 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>643</v>
-      </c>
-      <c r="B29" s="15">
+      <c r="A29" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3747,16 +3731,16 @@
       <c r="Z29" s="3"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>644</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>645</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -3779,16 +3763,16 @@
       <c r="Z30" s="3"/>
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -3811,12 +3795,12 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>

--- a/SetRules.xlsx
+++ b/SetRules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr backupFile="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EFB912-37D6-4F5E-9355-AC2393FA7669}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD2C40A-699B-4CE4-9753-B9E06BE51D2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{69765015-6AAF-4B94-8956-691CCC759B47}"/>
   </bookViews>
@@ -1922,9 +1922,6 @@
     <t>All TRA processes</t>
   </si>
   <si>
-    <t>A*,FT-AGR*</t>
-  </si>
-  <si>
     <t>R*,FT-RSD*</t>
   </si>
   <si>
@@ -1940,7 +1937,10 @@
     <t>T*,FT-TRA*</t>
   </si>
   <si>
-    <t>S*,FT-SUP*,-S-*</t>
+    <t>A*,*AGR*</t>
+  </si>
+  <si>
+    <t>S*,FT-SUP*,IMP*,EXP*,MIN*,-S-*</t>
   </si>
 </sst>
 </file>
@@ -4360,7 +4360,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4679,7 +4679,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="F14" t="s">
         <v>612</v>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F15" t="s">
         <v>613</v>
@@ -4728,7 +4728,7 @@
         <v>325</v>
       </c>
       <c r="B16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F16" t="s">
         <v>614</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F17" t="s">
         <v>615</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F18" t="s">
         <v>616</v>
@@ -4823,7 +4823,7 @@
         <v>325</v>
       </c>
       <c r="B20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F20" t="s">
         <v>618</v>
